--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="107">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -59,9 +59,6 @@
   </si>
   <si>
     <t xml:space="preserve">-Inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">KickOut</t>
@@ -253,6 +250,9 @@
     <t xml:space="preserve">DX3 Pad</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
     <t xml:space="preserve">(C)DM32 End +  DX1/3 End</t>
   </si>
   <si>
@@ -332,6 +332,9 @@
   </si>
   <si>
     <t xml:space="preserve">DCA24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Property</t>
@@ -1272,8 +1275,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1326,7 +1329,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>100</v>
@@ -1338,7 +1341,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>8</v>
@@ -1350,7 +1353,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>100</v>
@@ -1362,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>8</v>
@@ -1374,7 +1377,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>100</v>
@@ -1386,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>8</v>
@@ -1398,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>100</v>
@@ -1410,7 +1413,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>8</v>
@@ -1422,7 +1425,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>100</v>
@@ -1434,7 +1437,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>8</v>
@@ -1446,7 +1449,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>100</v>
@@ -1458,7 +1461,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>8</v>
@@ -1470,7 +1473,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>100</v>
@@ -1482,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>8</v>
@@ -1494,7 +1497,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>100</v>
@@ -1506,7 +1509,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>8</v>
@@ -1518,7 +1521,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>100</v>
@@ -1530,7 +1533,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>8</v>
@@ -1542,7 +1545,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>100</v>
@@ -1554,7 +1557,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>8</v>
@@ -1566,7 +1569,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>100</v>
@@ -1578,7 +1581,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>8</v>
@@ -1590,7 +1593,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>100</v>
@@ -1602,10 +1605,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
@@ -1614,7 +1617,7 @@
         <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>100</v>
@@ -1626,7 +1629,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>8</v>
@@ -1638,7 +1641,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>100</v>
@@ -1650,7 +1653,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>8</v>
@@ -1662,7 +1665,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>100</v>
@@ -1674,7 +1677,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>8</v>
@@ -1686,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>100</v>
@@ -1698,11 +1701,11 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>29</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>100</v>
@@ -1722,10 +1725,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>9</v>
@@ -1734,7 +1737,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>100</v>
@@ -1746,11 +1749,11 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>32</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>9</v>
       </c>
@@ -1758,7 +1761,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>100</v>
@@ -1770,10 +1773,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>9</v>
@@ -1782,7 +1785,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>100</v>
@@ -1794,10 +1797,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>9</v>
@@ -1806,7 +1809,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>100</v>
@@ -1818,10 +1821,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>9</v>
@@ -1830,7 +1833,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>100</v>
@@ -1842,10 +1845,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>9</v>
@@ -1854,7 +1857,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>100</v>
@@ -1866,10 +1869,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>9</v>
@@ -1878,7 +1881,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>100</v>
@@ -1890,11 +1893,11 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
@@ -1902,7 +1905,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>100</v>
@@ -1914,10 +1917,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>9</v>
@@ -1926,7 +1929,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>100</v>
@@ -1938,10 +1941,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>9</v>
@@ -1950,7 +1953,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>100</v>
@@ -1962,10 +1965,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>9</v>
@@ -1974,7 +1977,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>100</v>
@@ -1986,11 +1989,11 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>44</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>9</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>100</v>
@@ -2010,10 +2013,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>9</v>
@@ -2022,7 +2025,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>100</v>
@@ -2034,10 +2037,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>9</v>
@@ -2046,7 +2049,7 @@
         <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>100</v>
@@ -2058,10 +2061,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>9</v>
@@ -2070,7 +2073,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>100</v>
@@ -2082,10 +2085,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>9</v>
@@ -2094,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>100</v>
@@ -2106,10 +2109,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>9</v>
@@ -2118,7 +2121,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>100</v>
@@ -2130,10 +2133,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>9</v>
@@ -2142,7 +2145,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>100</v>
@@ -2154,10 +2157,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>9</v>
@@ -2166,7 +2169,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>100</v>
@@ -2178,10 +2181,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>9</v>
@@ -2190,7 +2193,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G38" s="1" t="n">
         <v>100</v>
@@ -2202,10 +2205,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>9</v>
@@ -2214,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G39" s="1" t="n">
         <v>100</v>
@@ -2226,10 +2229,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>9</v>
@@ -2238,7 +2241,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G40" s="1" t="n">
         <v>100</v>
@@ -2250,10 +2253,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>9</v>
@@ -2262,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G41" s="1" t="n">
         <v>100</v>
@@ -2274,11 +2277,11 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="D42" s="1" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>10</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G42" s="1" t="n">
         <v>100</v>
@@ -2298,10 +2301,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>9</v>
@@ -2310,7 +2313,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G43" s="1" t="n">
         <v>100</v>
@@ -2322,10 +2325,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>9</v>
@@ -2334,7 +2337,7 @@
         <v>10</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G44" s="1" t="n">
         <v>100</v>
@@ -2346,10 +2349,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>9</v>
@@ -2358,7 +2361,7 @@
         <v>10</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G45" s="1" t="n">
         <v>100</v>
@@ -2370,11 +2373,11 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="D46" s="1" t="s">
         <v>9</v>
       </c>
@@ -2382,7 +2385,7 @@
         <v>10</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G46" s="1" t="n">
         <v>100</v>
@@ -2394,10 +2397,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>9</v>
@@ -2406,7 +2409,7 @@
         <v>10</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G47" s="1" t="n">
         <v>100</v>
@@ -2418,10 +2421,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>9</v>
@@ -2430,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G48" s="1" t="n">
         <v>100</v>
@@ -2442,10 +2445,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>9</v>
@@ -2454,7 +2457,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G49" s="1" t="n">
         <v>100</v>
@@ -2466,10 +2469,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>9</v>
@@ -2478,7 +2481,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G50" s="1" t="n">
         <v>100</v>
@@ -2490,10 +2493,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>9</v>
@@ -2502,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G51" s="1" t="n">
         <v>100</v>
@@ -2514,10 +2517,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>9</v>
@@ -2526,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G52" s="1" t="n">
         <v>100</v>
@@ -2538,10 +2541,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>9</v>
@@ -2550,7 +2553,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G53" s="1" t="n">
         <v>100</v>
@@ -2562,10 +2565,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>9</v>
@@ -2574,7 +2577,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G54" s="1" t="n">
         <v>100</v>
@@ -2586,10 +2589,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>9</v>
@@ -2598,7 +2601,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G55" s="1" t="n">
         <v>100</v>
@@ -2610,10 +2613,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>9</v>
@@ -2622,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G56" s="1" t="n">
         <v>100</v>
@@ -2634,10 +2637,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>9</v>
@@ -2646,7 +2649,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G57" s="1" t="n">
         <v>100</v>
@@ -2658,10 +2661,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>9</v>
@@ -2670,7 +2673,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G58" s="1" t="n">
         <v>100</v>
@@ -2682,10 +2685,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>9</v>
@@ -2694,7 +2697,7 @@
         <v>10</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G59" s="1" t="n">
         <v>100</v>
@@ -2706,10 +2709,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>9</v>
@@ -2718,7 +2721,7 @@
         <v>10</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G60" s="1" t="n">
         <v>100</v>
@@ -2730,10 +2733,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>9</v>
@@ -2742,7 +2745,7 @@
         <v>10</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G61" s="1" t="n">
         <v>100</v>
@@ -2754,10 +2757,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>9</v>
@@ -2766,7 +2769,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G62" s="1" t="n">
         <v>100</v>
@@ -2778,10 +2781,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>9</v>
@@ -2790,7 +2793,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G63" s="1" t="n">
         <v>100</v>
@@ -2802,10 +2805,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>9</v>
@@ -2814,7 +2817,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G64" s="1" t="n">
         <v>100</v>
@@ -2826,10 +2829,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>9</v>
@@ -2838,7 +2841,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G65" s="1" t="n">
         <v>100</v>
@@ -2850,10 +2853,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>9</v>
@@ -2862,7 +2865,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G66" s="1" t="n">
         <v>100</v>
@@ -2874,10 +2877,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>9</v>
@@ -2886,7 +2889,7 @@
         <v>10</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G67" s="1" t="n">
         <v>100</v>
@@ -2898,10 +2901,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>9</v>
@@ -2910,7 +2913,7 @@
         <v>10</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G68" s="1" t="n">
         <v>100</v>
@@ -2922,10 +2925,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>9</v>
@@ -2934,7 +2937,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G69" s="1" t="n">
         <v>100</v>
@@ -2946,10 +2949,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>9</v>
@@ -2958,7 +2961,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G70" s="1" t="n">
         <v>100</v>
@@ -2970,10 +2973,10 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>9</v>
@@ -2982,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G71" s="1" t="n">
         <v>100</v>
@@ -2994,10 +2997,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>9</v>
@@ -3006,7 +3009,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G72" s="1" t="n">
         <v>100</v>
@@ -3018,10 +3021,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>9</v>
@@ -3030,7 +3033,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G73" s="1" t="n">
         <v>100</v>
@@ -3042,10 +3045,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>9</v>
@@ -3054,7 +3057,7 @@
         <v>10</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G74" s="1" t="n">
         <v>100</v>
@@ -3066,10 +3069,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>9</v>
@@ -3078,7 +3081,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G75" s="1" t="n">
         <v>100</v>
@@ -3090,10 +3093,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>9</v>
@@ -3102,7 +3105,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G76" s="1" t="n">
         <v>100</v>
@@ -3114,10 +3117,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>9</v>
@@ -3126,7 +3129,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G77" s="1" t="n">
         <v>100</v>
@@ -3138,10 +3141,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>9</v>
@@ -3150,7 +3153,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G78" s="1" t="n">
         <v>100</v>
@@ -3162,10 +3165,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>9</v>
@@ -3174,7 +3177,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G79" s="1" t="n">
         <v>100</v>
@@ -3186,10 +3189,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>9</v>
@@ -3198,7 +3201,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G80" s="1" t="n">
         <v>100</v>
@@ -3210,10 +3213,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>9</v>
@@ -3222,7 +3225,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G81" s="1" t="n">
         <v>100</v>
@@ -3234,10 +3237,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>9</v>
@@ -3246,7 +3249,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G82" s="1" t="n">
         <v>100</v>
@@ -3258,10 +3261,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>9</v>
@@ -3270,7 +3273,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G83" s="1" t="n">
         <v>100</v>
@@ -3282,10 +3285,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>9</v>
@@ -3294,7 +3297,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G84" s="1" t="n">
         <v>100</v>
@@ -3306,10 +3309,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>9</v>
@@ -3318,7 +3321,7 @@
         <v>10</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G85" s="1" t="n">
         <v>100</v>
@@ -3330,10 +3333,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>9</v>
@@ -3342,7 +3345,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G86" s="1" t="n">
         <v>100</v>
@@ -3354,10 +3357,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>9</v>
@@ -3366,7 +3369,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G87" s="1" t="n">
         <v>100</v>
@@ -3378,10 +3381,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>9</v>
@@ -3390,7 +3393,7 @@
         <v>10</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G88" s="1" t="n">
         <v>100</v>
@@ -3402,10 +3405,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>9</v>
@@ -3414,7 +3417,7 @@
         <v>10</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G89" s="1" t="n">
         <v>100</v>
@@ -3426,10 +3429,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>9</v>
@@ -3438,7 +3441,7 @@
         <v>10</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G90" s="1" t="n">
         <v>100</v>
@@ -3450,10 +3453,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>9</v>
@@ -3462,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G91" s="1" t="n">
         <v>100</v>
@@ -3474,10 +3477,10 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>9</v>
@@ -3486,7 +3489,7 @@
         <v>10</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G92" s="1" t="n">
         <v>100</v>
@@ -3498,10 +3501,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>9</v>
@@ -3510,7 +3513,7 @@
         <v>10</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G93" s="1" t="n">
         <v>100</v>
@@ -3522,10 +3525,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>9</v>
@@ -3534,7 +3537,7 @@
         <v>10</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G94" s="1" t="n">
         <v>100</v>
@@ -3546,10 +3549,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>9</v>
@@ -3558,7 +3561,7 @@
         <v>10</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G95" s="1" t="n">
         <v>100</v>
@@ -3570,10 +3573,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>9</v>
@@ -3582,7 +3585,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G96" s="1" t="n">
         <v>100</v>
@@ -3594,10 +3597,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>9</v>
@@ -3606,7 +3609,7 @@
         <v>10</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G97" s="1" t="n">
         <v>100</v>
@@ -3618,10 +3621,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>9</v>
@@ -3630,7 +3633,7 @@
         <v>10</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G98" s="1" t="n">
         <v>100</v>
@@ -3642,10 +3645,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>9</v>
@@ -3654,7 +3657,7 @@
         <v>10</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G99" s="1" t="n">
         <v>100</v>
@@ -3666,10 +3669,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>9</v>
@@ -3678,7 +3681,7 @@
         <v>10</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G100" s="1" t="n">
         <v>100</v>
@@ -3690,10 +3693,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>9</v>
@@ -3702,7 +3705,7 @@
         <v>10</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G101" s="1" t="n">
         <v>100</v>
@@ -3714,10 +3717,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>9</v>
@@ -3726,7 +3729,7 @@
         <v>10</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G102" s="1" t="n">
         <v>100</v>
@@ -3738,10 +3741,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>9</v>
@@ -3750,7 +3753,7 @@
         <v>10</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G103" s="1" t="n">
         <v>100</v>
@@ -3762,10 +3765,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>9</v>
@@ -3774,7 +3777,7 @@
         <v>10</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G104" s="1" t="n">
         <v>100</v>
@@ -3786,10 +3789,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>9</v>
@@ -3798,7 +3801,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G105" s="1" t="n">
         <v>100</v>
@@ -3810,10 +3813,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>9</v>
@@ -3822,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G106" s="1" t="n">
         <v>100</v>
@@ -3834,10 +3837,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>9</v>
@@ -3846,7 +3849,7 @@
         <v>10</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G107" s="1" t="n">
         <v>100</v>
@@ -3858,10 +3861,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>9</v>
@@ -3870,7 +3873,7 @@
         <v>10</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G108" s="1" t="n">
         <v>100</v>
@@ -3882,10 +3885,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>9</v>
@@ -3894,7 +3897,7 @@
         <v>10</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G109" s="1" t="n">
         <v>100</v>
@@ -3906,10 +3909,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>9</v>
@@ -3918,7 +3921,7 @@
         <v>10</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G110" s="1" t="n">
         <v>100</v>
@@ -3930,10 +3933,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>9</v>
@@ -3942,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G111" s="1" t="n">
         <v>100</v>
@@ -3954,10 +3957,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
@@ -3966,7 +3969,7 @@
         <v>10</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G112" s="1" t="n">
         <v>100</v>
@@ -3978,10 +3981,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>9</v>
@@ -3990,7 +3993,7 @@
         <v>10</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G113" s="1" t="n">
         <v>100</v>
@@ -4002,10 +4005,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>9</v>
@@ -4014,7 +4017,7 @@
         <v>10</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G114" s="1" t="n">
         <v>100</v>
@@ -4026,10 +4029,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>9</v>
@@ -4038,7 +4041,7 @@
         <v>10</v>
       </c>
       <c r="F115" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G115" s="1" t="n">
         <v>100</v>
@@ -4050,10 +4053,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>9</v>
@@ -4062,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G116" s="1" t="n">
         <v>100</v>
@@ -4074,10 +4077,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>9</v>
@@ -4086,7 +4089,7 @@
         <v>10</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G117" s="1" t="n">
         <v>100</v>
@@ -4098,10 +4101,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>9</v>
@@ -4110,7 +4113,7 @@
         <v>10</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G118" s="1" t="n">
         <v>100</v>
@@ -4122,10 +4125,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>9</v>
@@ -4134,7 +4137,7 @@
         <v>10</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G119" s="1" t="n">
         <v>100</v>
@@ -4146,10 +4149,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>9</v>
@@ -4158,7 +4161,7 @@
         <v>10</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G120" s="1" t="n">
         <v>100</v>
@@ -4170,10 +4173,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>9</v>
@@ -4182,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G121" s="1" t="n">
         <v>100</v>
@@ -4194,10 +4197,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>9</v>
@@ -4206,7 +4209,7 @@
         <v>10</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G122" s="1" t="n">
         <v>100</v>
@@ -4218,10 +4221,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>9</v>
@@ -4230,7 +4233,7 @@
         <v>10</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G123" s="1" t="n">
         <v>100</v>
@@ -4242,10 +4245,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>9</v>
@@ -4254,7 +4257,7 @@
         <v>10</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G124" s="1" t="n">
         <v>100</v>
@@ -4266,10 +4269,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>9</v>
@@ -4278,7 +4281,7 @@
         <v>10</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G125" s="1" t="n">
         <v>100</v>
@@ -4290,10 +4293,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D126" s="1" t="s">
         <v>9</v>
@@ -4302,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="F126" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G126" s="1" t="n">
         <v>100</v>
@@ -4314,10 +4317,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D127" s="1" t="s">
         <v>9</v>
@@ -4326,7 +4329,7 @@
         <v>10</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G127" s="1" t="n">
         <v>100</v>
@@ -4338,10 +4341,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>9</v>
@@ -4350,7 +4353,7 @@
         <v>10</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G128" s="1" t="n">
         <v>100</v>
@@ -4362,10 +4365,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D129" s="1" t="s">
         <v>9</v>
@@ -4374,7 +4377,7 @@
         <v>10</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G129" s="1" t="n">
         <v>100</v>
@@ -4429,7 +4432,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G27" activeCellId="0" sqref="G27"/>
+      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4444,28 +4447,28 @@
   <sheetData>
     <row r="1" customFormat="false" ht="74.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4473,22 +4476,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,22 +4499,22 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,22 +4522,22 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,22 +4545,22 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4565,22 +4568,22 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,22 +4591,22 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4611,22 +4614,22 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4634,22 +4637,22 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,22 +4660,22 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,22 +4683,22 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4703,22 +4706,22 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4726,22 +4729,22 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4749,22 +4752,22 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,22 +4775,22 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,22 +4798,22 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4818,22 +4821,22 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4841,22 +4844,22 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,22 +4867,22 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4887,22 +4890,22 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,22 +4913,22 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4933,22 +4936,22 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4956,22 +4959,22 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,22 +4982,22 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5002,22 +5005,22 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5025,22 +5028,22 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,22 +5051,22 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5071,22 +5074,22 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5094,22 +5097,22 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5117,22 +5120,22 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5140,22 +5143,22 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5163,22 +5166,22 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5189,22 +5192,22 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5212,10 +5215,10 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5223,10 +5226,10 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5234,10 +5237,10 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5245,10 +5248,10 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,10 +5259,10 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5267,10 +5270,10 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5278,10 +5281,10 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5289,10 +5292,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5300,10 +5303,10 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5311,10 +5314,10 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5322,10 +5325,10 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5333,10 +5336,10 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,10 +5347,10 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,10 +5358,10 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5366,10 +5369,10 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5380,10 +5383,10 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5391,10 +5394,10 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5402,10 +5405,10 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,10 +5416,10 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,10 +5427,10 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,10 +5438,10 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5446,10 +5449,10 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5457,10 +5460,10 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5468,10 +5471,10 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,10 +5482,10 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5490,10 +5493,10 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5501,10 +5504,10 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,10 +5515,10 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,10 +5526,10 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5534,10 +5537,10 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5545,10 +5548,10 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5559,10 +5562,10 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -5583,8 +5586,8 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I42" activeCellId="0" sqref="I42"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I56" activeCellId="0" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5683,6 +5686,9 @@
         <f aca="false">Channels!B2</f>
         <v>KickIn</v>
       </c>
+      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="n">
@@ -5693,6 +5699,9 @@
         <f aca="false">Channels!B3</f>
         <v>KickOut</v>
       </c>
+      <c r="C3" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="n">
@@ -5703,6 +5712,9 @@
         <f aca="false">Channels!B4</f>
         <v>SnTop</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="n">
@@ -5713,6 +5725,9 @@
         <f aca="false">Channels!B5</f>
         <v>SnBot</v>
       </c>
+      <c r="C5" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="n">
@@ -5723,6 +5738,9 @@
         <f aca="false">Channels!B6</f>
         <v>Hat</v>
       </c>
+      <c r="C6" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="n">
@@ -5733,6 +5751,9 @@
         <f aca="false">Channels!B7</f>
         <v>Rack1</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="n">
@@ -5743,6 +5764,9 @@
         <f aca="false">Channels!B8</f>
         <v>Rack2</v>
       </c>
+      <c r="C8" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="n">
@@ -5753,6 +5777,9 @@
         <f aca="false">Channels!B9</f>
         <v>Floor1</v>
       </c>
+      <c r="C9" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="n">
@@ -5763,6 +5790,9 @@
         <f aca="false">Channels!B10</f>
         <v>Floor2</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
@@ -5772,6 +5802,9 @@
       <c r="B11" s="1" t="str">
         <f aca="false">Channels!B11</f>
         <v>Ride</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5783,6 +5816,9 @@
         <f aca="false">Channels!B12</f>
         <v>OH L</v>
       </c>
+      <c r="C12" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
@@ -5793,8 +5829,11 @@
         <f aca="false">Channels!B13</f>
         <v>OH R</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="n">
         <f aca="false">[1]Channels!A14</f>
         <v>13</v>
@@ -5804,7 +5843,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="n">
         <f aca="false">[1]Channels!A15</f>
         <v>14</v>
@@ -5814,7 +5853,7 @@
         <v>Cajon</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="n">
         <f aca="false">[1]Channels!A16</f>
         <v>15</v>
@@ -5824,7 +5863,7 @@
         <v>RoomL</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="n">
         <f aca="false">[1]Channels!A17</f>
         <v>16</v>
@@ -5843,6 +5882,9 @@
         <f aca="false">Channels!B18</f>
         <v>BassDI</v>
       </c>
+      <c r="D18" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="n">
@@ -5853,6 +5895,9 @@
         <f aca="false">Channels!B19</f>
         <v>BassMi</v>
       </c>
+      <c r="D19" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="n">
@@ -5863,6 +5908,9 @@
         <f aca="false">Channels!B20</f>
         <v>EGit1L</v>
       </c>
+      <c r="E20" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="n">
@@ -5873,6 +5921,9 @@
         <f aca="false">Channels!B21</f>
         <v>EGit1R</v>
       </c>
+      <c r="E21" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="n">
@@ -5883,6 +5934,9 @@
         <f aca="false">Channels!B22</f>
         <v>EGit2L</v>
       </c>
+      <c r="E22" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="n">
@@ -5893,6 +5947,9 @@
         <f aca="false">Channels!B23</f>
         <v>EGit2R</v>
       </c>
+      <c r="E23" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="n">
@@ -5902,6 +5959,9 @@
       <c r="B24" s="1" t="str">
         <f aca="false">Channels!B24</f>
         <v>EGit3L</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,6 +5973,9 @@
         <f aca="false">Channels!B25</f>
         <v>EGit3R</v>
       </c>
+      <c r="E25" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="n">
@@ -5923,6 +5986,9 @@
         <f aca="false">Channels!B26</f>
         <v>Accu1L</v>
       </c>
+      <c r="F26" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="n">
@@ -5933,6 +5999,9 @@
         <f aca="false">Channels!B27</f>
         <v>Accu1R</v>
       </c>
+      <c r="F27" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="n">
@@ -5943,6 +6012,9 @@
         <f aca="false">Channels!B28</f>
         <v>Accu2</v>
       </c>
+      <c r="F28" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="n">
@@ -5953,6 +6025,9 @@
         <f aca="false">Channels!B29</f>
         <v>Accu3</v>
       </c>
+      <c r="F29" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="n">
@@ -5963,6 +6038,9 @@
         <f aca="false">Channels!B30</f>
         <v>Key1L</v>
       </c>
+      <c r="G30" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="n">
@@ -5973,6 +6051,9 @@
         <f aca="false">Channels!B31</f>
         <v>Key1R</v>
       </c>
+      <c r="G31" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="n">
@@ -5983,6 +6064,9 @@
         <f aca="false">Channels!B32</f>
         <v>Key2L</v>
       </c>
+      <c r="G32" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="n">
@@ -5993,6 +6077,9 @@
         <f aca="false">Channels!B33</f>
         <v>Key2R</v>
       </c>
+      <c r="G33" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4" t="n">
@@ -6003,6 +6090,9 @@
         <f aca="false">Channels!B34</f>
         <v>Key3L</v>
       </c>
+      <c r="G34" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="n">
@@ -6013,6 +6103,9 @@
         <f aca="false">Channels!B35</f>
         <v>Key3R</v>
       </c>
+      <c r="G35" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="n">
@@ -6023,6 +6116,9 @@
         <f aca="false">Channels!B36</f>
         <v>Key4L</v>
       </c>
+      <c r="G36" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4" t="n">
@@ -6033,6 +6129,9 @@
         <f aca="false">Channels!B37</f>
         <v>Key4R</v>
       </c>
+      <c r="G37" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="n">
@@ -6083,6 +6182,9 @@
         <f aca="false">Channels!B42</f>
         <v>Lead1</v>
       </c>
+      <c r="H42" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="4" t="n">
@@ -6093,6 +6195,9 @@
         <f aca="false">Channels!B43</f>
         <v>Lead2</v>
       </c>
+      <c r="H43" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="4" t="n">
@@ -6103,6 +6208,9 @@
         <f aca="false">Channels!B44</f>
         <v>Lead3</v>
       </c>
+      <c r="H44" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="4" t="n">
@@ -6113,6 +6221,9 @@
         <f aca="false">Channels!B45</f>
         <v>Lead4</v>
       </c>
+      <c r="H45" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="4" t="n">
@@ -6123,6 +6234,9 @@
         <f aca="false">Channels!B46</f>
         <v>BV1</v>
       </c>
+      <c r="I46" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="4" t="n">
@@ -6133,6 +6247,9 @@
         <f aca="false">Channels!B47</f>
         <v>BV2</v>
       </c>
+      <c r="I47" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="4" t="n">
@@ -6143,6 +6260,9 @@
         <f aca="false">Channels!B48</f>
         <v>BV3</v>
       </c>
+      <c r="I48" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="4" t="n">
@@ -6152,6 +6272,9 @@
       <c r="B49" s="1" t="str">
         <f aca="false">Channels!B49</f>
         <v>BV4</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6972,7 +7095,7 @@
   </sheetPr>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -6985,24 +7108,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B2" s="11" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -433,13 +433,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -450,16 +454,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -476,10 +476,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1276,23 +1272,24 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.94"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="2" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="9.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1313,3082 +1310,3082 @@
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="F3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="F5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="F6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="1" t="n">
+      <c r="F8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="1" t="n">
+      <c r="F9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="1" t="n">
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="1" t="n">
+      <c r="F11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="1" t="n">
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="1" t="n">
+      <c r="F13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1" t="n">
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="1" t="n">
+      <c r="F15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="1" t="n">
+      <c r="F16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="1" t="n">
+      <c r="F17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="1" t="n">
+      <c r="F18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="1" t="n">
+      <c r="F19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G20" s="1" t="n">
+      <c r="F20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G21" s="1" t="n">
+      <c r="F21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G22" s="1" t="n">
+      <c r="F22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G23" s="1" t="n">
+      <c r="F23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="1" t="n">
+      <c r="F24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="1" t="n">
+      <c r="F25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G26" s="1" t="n">
+      <c r="F26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G27" s="1" t="n">
+      <c r="F27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G28" s="1" t="n">
+      <c r="F28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G29" s="1" t="n">
+      <c r="F29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="1" t="n">
+      <c r="F30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G31" s="1" t="n">
+      <c r="F31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G32" s="1" t="n">
+      <c r="F32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" s="1" t="n">
+      <c r="F33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" s="1" t="n">
+      <c r="F34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" s="1" t="n">
+      <c r="F35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" s="1" t="n">
+      <c r="F36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="1" t="n">
+      <c r="F37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="1" t="n">
+      <c r="F38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" s="1" t="n">
+      <c r="F39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" s="1" t="n">
+      <c r="F40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" s="1" t="s">
+      <c r="C41" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1" t="n">
+      <c r="F41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" s="1" t="n">
+      <c r="F42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" s="1" t="n">
+      <c r="F43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="1" t="n">
+      <c r="F44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" s="1" t="n">
+      <c r="F45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" s="1" t="n">
+      <c r="F46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+      <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" s="1" t="n">
+      <c r="F47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="1" t="n">
+      <c r="F48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G49" s="1" t="n">
+      <c r="F49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="1" t="s">
+      <c r="C50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G50" s="1" t="n">
+      <c r="F50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="1" t="s">
+      <c r="C51" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G51" s="1" t="n">
+      <c r="F51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="1" t="s">
+      <c r="C52" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="1" t="n">
+      <c r="F52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="1" t="s">
+      <c r="C53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G53" s="1" t="n">
+      <c r="F53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="1" t="s">
+      <c r="C54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="1" t="n">
+      <c r="F54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+      <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G55" s="1" t="n">
+      <c r="F55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="1" t="s">
+      <c r="C56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G56" s="1" t="n">
+      <c r="F56" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="1" t="s">
+      <c r="C57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="1" t="n">
+      <c r="F57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="1" t="s">
+      <c r="C58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G58" s="1" t="n">
+      <c r="F58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="C59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G59" s="1" t="n">
+      <c r="F59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="1" t="s">
+      <c r="C60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G60" s="1" t="n">
+      <c r="F60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G61" s="1" t="n">
+      <c r="F61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G62" s="1" t="n">
+      <c r="F62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="1" t="s">
+      <c r="C63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G63" s="1" t="n">
+      <c r="F63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+      <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="1" t="s">
+      <c r="C64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G64" s="1" t="n">
+      <c r="F64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="1" t="s">
+      <c r="C65" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G65" s="1" t="n">
+      <c r="F65" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G66" s="1" t="n">
+      <c r="F66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+      <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="1" t="n">
+      <c r="F67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+      <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="1" t="s">
+      <c r="C68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="1" t="n">
+      <c r="F68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+      <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="1" t="s">
+      <c r="C69" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G69" s="1" t="n">
+      <c r="F69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+      <c r="A70" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="1" t="s">
+      <c r="C70" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G70" s="1" t="n">
+      <c r="F70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+      <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C71" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E71" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G71" s="1" t="n">
+      <c r="F71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="C72" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E72" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G72" s="1" t="n">
+      <c r="F72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="1" t="s">
+      <c r="C73" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E73" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G73" s="1" t="n">
+      <c r="F73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D74" s="1" t="s">
+      <c r="C74" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G74" s="1" t="n">
+      <c r="F74" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C75" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G75" s="1" t="n">
+      <c r="F75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+      <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" s="1" t="s">
+      <c r="C76" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G76" s="1" t="n">
+      <c r="F76" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" s="1" t="s">
+      <c r="C77" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G77" s="1" t="n">
+      <c r="F77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="C78" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G78" s="1" t="n">
+      <c r="F78" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="C79" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G79" s="1" t="n">
+      <c r="F79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" s="1" t="s">
+      <c r="C80" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80" s="1" t="n">
+      <c r="F80" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G80" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C81" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G81" s="1" t="n">
+      <c r="F81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C82" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G82" s="1" t="n">
+      <c r="F82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G82" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D83" s="1" t="s">
+      <c r="C83" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G83" s="1" t="n">
+      <c r="F83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G83" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" s="1" t="s">
+      <c r="C84" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E84" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="1" t="n">
+      <c r="F84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G84" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+      <c r="A85" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="C85" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E85" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G85" s="1" t="n">
+      <c r="F85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G85" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C86" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E86" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G86" s="1" t="n">
+      <c r="F86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G86" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D87" s="1" t="s">
+      <c r="C87" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E87" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G87" s="1" t="n">
+      <c r="F87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G87" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+      <c r="A88" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D88" s="1" t="s">
+      <c r="C88" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E88" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G88" s="1" t="n">
+      <c r="F88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G88" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="2" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" s="1" t="s">
+      <c r="C89" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E89" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G89" s="1" t="n">
+      <c r="F89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G89" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+      <c r="A90" s="2" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D90" s="1" t="s">
+      <c r="C90" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E90" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G90" s="1" t="n">
+      <c r="F90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G90" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H90" s="5"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="2" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D91" s="1" t="s">
+      <c r="C91" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G91" s="1" t="n">
+      <c r="F91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G91" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H91" s="5"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="C92" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G92" s="1" t="n">
+      <c r="F92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G92" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H92" s="5"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="C93" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E93" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G93" s="1" t="n">
+      <c r="F93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G93" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H93" s="5"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D94" s="1" t="s">
+      <c r="C94" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E94" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G94" s="1" t="n">
+      <c r="F94" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G94" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H94" s="5"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="C95" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G95" s="1" t="n">
+      <c r="F95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G95" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H95" s="5"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E96" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G96" s="1" t="n">
+      <c r="F96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G96" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H96" s="5"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C97" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G97" s="1" t="n">
+      <c r="F97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G97" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H97" s="5"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G98" s="1" t="n">
+      <c r="F98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G98" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H98" s="5"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C99" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G99" s="1" t="n">
+      <c r="F99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G99" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="C100" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="1" t="n">
+      <c r="F100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="C101" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G101" s="1" t="n">
+      <c r="F101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G101" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="2" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D102" s="1" t="s">
+      <c r="C102" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E102" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G102" s="1" t="n">
+      <c r="F102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G102" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H102" s="5"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="2" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C103" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E103" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="1" t="n">
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H103" s="5"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="2" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C104" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G104" s="1" t="n">
+      <c r="F104" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G104" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H104" s="5"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="2" t="n">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C105" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G105" s="1" t="n">
+      <c r="F105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G105" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H105" s="5"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="2" t="n">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="C106" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E106" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G106" s="1" t="n">
+      <c r="F106" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G106" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H106" s="5"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="2" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D107" s="1" t="s">
+      <c r="C107" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G107" s="1" t="n">
+      <c r="F107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G107" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H107" s="5"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="2" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D108" s="1" t="s">
+      <c r="C108" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G108" s="1" t="n">
+      <c r="F108" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G108" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H108" s="5"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="2" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D109" s="1" t="s">
+      <c r="C109" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G109" s="1" t="n">
+      <c r="F109" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G109" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H109" s="5"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="2" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C110" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E110" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G110" s="1" t="n">
+      <c r="F110" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G110" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H110" s="5"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="2" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C111" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E111" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G111" s="1" t="n">
+      <c r="F111" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G111" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H111" s="5"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="2" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C112" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G112" s="1" t="n">
+      <c r="F112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G112" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H112" s="5"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="2" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C113" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E113" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G113" s="1" t="n">
+      <c r="F113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G113" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H113" s="5"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="2" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D114" s="1" t="s">
+      <c r="C114" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E114" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G114" s="1" t="n">
+      <c r="F114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H114" s="5"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="2" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D115" s="1" t="s">
+      <c r="C115" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G115" s="1" t="n">
+      <c r="F115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G115" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H115" s="5"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="2" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D116" s="1" t="s">
+      <c r="C116" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E116" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G116" s="1" t="n">
+      <c r="F116" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G116" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H116" s="5"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="2" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D117" s="1" t="s">
+      <c r="C117" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G117" s="1" t="n">
+      <c r="F117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G117" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H117" s="5"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="2" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D118" s="1" t="s">
+      <c r="C118" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G118" s="1" t="n">
+      <c r="F118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G118" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H118" s="5"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="2" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="1" t="s">
+      <c r="C119" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G119" s="1" t="n">
+      <c r="F119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G119" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H119" s="5"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="2" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D120" s="1" t="s">
+      <c r="C120" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G120" s="1" t="n">
+      <c r="F120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G120" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H120" s="5"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="2" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D121" s="1" t="s">
+      <c r="C121" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G121" s="1" t="n">
+      <c r="F121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G121" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H121" s="5"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="2" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D122" s="1" t="s">
+      <c r="C122" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G122" s="1" t="n">
+      <c r="F122" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G122" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H122" s="5"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+      <c r="A123" s="2" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D123" s="1" t="s">
+      <c r="C123" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G123" s="1" t="n">
+      <c r="F123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G123" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H123" s="5"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+      <c r="A124" s="2" t="n">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D124" s="1" t="s">
+      <c r="C124" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E124" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G124" s="1" t="n">
+      <c r="F124" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G124" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+      <c r="A125" s="2" t="n">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" s="1" t="s">
+      <c r="C125" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E125" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G125" s="1" t="n">
+      <c r="F125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G125" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H125" s="5"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+      <c r="A126" s="2" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D126" s="1" t="s">
+      <c r="C126" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E126" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G126" s="1" t="n">
+      <c r="F126" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G126" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H126" s="5"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+      <c r="A127" s="2" t="n">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D127" s="1" t="s">
+      <c r="C127" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G127" s="1" t="n">
+      <c r="F127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G127" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H127" s="5"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="2" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D128" s="1" t="s">
+      <c r="C128" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G128" s="1" t="n">
+      <c r="F128" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G128" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H128" s="5"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="2" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D129" s="1" t="s">
+      <c r="C129" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E129" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G129" s="1" t="n">
+      <c r="F129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G129" s="2" t="n">
         <v>100</v>
       </c>
       <c r="H129" s="5"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4"/>
+      <c r="A130" s="2"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4"/>
+      <c r="A131" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576 H1:H1048576">
@@ -4438,7 +4435,7 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="14.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="3.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.42"/>
@@ -4472,7 +4469,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -4495,7 +4492,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -4518,7 +4515,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="4" t="n">
+      <c r="B4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -4541,7 +4538,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -4564,7 +4561,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="4" t="n">
+      <c r="B6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -4587,7 +4584,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="4" t="n">
+      <c r="B7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -4610,7 +4607,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -4633,7 +4630,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="4" t="n">
+      <c r="B9" s="2" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -4656,7 +4653,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="n">
+      <c r="B10" s="2" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -4679,7 +4676,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="4" t="n">
+      <c r="B11" s="2" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -4702,7 +4699,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="4" t="n">
+      <c r="B12" s="2" t="n">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -4725,7 +4722,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="4" t="n">
+      <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -4748,7 +4745,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="4" t="n">
+      <c r="B14" s="2" t="n">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -4771,7 +4768,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="4" t="n">
+      <c r="B15" s="2" t="n">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -4794,7 +4791,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="4" t="n">
+      <c r="B16" s="2" t="n">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -4817,7 +4814,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="4" t="n">
+      <c r="B17" s="2" t="n">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -4840,7 +4837,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="4" t="n">
+      <c r="B18" s="2" t="n">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4863,7 +4860,7 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="4" t="n">
+      <c r="B19" s="2" t="n">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -4886,7 +4883,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="4" t="n">
+      <c r="B20" s="2" t="n">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -4909,7 +4906,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="4" t="n">
+      <c r="B21" s="2" t="n">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -4932,7 +4929,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="4" t="n">
+      <c r="B22" s="2" t="n">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -4955,7 +4952,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="4" t="n">
+      <c r="B23" s="2" t="n">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -4978,7 +4975,7 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="4" t="n">
+      <c r="B24" s="2" t="n">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -5001,7 +4998,7 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="4" t="n">
+      <c r="B25" s="2" t="n">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -5024,7 +5021,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="4" t="n">
+      <c r="B26" s="2" t="n">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -5047,7 +5044,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="4" t="n">
+      <c r="B27" s="2" t="n">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -5070,7 +5067,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="4" t="n">
+      <c r="B28" s="2" t="n">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -5093,7 +5090,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="4" t="n">
+      <c r="B29" s="2" t="n">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -5116,7 +5113,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="4" t="n">
+      <c r="B30" s="2" t="n">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -5139,7 +5136,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="4" t="n">
+      <c r="B31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -5162,7 +5159,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="4" t="n">
+      <c r="B32" s="2" t="n">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -5188,7 +5185,7 @@
       <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="4" t="n">
+      <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -5211,7 +5208,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="4" t="n">
+      <c r="B34" s="2" t="n">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -5222,7 +5219,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="4" t="n">
+      <c r="B35" s="2" t="n">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -5233,7 +5230,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="4" t="n">
+      <c r="B36" s="2" t="n">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -5244,7 +5241,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="4" t="n">
+      <c r="B37" s="2" t="n">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -5255,7 +5252,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="4" t="n">
+      <c r="B38" s="2" t="n">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -5266,7 +5263,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="4" t="n">
+      <c r="B39" s="2" t="n">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -5277,7 +5274,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="4" t="n">
+      <c r="B40" s="2" t="n">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -5288,7 +5285,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="4" t="n">
+      <c r="B41" s="2" t="n">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5299,7 +5296,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="4" t="n">
+      <c r="B42" s="2" t="n">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -5310,7 +5307,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="4" t="n">
+      <c r="B43" s="2" t="n">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -5321,7 +5318,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="4" t="n">
+      <c r="B44" s="2" t="n">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -5332,7 +5329,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="4" t="n">
+      <c r="B45" s="2" t="n">
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -5343,7 +5340,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="4" t="n">
+      <c r="B46" s="2" t="n">
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -5354,7 +5351,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="4" t="n">
+      <c r="B47" s="2" t="n">
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -5365,7 +5362,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="4" t="n">
+      <c r="B48" s="2" t="n">
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -5379,7 +5376,7 @@
       <c r="A49" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="4" t="n">
+      <c r="B49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -5390,7 +5387,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="4" t="n">
+      <c r="B50" s="2" t="n">
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -5401,7 +5398,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="4" t="n">
+      <c r="B51" s="2" t="n">
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -5412,7 +5409,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="4" t="n">
+      <c r="B52" s="2" t="n">
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -5423,7 +5420,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="4" t="n">
+      <c r="B53" s="2" t="n">
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -5434,7 +5431,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="4" t="n">
+      <c r="B54" s="2" t="n">
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -5445,7 +5442,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="4" t="n">
+      <c r="B55" s="2" t="n">
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -5456,7 +5453,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="4" t="n">
+      <c r="B56" s="2" t="n">
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -5467,7 +5464,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="4" t="n">
+      <c r="B57" s="2" t="n">
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -5478,7 +5475,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="4" t="n">
+      <c r="B58" s="2" t="n">
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -5489,7 +5486,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="4" t="n">
+      <c r="B59" s="2" t="n">
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -5500,7 +5497,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="4" t="n">
+      <c r="B60" s="2" t="n">
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -5511,7 +5508,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="4" t="n">
+      <c r="B61" s="2" t="n">
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -5522,7 +5519,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="4" t="n">
+      <c r="B62" s="2" t="n">
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -5533,7 +5530,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="4" t="n">
+      <c r="B63" s="2" t="n">
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -5544,7 +5541,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="4" t="n">
+      <c r="B64" s="2" t="n">
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -5558,7 +5555,7 @@
       <c r="A65" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B65" s="4" t="n">
+      <c r="B65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5592,16 +5589,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="4" width="3.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="2" width="3.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="44.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -5678,7 +5675,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+      <c r="A2" s="2" t="n">
         <f aca="false">[1]Channels!A2</f>
         <v>1</v>
       </c>
@@ -5686,12 +5683,12 @@
         <f aca="false">Channels!B2</f>
         <v>KickIn</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="2" t="n">
         <f aca="false">[1]Channels!A3</f>
         <v>2</v>
       </c>
@@ -5699,12 +5696,12 @@
         <f aca="false">Channels!B3</f>
         <v>KickOut</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="A4" s="2" t="n">
         <f aca="false">[1]Channels!A4</f>
         <v>3</v>
       </c>
@@ -5712,12 +5709,12 @@
         <f aca="false">Channels!B4</f>
         <v>SnTop</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="2" t="n">
         <f aca="false">[1]Channels!A5</f>
         <v>4</v>
       </c>
@@ -5725,12 +5722,12 @@
         <f aca="false">Channels!B5</f>
         <v>SnBot</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="A6" s="2" t="n">
         <f aca="false">[1]Channels!A6</f>
         <v>5</v>
       </c>
@@ -5738,12 +5735,12 @@
         <f aca="false">Channels!B6</f>
         <v>Hat</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="A7" s="2" t="n">
         <f aca="false">[1]Channels!A7</f>
         <v>6</v>
       </c>
@@ -5751,12 +5748,12 @@
         <f aca="false">Channels!B7</f>
         <v>Rack1</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="A8" s="2" t="n">
         <f aca="false">[1]Channels!A8</f>
         <v>7</v>
       </c>
@@ -5764,12 +5761,12 @@
         <f aca="false">Channels!B8</f>
         <v>Rack2</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="A9" s="2" t="n">
         <f aca="false">[1]Channels!A9</f>
         <v>8</v>
       </c>
@@ -5777,12 +5774,12 @@
         <f aca="false">Channels!B9</f>
         <v>Floor1</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="2" t="n">
         <f aca="false">[1]Channels!A10</f>
         <v>9</v>
       </c>
@@ -5790,12 +5787,12 @@
         <f aca="false">Channels!B10</f>
         <v>Floor2</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="A11" s="2" t="n">
         <f aca="false">[1]Channels!A11</f>
         <v>10</v>
       </c>
@@ -5803,12 +5800,12 @@
         <f aca="false">Channels!B11</f>
         <v>Ride</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="A12" s="2" t="n">
         <f aca="false">[1]Channels!A12</f>
         <v>11</v>
       </c>
@@ -5816,12 +5813,12 @@
         <f aca="false">Channels!B12</f>
         <v>OH L</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="A13" s="2" t="n">
         <f aca="false">[1]Channels!A13</f>
         <v>12</v>
       </c>
@@ -5829,12 +5826,12 @@
         <f aca="false">Channels!B13</f>
         <v>OH R</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="A14" s="2" t="n">
         <f aca="false">[1]Channels!A14</f>
         <v>13</v>
       </c>
@@ -5844,7 +5841,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="A15" s="2" t="n">
         <f aca="false">[1]Channels!A15</f>
         <v>14</v>
       </c>
@@ -5854,7 +5851,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="A16" s="2" t="n">
         <f aca="false">[1]Channels!A16</f>
         <v>15</v>
       </c>
@@ -5864,7 +5861,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="A17" s="2" t="n">
         <f aca="false">[1]Channels!A17</f>
         <v>16</v>
       </c>
@@ -5874,7 +5871,7 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="A18" s="2" t="n">
         <f aca="false">[1]Channels!A18</f>
         <v>17</v>
       </c>
@@ -5882,12 +5879,12 @@
         <f aca="false">Channels!B18</f>
         <v>BassDI</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="A19" s="2" t="n">
         <f aca="false">[1]Channels!A19</f>
         <v>18</v>
       </c>
@@ -5895,12 +5892,12 @@
         <f aca="false">Channels!B19</f>
         <v>BassMi</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="A20" s="2" t="n">
         <f aca="false">[1]Channels!A20</f>
         <v>19</v>
       </c>
@@ -5908,12 +5905,12 @@
         <f aca="false">Channels!B20</f>
         <v>EGit1L</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="A21" s="2" t="n">
         <f aca="false">[1]Channels!A21</f>
         <v>20</v>
       </c>
@@ -5921,12 +5918,12 @@
         <f aca="false">Channels!B21</f>
         <v>EGit1R</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="A22" s="2" t="n">
         <f aca="false">[1]Channels!A22</f>
         <v>21</v>
       </c>
@@ -5934,12 +5931,12 @@
         <f aca="false">Channels!B22</f>
         <v>EGit2L</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+      <c r="A23" s="2" t="n">
         <f aca="false">[1]Channels!A23</f>
         <v>22</v>
       </c>
@@ -5947,12 +5944,12 @@
         <f aca="false">Channels!B23</f>
         <v>EGit2R</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+      <c r="A24" s="2" t="n">
         <f aca="false">[1]Channels!A24</f>
         <v>23</v>
       </c>
@@ -5960,12 +5957,12 @@
         <f aca="false">Channels!B24</f>
         <v>EGit3L</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+      <c r="A25" s="2" t="n">
         <f aca="false">[1]Channels!A25</f>
         <v>24</v>
       </c>
@@ -5973,12 +5970,12 @@
         <f aca="false">Channels!B25</f>
         <v>EGit3R</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+      <c r="A26" s="2" t="n">
         <f aca="false">[1]Channels!A26</f>
         <v>25</v>
       </c>
@@ -5986,12 +5983,12 @@
         <f aca="false">Channels!B26</f>
         <v>Accu1L</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+      <c r="A27" s="2" t="n">
         <f aca="false">[1]Channels!A27</f>
         <v>26</v>
       </c>
@@ -5999,12 +5996,12 @@
         <f aca="false">Channels!B27</f>
         <v>Accu1R</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+      <c r="A28" s="2" t="n">
         <f aca="false">[1]Channels!A28</f>
         <v>27</v>
       </c>
@@ -6012,12 +6009,12 @@
         <f aca="false">Channels!B28</f>
         <v>Accu2</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+      <c r="A29" s="2" t="n">
         <f aca="false">[1]Channels!A29</f>
         <v>28</v>
       </c>
@@ -6025,12 +6022,12 @@
         <f aca="false">Channels!B29</f>
         <v>Accu3</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+      <c r="A30" s="2" t="n">
         <f aca="false">[1]Channels!A30</f>
         <v>29</v>
       </c>
@@ -6038,12 +6035,12 @@
         <f aca="false">Channels!B30</f>
         <v>Key1L</v>
       </c>
-      <c r="G30" s="4" t="s">
+      <c r="G30" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+      <c r="A31" s="2" t="n">
         <f aca="false">[1]Channels!A31</f>
         <v>30</v>
       </c>
@@ -6051,12 +6048,12 @@
         <f aca="false">Channels!B31</f>
         <v>Key1R</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+      <c r="A32" s="2" t="n">
         <f aca="false">[1]Channels!A32</f>
         <v>31</v>
       </c>
@@ -6064,12 +6061,12 @@
         <f aca="false">Channels!B32</f>
         <v>Key2L</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G32" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+      <c r="A33" s="2" t="n">
         <f aca="false">[1]Channels!A33</f>
         <v>32</v>
       </c>
@@ -6077,12 +6074,12 @@
         <f aca="false">Channels!B33</f>
         <v>Key2R</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+      <c r="A34" s="2" t="n">
         <f aca="false">[1]Channels!A34</f>
         <v>33</v>
       </c>
@@ -6090,12 +6087,12 @@
         <f aca="false">Channels!B34</f>
         <v>Key3L</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G34" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+      <c r="A35" s="2" t="n">
         <f aca="false">[1]Channels!A35</f>
         <v>34</v>
       </c>
@@ -6103,12 +6100,12 @@
         <f aca="false">Channels!B35</f>
         <v>Key3R</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G35" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+      <c r="A36" s="2" t="n">
         <f aca="false">[1]Channels!A36</f>
         <v>35</v>
       </c>
@@ -6116,12 +6113,12 @@
         <f aca="false">Channels!B36</f>
         <v>Key4L</v>
       </c>
-      <c r="G36" s="4" t="s">
+      <c r="G36" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+      <c r="A37" s="2" t="n">
         <f aca="false">[1]Channels!A37</f>
         <v>36</v>
       </c>
@@ -6129,12 +6126,12 @@
         <f aca="false">Channels!B37</f>
         <v>Key4R</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+      <c r="A38" s="2" t="n">
         <f aca="false">[1]Channels!A38</f>
         <v>37</v>
       </c>
@@ -6144,7 +6141,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+      <c r="A39" s="2" t="n">
         <f aca="false">[1]Channels!A39</f>
         <v>38</v>
       </c>
@@ -6154,7 +6151,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+      <c r="A40" s="2" t="n">
         <f aca="false">[1]Channels!A40</f>
         <v>39</v>
       </c>
@@ -6164,7 +6161,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+      <c r="A41" s="2" t="n">
         <f aca="false">[1]Channels!A41</f>
         <v>40</v>
       </c>
@@ -6174,7 +6171,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+      <c r="A42" s="2" t="n">
         <f aca="false">[1]Channels!A42</f>
         <v>41</v>
       </c>
@@ -6182,12 +6179,12 @@
         <f aca="false">Channels!B42</f>
         <v>Lead1</v>
       </c>
-      <c r="H42" s="4" t="s">
+      <c r="H42" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+      <c r="A43" s="2" t="n">
         <f aca="false">[1]Channels!A43</f>
         <v>42</v>
       </c>
@@ -6195,12 +6192,12 @@
         <f aca="false">Channels!B43</f>
         <v>Lead2</v>
       </c>
-      <c r="H43" s="4" t="s">
+      <c r="H43" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+      <c r="A44" s="2" t="n">
         <f aca="false">[1]Channels!A44</f>
         <v>43</v>
       </c>
@@ -6208,12 +6205,12 @@
         <f aca="false">Channels!B44</f>
         <v>Lead3</v>
       </c>
-      <c r="H44" s="4" t="s">
+      <c r="H44" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+      <c r="A45" s="2" t="n">
         <f aca="false">[1]Channels!A45</f>
         <v>44</v>
       </c>
@@ -6221,12 +6218,12 @@
         <f aca="false">Channels!B45</f>
         <v>Lead4</v>
       </c>
-      <c r="H45" s="4" t="s">
+      <c r="H45" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+      <c r="A46" s="2" t="n">
         <f aca="false">[1]Channels!A46</f>
         <v>45</v>
       </c>
@@ -6234,12 +6231,12 @@
         <f aca="false">Channels!B46</f>
         <v>BV1</v>
       </c>
-      <c r="I46" s="4" t="s">
+      <c r="I46" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+      <c r="A47" s="2" t="n">
         <f aca="false">[1]Channels!A47</f>
         <v>46</v>
       </c>
@@ -6247,12 +6244,12 @@
         <f aca="false">Channels!B47</f>
         <v>BV2</v>
       </c>
-      <c r="I47" s="4" t="s">
+      <c r="I47" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+      <c r="A48" s="2" t="n">
         <f aca="false">[1]Channels!A48</f>
         <v>47</v>
       </c>
@@ -6260,12 +6257,12 @@
         <f aca="false">Channels!B48</f>
         <v>BV3</v>
       </c>
-      <c r="I48" s="4" t="s">
+      <c r="I48" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+      <c r="A49" s="2" t="n">
         <f aca="false">[1]Channels!A49</f>
         <v>48</v>
       </c>
@@ -6273,12 +6270,12 @@
         <f aca="false">Channels!B49</f>
         <v>BV4</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="I49" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+      <c r="A50" s="2" t="n">
         <f aca="false">[1]Channels!A50</f>
         <v>49</v>
       </c>
@@ -6288,7 +6285,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+      <c r="A51" s="2" t="n">
         <f aca="false">[1]Channels!A51</f>
         <v>50</v>
       </c>
@@ -6298,7 +6295,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+      <c r="A52" s="2" t="n">
         <f aca="false">[1]Channels!A52</f>
         <v>51</v>
       </c>
@@ -6308,7 +6305,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+      <c r="A53" s="2" t="n">
         <f aca="false">[1]Channels!A53</f>
         <v>52</v>
       </c>
@@ -6318,7 +6315,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+      <c r="A54" s="2" t="n">
         <f aca="false">[1]Channels!A54</f>
         <v>53</v>
       </c>
@@ -6328,7 +6325,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+      <c r="A55" s="2" t="n">
         <f aca="false">[1]Channels!A55</f>
         <v>54</v>
       </c>
@@ -6338,7 +6335,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+      <c r="A56" s="2" t="n">
         <f aca="false">[1]Channels!A56</f>
         <v>55</v>
       </c>
@@ -6348,7 +6345,7 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+      <c r="A57" s="2" t="n">
         <f aca="false">[1]Channels!A57</f>
         <v>56</v>
       </c>
@@ -6358,7 +6355,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+      <c r="A58" s="2" t="n">
         <f aca="false">[1]Channels!A58</f>
         <v>57</v>
       </c>
@@ -6368,7 +6365,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+      <c r="A59" s="2" t="n">
         <f aca="false">[1]Channels!A59</f>
         <v>58</v>
       </c>
@@ -6378,7 +6375,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+      <c r="A60" s="2" t="n">
         <f aca="false">[1]Channels!A60</f>
         <v>59</v>
       </c>
@@ -6388,7 +6385,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+      <c r="A61" s="2" t="n">
         <f aca="false">[1]Channels!A61</f>
         <v>60</v>
       </c>
@@ -6398,7 +6395,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+      <c r="A62" s="2" t="n">
         <f aca="false">[1]Channels!A62</f>
         <v>61</v>
       </c>
@@ -6408,7 +6405,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+      <c r="A63" s="2" t="n">
         <f aca="false">[1]Channels!A63</f>
         <v>62</v>
       </c>
@@ -6418,7 +6415,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+      <c r="A64" s="2" t="n">
         <f aca="false">[1]Channels!A64</f>
         <v>63</v>
       </c>
@@ -6428,7 +6425,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+      <c r="A65" s="2" t="n">
         <f aca="false">[1]Channels!A65</f>
         <v>64</v>
       </c>
@@ -6438,7 +6435,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+      <c r="A66" s="2" t="n">
         <f aca="false">[1]Channels!A66</f>
         <v>65</v>
       </c>
@@ -6448,7 +6445,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+      <c r="A67" s="2" t="n">
         <f aca="false">[1]Channels!A67</f>
         <v>66</v>
       </c>
@@ -6458,7 +6455,7 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+      <c r="A68" s="2" t="n">
         <f aca="false">[1]Channels!A68</f>
         <v>67</v>
       </c>
@@ -6468,7 +6465,7 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+      <c r="A69" s="2" t="n">
         <f aca="false">[1]Channels!A69</f>
         <v>68</v>
       </c>
@@ -6478,7 +6475,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+      <c r="A70" s="2" t="n">
         <f aca="false">[1]Channels!A70</f>
         <v>69</v>
       </c>
@@ -6488,7 +6485,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+      <c r="A71" s="2" t="n">
         <f aca="false">[1]Channels!A71</f>
         <v>70</v>
       </c>
@@ -6498,7 +6495,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+      <c r="A72" s="2" t="n">
         <f aca="false">[1]Channels!A72</f>
         <v>71</v>
       </c>
@@ -6508,7 +6505,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+      <c r="A73" s="2" t="n">
         <f aca="false">[1]Channels!A73</f>
         <v>72</v>
       </c>
@@ -6518,7 +6515,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+      <c r="A74" s="2" t="n">
         <f aca="false">[1]Channels!A74</f>
         <v>73</v>
       </c>
@@ -6528,7 +6525,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+      <c r="A75" s="2" t="n">
         <f aca="false">[1]Channels!A75</f>
         <v>74</v>
       </c>
@@ -6538,7 +6535,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+      <c r="A76" s="2" t="n">
         <f aca="false">[1]Channels!A76</f>
         <v>75</v>
       </c>
@@ -6548,7 +6545,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="2" t="n">
         <f aca="false">[1]Channels!A77</f>
         <v>76</v>
       </c>
@@ -6558,7 +6555,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+      <c r="A78" s="2" t="n">
         <f aca="false">[1]Channels!A78</f>
         <v>77</v>
       </c>
@@ -6568,7 +6565,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+      <c r="A79" s="2" t="n">
         <f aca="false">[1]Channels!A79</f>
         <v>78</v>
       </c>
@@ -6578,7 +6575,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+      <c r="A80" s="2" t="n">
         <f aca="false">[1]Channels!A80</f>
         <v>79</v>
       </c>
@@ -6588,7 +6585,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+      <c r="A81" s="2" t="n">
         <f aca="false">[1]Channels!A81</f>
         <v>80</v>
       </c>
@@ -6598,7 +6595,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+      <c r="A82" s="2" t="n">
         <f aca="false">[1]Channels!A82</f>
         <v>81</v>
       </c>
@@ -6608,7 +6605,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+      <c r="A83" s="2" t="n">
         <f aca="false">[1]Channels!A83</f>
         <v>82</v>
       </c>
@@ -6618,7 +6615,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+      <c r="A84" s="2" t="n">
         <f aca="false">[1]Channels!A84</f>
         <v>83</v>
       </c>
@@ -6628,7 +6625,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+      <c r="A85" s="2" t="n">
         <f aca="false">[1]Channels!A85</f>
         <v>84</v>
       </c>
@@ -6638,7 +6635,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+      <c r="A86" s="2" t="n">
         <f aca="false">[1]Channels!A86</f>
         <v>85</v>
       </c>
@@ -6648,7 +6645,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+      <c r="A87" s="2" t="n">
         <f aca="false">[1]Channels!A87</f>
         <v>86</v>
       </c>
@@ -6658,7 +6655,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+      <c r="A88" s="2" t="n">
         <f aca="false">[1]Channels!A88</f>
         <v>87</v>
       </c>
@@ -6668,7 +6665,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+      <c r="A89" s="2" t="n">
         <f aca="false">[1]Channels!A89</f>
         <v>88</v>
       </c>
@@ -6678,7 +6675,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+      <c r="A90" s="2" t="n">
         <f aca="false">[1]Channels!A90</f>
         <v>89</v>
       </c>
@@ -6688,7 +6685,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+      <c r="A91" s="2" t="n">
         <f aca="false">[1]Channels!A91</f>
         <v>90</v>
       </c>
@@ -6698,7 +6695,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+      <c r="A92" s="2" t="n">
         <f aca="false">[1]Channels!A92</f>
         <v>91</v>
       </c>
@@ -6708,7 +6705,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+      <c r="A93" s="2" t="n">
         <f aca="false">[1]Channels!A93</f>
         <v>92</v>
       </c>
@@ -6718,7 +6715,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+      <c r="A94" s="2" t="n">
         <f aca="false">[1]Channels!A94</f>
         <v>93</v>
       </c>
@@ -6728,7 +6725,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+      <c r="A95" s="2" t="n">
         <f aca="false">[1]Channels!A95</f>
         <v>94</v>
       </c>
@@ -6738,7 +6735,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+      <c r="A96" s="2" t="n">
         <f aca="false">[1]Channels!A96</f>
         <v>95</v>
       </c>
@@ -6748,7 +6745,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+      <c r="A97" s="2" t="n">
         <f aca="false">[1]Channels!A97</f>
         <v>96</v>
       </c>
@@ -6758,7 +6755,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+      <c r="A98" s="2" t="n">
         <f aca="false">[1]Channels!A98</f>
         <v>97</v>
       </c>
@@ -6768,7 +6765,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+      <c r="A99" s="2" t="n">
         <f aca="false">[1]Channels!A99</f>
         <v>98</v>
       </c>
@@ -6778,7 +6775,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+      <c r="A100" s="2" t="n">
         <f aca="false">[1]Channels!A100</f>
         <v>99</v>
       </c>
@@ -6788,7 +6785,7 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+      <c r="A101" s="2" t="n">
         <f aca="false">[1]Channels!A101</f>
         <v>100</v>
       </c>
@@ -6798,7 +6795,7 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+      <c r="A102" s="2" t="n">
         <f aca="false">[1]Channels!A102</f>
         <v>101</v>
       </c>
@@ -6808,7 +6805,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+      <c r="A103" s="2" t="n">
         <f aca="false">[1]Channels!A103</f>
         <v>102</v>
       </c>
@@ -6818,7 +6815,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+      <c r="A104" s="2" t="n">
         <f aca="false">[1]Channels!A104</f>
         <v>103</v>
       </c>
@@ -6828,7 +6825,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+      <c r="A105" s="2" t="n">
         <f aca="false">[1]Channels!A105</f>
         <v>104</v>
       </c>
@@ -6838,7 +6835,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+      <c r="A106" s="2" t="n">
         <f aca="false">[1]Channels!A106</f>
         <v>105</v>
       </c>
@@ -6848,7 +6845,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+      <c r="A107" s="2" t="n">
         <f aca="false">[1]Channels!A107</f>
         <v>106</v>
       </c>
@@ -6858,7 +6855,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+      <c r="A108" s="2" t="n">
         <f aca="false">[1]Channels!A108</f>
         <v>107</v>
       </c>
@@ -6868,7 +6865,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+      <c r="A109" s="2" t="n">
         <f aca="false">[1]Channels!A109</f>
         <v>108</v>
       </c>
@@ -6878,7 +6875,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+      <c r="A110" s="2" t="n">
         <f aca="false">[1]Channels!A110</f>
         <v>109</v>
       </c>
@@ -6888,7 +6885,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+      <c r="A111" s="2" t="n">
         <f aca="false">[1]Channels!A111</f>
         <v>110</v>
       </c>
@@ -6898,7 +6895,7 @@
       </c>
     </row>
     <row r="112" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+      <c r="A112" s="2" t="n">
         <f aca="false">[1]Channels!A112</f>
         <v>111</v>
       </c>
@@ -6908,7 +6905,7 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+      <c r="A113" s="2" t="n">
         <f aca="false">[1]Channels!A113</f>
         <v>112</v>
       </c>
@@ -6918,7 +6915,7 @@
       </c>
     </row>
     <row r="114" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+      <c r="A114" s="2" t="n">
         <f aca="false">[1]Channels!A114</f>
         <v>113</v>
       </c>
@@ -6928,7 +6925,7 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+      <c r="A115" s="2" t="n">
         <f aca="false">[1]Channels!A115</f>
         <v>114</v>
       </c>
@@ -6938,7 +6935,7 @@
       </c>
     </row>
     <row r="116" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+      <c r="A116" s="2" t="n">
         <f aca="false">[1]Channels!A116</f>
         <v>115</v>
       </c>
@@ -6948,7 +6945,7 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+      <c r="A117" s="2" t="n">
         <f aca="false">[1]Channels!A117</f>
         <v>116</v>
       </c>
@@ -6958,7 +6955,7 @@
       </c>
     </row>
     <row r="118" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+      <c r="A118" s="2" t="n">
         <f aca="false">[1]Channels!A118</f>
         <v>117</v>
       </c>
@@ -6968,7 +6965,7 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+      <c r="A119" s="2" t="n">
         <f aca="false">[1]Channels!A119</f>
         <v>118</v>
       </c>
@@ -6978,7 +6975,7 @@
       </c>
     </row>
     <row r="120" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+      <c r="A120" s="2" t="n">
         <f aca="false">[1]Channels!A120</f>
         <v>119</v>
       </c>
@@ -6988,7 +6985,7 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+      <c r="A121" s="2" t="n">
         <f aca="false">[1]Channels!A121</f>
         <v>120</v>
       </c>
@@ -6998,7 +6995,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+      <c r="A122" s="2" t="n">
         <f aca="false">[1]Channels!A122</f>
         <v>121</v>
       </c>
@@ -7008,7 +7005,7 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+      <c r="A123" s="2" t="n">
         <f aca="false">[1]Channels!A123</f>
         <v>122</v>
       </c>
@@ -7018,7 +7015,7 @@
       </c>
     </row>
     <row r="124" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+      <c r="A124" s="2" t="n">
         <f aca="false">[1]Channels!A124</f>
         <v>123</v>
       </c>
@@ -7028,7 +7025,7 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+      <c r="A125" s="2" t="n">
         <f aca="false">[1]Channels!A125</f>
         <v>124</v>
       </c>
@@ -7038,7 +7035,7 @@
       </c>
     </row>
     <row r="126" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+      <c r="A126" s="2" t="n">
         <f aca="false">[1]Channels!A126</f>
         <v>125</v>
       </c>
@@ -7048,7 +7045,7 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+      <c r="A127" s="2" t="n">
         <f aca="false">[1]Channels!A127</f>
         <v>126</v>
       </c>
@@ -7058,7 +7055,7 @@
       </c>
     </row>
     <row r="128" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+      <c r="A128" s="2" t="n">
         <f aca="false">[1]Channels!A128</f>
         <v>127</v>
       </c>
@@ -7068,7 +7065,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
+      <c r="A129" s="2" t="n">
         <f aca="false">[1]Channels!A129</f>
         <v>128</v>
       </c>
@@ -7107,21 +7104,21 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="11" t="n">
+      <c r="B2" s="6" t="n">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="107">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -58,7 +58,7 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">-Inf</t>
+    <t xml:space="preserve">-inf</t>
   </si>
   <si>
     <t xml:space="preserve">KickOut</t>
@@ -112,10 +112,10 @@
     <t xml:space="preserve">BassDI</t>
   </si>
   <si>
+    <t xml:space="preserve">BassMi</t>
+  </si>
+  <si>
     <t xml:space="preserve">red</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BassMi</t>
   </si>
   <si>
     <t xml:space="preserve">EGit1L</t>
@@ -433,7 +433,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -476,6 +476,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1276,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1701,7 +1705,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -1722,10 +1726,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>
@@ -4411,6 +4415,16 @@
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E129" type="list">
+      <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-inf"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C129" type="list">
+      <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4429,7 +4443,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4471,24 +4485,6 @@
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +5580,7 @@
   <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I56" activeCellId="0" sqref="I56"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6130,7 +6126,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <f aca="false">[1]Channels!A38</f>
         <v>37</v>
@@ -6140,7 +6136,7 @@
         <v>Divrs1</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <f aca="false">[1]Channels!A39</f>
         <v>38</v>
@@ -6150,7 +6146,7 @@
         <v>Divrs2</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <f aca="false">[1]Channels!A40</f>
         <v>39</v>
@@ -6160,7 +6156,7 @@
         <v>Divrs3</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <f aca="false">[1]Channels!A41</f>
         <v>40</v>
@@ -6274,7 +6270,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <f aca="false">[1]Channels!A50</f>
         <v>49</v>
@@ -6284,7 +6280,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <f aca="false">[1]Channels!A51</f>
         <v>50</v>
@@ -6294,7 +6290,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <f aca="false">[1]Channels!A52</f>
         <v>51</v>
@@ -6304,7 +6300,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <f aca="false">[1]Channels!A53</f>
         <v>52</v>
@@ -6314,7 +6310,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <f aca="false">[1]Channels!A54</f>
         <v>53</v>
@@ -6324,7 +6320,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <f aca="false">[1]Channels!A55</f>
         <v>54</v>
@@ -6334,7 +6330,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <f aca="false">[1]Channels!A56</f>
         <v>55</v>
@@ -6344,7 +6340,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <f aca="false">[1]Channels!A57</f>
         <v>56</v>
@@ -6354,7 +6350,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <f aca="false">[1]Channels!A58</f>
         <v>57</v>
@@ -6364,7 +6360,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <f aca="false">[1]Channels!A59</f>
         <v>58</v>
@@ -6374,7 +6370,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <f aca="false">[1]Channels!A60</f>
         <v>59</v>
@@ -6384,7 +6380,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <f aca="false">[1]Channels!A61</f>
         <v>60</v>
@@ -6394,7 +6390,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <f aca="false">[1]Channels!A62</f>
         <v>61</v>
@@ -6404,7 +6400,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <f aca="false">[1]Channels!A63</f>
         <v>62</v>
@@ -6414,7 +6410,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <f aca="false">[1]Channels!A64</f>
         <v>63</v>
@@ -6424,7 +6420,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <f aca="false">[1]Channels!A65</f>
         <v>64</v>
@@ -6434,7 +6430,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <f aca="false">[1]Channels!A66</f>
         <v>65</v>
@@ -6444,7 +6440,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <f aca="false">[1]Channels!A67</f>
         <v>66</v>
@@ -6454,7 +6450,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <f aca="false">[1]Channels!A68</f>
         <v>67</v>
@@ -6464,7 +6460,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <f aca="false">[1]Channels!A69</f>
         <v>68</v>
@@ -6474,7 +6470,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <f aca="false">[1]Channels!A70</f>
         <v>69</v>
@@ -6484,7 +6480,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <f aca="false">[1]Channels!A71</f>
         <v>70</v>
@@ -6494,7 +6490,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <f aca="false">[1]Channels!A72</f>
         <v>71</v>
@@ -6504,7 +6500,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <f aca="false">[1]Channels!A73</f>
         <v>72</v>
@@ -6514,7 +6510,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <f aca="false">[1]Channels!A74</f>
         <v>73</v>
@@ -6524,7 +6520,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <f aca="false">[1]Channels!A75</f>
         <v>74</v>
@@ -6534,7 +6530,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <f aca="false">[1]Channels!A76</f>
         <v>75</v>
@@ -6544,7 +6540,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <f aca="false">[1]Channels!A77</f>
         <v>76</v>
@@ -6554,7 +6550,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <f aca="false">[1]Channels!A78</f>
         <v>77</v>
@@ -6564,7 +6560,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <f aca="false">[1]Channels!A79</f>
         <v>78</v>
@@ -6574,7 +6570,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <f aca="false">[1]Channels!A80</f>
         <v>79</v>
@@ -6584,7 +6580,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <f aca="false">[1]Channels!A81</f>
         <v>80</v>
@@ -6594,7 +6590,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <f aca="false">[1]Channels!A82</f>
         <v>81</v>
@@ -6604,7 +6600,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <f aca="false">[1]Channels!A83</f>
         <v>82</v>
@@ -6614,7 +6610,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <f aca="false">[1]Channels!A84</f>
         <v>83</v>
@@ -6624,7 +6620,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <f aca="false">[1]Channels!A85</f>
         <v>84</v>
@@ -6634,7 +6630,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <f aca="false">[1]Channels!A86</f>
         <v>85</v>
@@ -6644,7 +6640,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <f aca="false">[1]Channels!A87</f>
         <v>86</v>
@@ -6654,7 +6650,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <f aca="false">[1]Channels!A88</f>
         <v>87</v>
@@ -6664,7 +6660,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <f aca="false">[1]Channels!A89</f>
         <v>88</v>
@@ -6674,7 +6670,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <f aca="false">[1]Channels!A90</f>
         <v>89</v>
@@ -6684,7 +6680,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <f aca="false">[1]Channels!A91</f>
         <v>90</v>
@@ -6694,7 +6690,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <f aca="false">[1]Channels!A92</f>
         <v>91</v>
@@ -6704,7 +6700,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
         <f aca="false">[1]Channels!A93</f>
         <v>92</v>
@@ -6714,7 +6710,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
         <f aca="false">[1]Channels!A94</f>
         <v>93</v>
@@ -6724,7 +6720,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
         <f aca="false">[1]Channels!A95</f>
         <v>94</v>
@@ -6734,7 +6730,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <f aca="false">[1]Channels!A96</f>
         <v>95</v>
@@ -6744,7 +6740,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
         <f aca="false">[1]Channels!A97</f>
         <v>96</v>
@@ -6754,7 +6750,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
         <f aca="false">[1]Channels!A98</f>
         <v>97</v>
@@ -6764,7 +6760,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
         <f aca="false">[1]Channels!A99</f>
         <v>98</v>
@@ -6774,7 +6770,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
         <f aca="false">[1]Channels!A100</f>
         <v>99</v>
@@ -6784,7 +6780,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
         <f aca="false">[1]Channels!A101</f>
         <v>100</v>
@@ -6794,7 +6790,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
         <f aca="false">[1]Channels!A102</f>
         <v>101</v>
@@ -6804,7 +6800,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
         <f aca="false">[1]Channels!A103</f>
         <v>102</v>
@@ -6814,7 +6810,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
         <f aca="false">[1]Channels!A104</f>
         <v>103</v>
@@ -6824,7 +6820,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
         <f aca="false">[1]Channels!A105</f>
         <v>104</v>
@@ -6834,7 +6830,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
         <f aca="false">[1]Channels!A106</f>
         <v>105</v>
@@ -6844,7 +6840,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <f aca="false">[1]Channels!A107</f>
         <v>106</v>
@@ -6854,7 +6850,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
         <f aca="false">[1]Channels!A108</f>
         <v>107</v>
@@ -6864,7 +6860,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
         <f aca="false">[1]Channels!A109</f>
         <v>108</v>
@@ -6874,7 +6870,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
         <f aca="false">[1]Channels!A110</f>
         <v>109</v>
@@ -6884,7 +6880,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
         <f aca="false">[1]Channels!A111</f>
         <v>110</v>
@@ -6894,7 +6890,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <f aca="false">[1]Channels!A112</f>
         <v>111</v>
@@ -6904,7 +6900,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
         <f aca="false">[1]Channels!A113</f>
         <v>112</v>
@@ -6914,7 +6910,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
         <f aca="false">[1]Channels!A114</f>
         <v>113</v>
@@ -6924,7 +6920,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
         <f aca="false">[1]Channels!A115</f>
         <v>114</v>
@@ -6934,7 +6930,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
         <f aca="false">[1]Channels!A116</f>
         <v>115</v>
@@ -6944,7 +6940,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
         <f aca="false">[1]Channels!A117</f>
         <v>116</v>
@@ -6954,7 +6950,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
         <f aca="false">[1]Channels!A118</f>
         <v>117</v>
@@ -6964,7 +6960,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
         <f aca="false">[1]Channels!A119</f>
         <v>118</v>
@@ -6974,7 +6970,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
         <f aca="false">[1]Channels!A120</f>
         <v>119</v>
@@ -6984,7 +6980,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
         <f aca="false">[1]Channels!A121</f>
         <v>120</v>
@@ -6994,7 +6990,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
         <f aca="false">[1]Channels!A122</f>
         <v>121</v>
@@ -7004,7 +7000,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
         <f aca="false">[1]Channels!A123</f>
         <v>122</v>
@@ -7014,7 +7010,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
         <f aca="false">[1]Channels!A124</f>
         <v>123</v>
@@ -7024,7 +7020,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
         <f aca="false">[1]Channels!A125</f>
         <v>124</v>
@@ -7034,7 +7030,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
         <f aca="false">[1]Channels!A126</f>
         <v>125</v>
@@ -7044,7 +7040,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
         <f aca="false">[1]Channels!A127</f>
         <v>126</v>
@@ -7054,7 +7050,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
         <f aca="false">[1]Channels!A128</f>
         <v>127</v>
@@ -7064,7 +7060,7 @@
         <v>empty</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
         <f aca="false">[1]Channels!A129</f>
         <v>128</v>
@@ -7090,10 +7086,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7103,7 +7099,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="57.46"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>102</v>
       </c>
@@ -7114,7 +7110,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>105</v>
       </c>
@@ -7125,6 +7121,13 @@
         <v>106</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="107">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">(C)DM48 End</t>
   </si>
   <si>
-    <t xml:space="preserve">(C)DM64</t>
+    <t xml:space="preserve">(C)DM64 End</t>
   </si>
   <si>
     <t xml:space="preserve">DCA1</t>
@@ -391,12 +391,24 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDEDCE6"/>
+        <bgColor rgb="FFC6D9F1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -470,16 +482,16 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -566,7 +578,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDEDCE6"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -582,7 +594,7 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFFFE994"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
@@ -1276,7 +1288,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4392,7 +4404,7 @@
       <c r="A131" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576 H1:H1048576">
+  <conditionalFormatting sqref="H1:H1048576 C1:C1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"purple"</formula>
     </cfRule>
@@ -4443,7 +4455,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4472,19 +4484,37 @@
       <c r="E1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5597,76 +5627,76 @@
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="O1" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="Q1" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="R1" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="S1" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="T1" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="U1" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="W1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="X1" s="10" t="s">
+      <c r="X1" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="Y1" s="10" t="s">
+      <c r="Y1" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="Z1" s="11" t="s">
         <v>100</v>
       </c>
     </row>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -112,10 +112,10 @@
     <t xml:space="preserve">BassDI</t>
   </si>
   <si>
+    <t xml:space="preserve">red</t>
+  </si>
+  <si>
     <t xml:space="preserve">BassMi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">red</t>
   </si>
   <si>
     <t xml:space="preserve">EGit1L</t>
@@ -1288,7 +1288,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1717,7 +1717,7 @@
         <v>27</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>9</v>
@@ -1738,10 +1738,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>9</v>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -532,8 +532,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -542,8 +542,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16381" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -559,9 +558,9 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="XFA1" s="0"/>
-      <c r="XFB1" s="0"/>
-      <c r="XFC1" s="0"/>
+      <c r="XFA1" s="1"/>
+      <c r="XFB1" s="1"/>
+      <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2538,7 +2537,7 @@
   <dimension ref="A1:H65"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2582,19 +2581,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>69</v>
@@ -2608,19 +2607,19 @@
         <v>69</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2628,19 +2627,19 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>69</v>
@@ -2654,19 +2653,19 @@
         <v>69</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2674,19 +2673,19 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>69</v>
@@ -2700,19 +2699,19 @@
         <v>69</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2720,19 +2719,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>69</v>
@@ -2746,19 +2745,19 @@
         <v>69</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2766,19 +2765,19 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>69</v>
@@ -2792,19 +2791,19 @@
         <v>69</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,19 +2811,19 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>69</v>
@@ -2838,19 +2837,19 @@
         <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2858,19 +2857,19 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>69</v>
@@ -2884,19 +2883,19 @@
         <v>69</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2904,19 +2903,19 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>69</v>
@@ -2930,19 +2929,19 @@
         <v>69</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,19 +2949,19 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>69</v>
@@ -2976,19 +2975,19 @@
         <v>69</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2996,19 +2995,19 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>69</v>
@@ -3022,19 +3021,19 @@
         <v>69</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3042,19 +3041,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>69</v>
@@ -3068,19 +3067,19 @@
         <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3088,19 +3087,19 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>69</v>
@@ -3114,19 +3113,19 @@
         <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3134,19 +3133,19 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>69</v>
@@ -3160,19 +3159,19 @@
         <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,19 +3179,19 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>69</v>
@@ -3206,19 +3205,19 @@
         <v>69</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3226,19 +3225,19 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>69</v>
@@ -3252,19 +3251,19 @@
         <v>69</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,19 +3271,19 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>69</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>69</v>
@@ -3301,19 +3300,19 @@
         <v>69</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>69</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3321,7 +3320,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>69</v>
@@ -3335,7 +3334,7 @@
         <v>69</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3343,7 +3342,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>69</v>
@@ -3357,7 +3356,7 @@
         <v>69</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>69</v>
@@ -3379,7 +3378,7 @@
         <v>69</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3386,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>69</v>
@@ -3401,7 +3400,7 @@
         <v>69</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3409,7 +3408,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>69</v>
@@ -3423,7 +3422,7 @@
         <v>69</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,7 +3430,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>69</v>
@@ -3445,7 +3444,7 @@
         <v>69</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3452,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>69</v>
@@ -3467,7 +3466,7 @@
         <v>69</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,7 +3474,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>69</v>
@@ -3492,7 +3491,7 @@
         <v>69</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3500,7 +3499,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>69</v>
@@ -3514,7 +3513,7 @@
         <v>69</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3522,7 +3521,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>69</v>
@@ -3536,7 +3535,7 @@
         <v>69</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3544,7 +3543,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>69</v>
@@ -3558,7 +3557,7 @@
         <v>69</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3566,7 +3565,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>69</v>
@@ -3580,7 +3579,7 @@
         <v>69</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3588,7 +3587,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>69</v>
@@ -3602,7 +3601,7 @@
         <v>69</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3610,7 +3609,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>69</v>
@@ -3624,7 +3623,7 @@
         <v>69</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,7 +3631,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>69</v>
@@ -3646,7 +3645,7 @@
         <v>69</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3654,7 +3653,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>69</v>
@@ -3671,7 +3670,7 @@
         <v>69</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3692,7 +3691,7 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="85">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -207,9 +207,9 @@
     <t xml:space="preserve">BV4</t>
   </si>
   <si>
-    <t xml:space="preserve">Indication End Channel
+    <t xml:space="preserve">Indication Start/End Channel
 For
-Mixrack / Extenders 
+Mixrack / Expanders
 </t>
   </si>
   <si>
@@ -234,16 +234,73 @@
     <t xml:space="preserve">DX3 Pad</t>
   </si>
   <si>
+    <t xml:space="preserve">Slink Phantom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slink Pad</t>
+  </si>
+  <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
+    <t xml:space="preserve">Avantis Surface</t>
+  </si>
+  <si>
     <t xml:space="preserve">(C)DM32 End +  DX1/3 End</t>
   </si>
   <si>
-    <t xml:space="preserve">(C)DM48 End</t>
+    <t xml:space="preserve">(C)DM48 End + GX4816</t>
   </si>
   <si>
     <t xml:space="preserve">(C)DM64 End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slink-DX1 Start</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Slink-DX1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> End</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Slink-DX2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Start</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Slink-DX2 End</t>
   </si>
   <si>
     <t xml:space="preserve">Property</t>
@@ -268,7 +325,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -299,8 +356,14 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -317,6 +380,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEDCE6"/>
         <bgColor rgb="FFC6D9F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,7 +423,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,6 +466,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -478,7 +555,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -532,8 +609,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="J2:J129 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2534,10 +2611,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2548,9 +2625,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="3.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="3.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="3.57"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="74.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
@@ -2574,6 +2652,12 @@
       </c>
       <c r="H1" s="10" t="s">
         <v>68</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2581,22 +2665,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2604,22 +2694,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2627,22 +2723,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2650,22 +2752,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2673,22 +2781,28 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,22 +2810,28 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2719,22 +2839,28 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2742,22 +2868,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,22 +2897,28 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2788,22 +2926,28 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2811,45 +2955,60 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2857,22 +3016,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2880,22 +3045,28 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2903,22 +3074,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,22 +3103,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2949,22 +3132,28 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2972,22 +3161,28 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,22 +3190,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3018,22 +3219,28 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3041,22 +3248,28 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,22 +3277,28 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3087,22 +3306,28 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3110,22 +3335,28 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,22 +3364,28 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,22 +3393,28 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3179,22 +3422,28 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3202,22 +3451,28 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3225,22 +3480,28 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,22 +3509,28 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,48 +3538,60 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3320,10 +3599,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3331,10 +3616,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3342,10 +3633,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,10 +3650,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,10 +3667,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,10 +3684,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3386,10 +3701,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,10 +3718,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3408,10 +3735,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J42" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3419,10 +3752,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3430,10 +3769,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3441,10 +3786,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I45" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J45" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,10 +3803,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3463,10 +3820,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3474,24 +3837,36 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3499,10 +3874,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3510,10 +3891,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3521,10 +3908,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3532,10 +3925,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3543,10 +3942,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3554,10 +3959,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,10 +3976,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,10 +3993,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,10 +4010,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3598,10 +4027,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3609,10 +4044,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,10 +4061,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3631,10 +4078,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I62" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J62" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3642,10 +4095,16 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I63" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J63" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,24 +4112,752 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="I64" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="I67" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J67" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="I68" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J68" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J69" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>69</v>
+      <c r="I70" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J70" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="I73" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J73" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="I74" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J74" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="I76" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J76" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J78" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="I79" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J79" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="I80" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J80" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="I81" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J81" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="I82" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J82" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="I83" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J83" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="I84" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J84" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="I85" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J85" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="I86" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J86" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="I87" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J87" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="I88" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J88" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="I89" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J89" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="I90" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J90" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="I91" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J91" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="I92" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J92" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="I93" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J93" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="I94" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J94" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="I95" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J95" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="I96" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J96" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="I97" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J97" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="I98" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J98" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="I99" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J99" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="I100" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J100" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="I101" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J101" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="I102" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J102" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="I103" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J103" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="I104" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J104" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="I105" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J105" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="I106" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J106" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="I107" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J107" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="I108" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J108" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="I109" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J109" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="I110" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J110" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="I111" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J111" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="I112" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J112" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="I113" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J113" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="I114" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J114" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="I115" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J115" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="I116" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J116" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="I117" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J117" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="I118" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J118" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="I119" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J119" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="I120" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J120" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="I121" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J121" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="I122" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J122" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="I123" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J123" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="I124" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J124" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="I125" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J125" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="I126" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J126" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="I127" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J127" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="I128" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="J128" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="I129" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="J129" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3692,7 +4879,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="J2:J129 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3704,24 +4891,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -225,6 +225,9 @@
     <t xml:space="preserve">DX3 Phantom</t>
   </si>
   <si>
+    <t xml:space="preserve">Slink Phantom</t>
+  </si>
+  <si>
     <t xml:space="preserve">Local Pad</t>
   </si>
   <si>
@@ -234,9 +237,6 @@
     <t xml:space="preserve">DX3 Pad</t>
   </si>
   <si>
-    <t xml:space="preserve">Slink Phantom</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slink Pad</t>
   </si>
   <si>
@@ -258,46 +258,10 @@
     <t xml:space="preserve">Slink-DX1 Start</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Slink-DX1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Slink-DX2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Start</t>
-    </r>
+    <t xml:space="preserve">Slink-DX1 End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slink-DX2 Start</t>
   </si>
   <si>
     <t xml:space="preserve">Slink-DX2 End</t>
@@ -325,7 +289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,14 +320,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,12 +338,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDEDCE6"/>
         <bgColor rgb="FFC6D9F1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFD095"/>
-        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -452,6 +404,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -464,16 +420,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -555,7 +507,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -610,7 +562,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="J2:J129 D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2611,52 +2563,56 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J129"/>
+  <dimension ref="A1:K129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A102" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="3.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="3.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="0" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="3.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="12" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2676,16 +2632,16 @@
       <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="0" t="s">
+      <c r="I2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2705,17 +2661,17 @@
       <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="0" t="s">
-        <v>6</v>
+      <c r="I3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2734,16 +2690,16 @@
       <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="0" t="s">
+      <c r="I4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2763,17 +2719,17 @@
       <c r="F5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>6</v>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2792,16 +2748,16 @@
       <c r="F6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="I6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2821,17 +2777,17 @@
       <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>6</v>
+      <c r="I7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2850,16 +2806,16 @@
       <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="I8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2879,17 +2835,17 @@
       <c r="F9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>6</v>
+      <c r="I9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2908,16 +2864,16 @@
       <c r="F10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="I10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2937,17 +2893,17 @@
       <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>6</v>
+      <c r="I11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,16 +2922,16 @@
       <c r="F12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="I12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2998,17 +2954,17 @@
       <c r="F13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>6</v>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3027,16 +2983,16 @@
       <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3056,17 +3012,17 @@
       <c r="F15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I15" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>6</v>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,16 +3041,16 @@
       <c r="F16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I16" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="0" t="s">
+      <c r="I16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3114,17 +3070,17 @@
       <c r="F17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>6</v>
+      <c r="I17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,16 +3099,16 @@
       <c r="F18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I18" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="0" t="s">
+      <c r="I18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3172,17 +3128,17 @@
       <c r="F19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>6</v>
+      <c r="I19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3201,16 +3157,16 @@
       <c r="F20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G20" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="0" t="s">
+      <c r="I20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3230,17 +3186,17 @@
       <c r="F21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I21" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>6</v>
+      <c r="I21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3259,16 +3215,16 @@
       <c r="F22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G22" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I22" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="0" t="s">
+      <c r="I22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3288,17 +3244,17 @@
       <c r="F23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>6</v>
+      <c r="I23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,16 +3273,16 @@
       <c r="F24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J24" s="0" t="s">
+      <c r="I24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3346,17 +3302,17 @@
       <c r="F25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>6</v>
+      <c r="I25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3375,16 +3331,16 @@
       <c r="F26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I26" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J26" s="0" t="s">
+      <c r="I26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3404,17 +3360,17 @@
       <c r="F27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I27" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>6</v>
+      <c r="I27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3433,16 +3389,16 @@
       <c r="F28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I28" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J28" s="0" t="s">
+      <c r="I28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3462,17 +3418,17 @@
       <c r="F29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I29" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>6</v>
+      <c r="I29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,16 +3447,16 @@
       <c r="F30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I30" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J30" s="0" t="s">
+      <c r="I30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3520,17 +3476,17 @@
       <c r="F31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>6</v>
+      <c r="I31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,16 +3505,16 @@
       <c r="F32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G32" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I32" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J32" s="0" t="s">
+      <c r="I32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3581,17 +3537,17 @@
       <c r="F33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G33" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="H33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I33" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>6</v>
+      <c r="I33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,10 +3560,10 @@
       <c r="F34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I34" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J34" s="0" t="s">
+      <c r="H34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3621,11 +3577,11 @@
       <c r="F35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I35" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>6</v>
+      <c r="H35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,10 +3594,10 @@
       <c r="F36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I36" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J36" s="0" t="s">
+      <c r="H36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3655,11 +3611,11 @@
       <c r="F37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I37" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>6</v>
+      <c r="H37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,10 +3628,10 @@
       <c r="F38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I38" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J38" s="0" t="s">
+      <c r="H38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3689,11 +3645,11 @@
       <c r="F39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I39" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>6</v>
+      <c r="H39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,10 +3662,10 @@
       <c r="F40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J40" s="0" t="s">
+      <c r="H40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3723,11 +3679,11 @@
       <c r="F41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I41" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>6</v>
+      <c r="H41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,10 +3696,10 @@
       <c r="F42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I42" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J42" s="0" t="s">
+      <c r="H42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3757,11 +3713,11 @@
       <c r="F43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I43" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>6</v>
+      <c r="H43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,10 +3730,10 @@
       <c r="F44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I44" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J44" s="0" t="s">
+      <c r="H44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3791,11 +3747,11 @@
       <c r="F45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>6</v>
+      <c r="H45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,10 +3764,10 @@
       <c r="F46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J46" s="0" t="s">
+      <c r="H46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3825,11 +3781,11 @@
       <c r="F47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I47" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>6</v>
+      <c r="H47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,10 +3798,10 @@
       <c r="F48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I48" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J48" s="0" t="s">
+      <c r="H48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3862,11 +3818,11 @@
       <c r="F49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I49" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>6</v>
+      <c r="H49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,10 +3835,10 @@
       <c r="F50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I50" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J50" s="0" t="s">
+      <c r="H50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3896,11 +3852,11 @@
       <c r="F51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I51" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>6</v>
+      <c r="H51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,10 +3869,10 @@
       <c r="F52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I52" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J52" s="0" t="s">
+      <c r="H52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K52" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3930,11 +3886,11 @@
       <c r="F53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I53" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>6</v>
+      <c r="H53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,10 +3903,10 @@
       <c r="F54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I54" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J54" s="0" t="s">
+      <c r="H54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K54" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3964,11 +3920,11 @@
       <c r="F55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I55" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>6</v>
+      <c r="H55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,10 +3937,10 @@
       <c r="F56" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I56" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J56" s="0" t="s">
+      <c r="H56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K56" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3998,11 +3954,11 @@
       <c r="F57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I57" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>6</v>
+      <c r="H57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,10 +3971,10 @@
       <c r="F58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I58" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J58" s="0" t="s">
+      <c r="H58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K58" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4032,11 +3988,11 @@
       <c r="F59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I59" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>6</v>
+      <c r="H59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,10 +4005,10 @@
       <c r="F60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I60" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J60" s="0" t="s">
+      <c r="H60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K60" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4066,11 +4022,11 @@
       <c r="F61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I61" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>6</v>
+      <c r="H61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,10 +4039,10 @@
       <c r="F62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I62" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J62" s="0" t="s">
+      <c r="H62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K62" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4100,11 +4056,11 @@
       <c r="F63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I63" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>6</v>
+      <c r="H63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4117,10 +4073,10 @@
       <c r="F64" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I64" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J64" s="0" t="s">
+      <c r="H64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K64" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4137,11 +4093,11 @@
       <c r="F65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I65" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>6</v>
+      <c r="H65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4151,10 +4107,10 @@
       <c r="B66" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="I66" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J66" s="0" t="s">
+      <c r="F66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K66" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4162,21 +4118,21 @@
       <c r="B67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="I67" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>6</v>
+      <c r="F67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="I68" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J68" s="0" t="s">
+      <c r="F68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K68" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4184,21 +4140,21 @@
       <c r="B69" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="I69" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>6</v>
+      <c r="F69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="I70" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J70" s="0" t="s">
+      <c r="F70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K70" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4206,21 +4162,21 @@
       <c r="B71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="I71" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>6</v>
+      <c r="F71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="I72" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J72" s="0" t="s">
+      <c r="F72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4228,21 +4184,21 @@
       <c r="B73" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="I73" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>6</v>
+      <c r="F73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="I74" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J74" s="0" t="s">
+      <c r="F74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K74" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4250,21 +4206,21 @@
       <c r="B75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="I75" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>6</v>
+      <c r="F75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="I76" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J76" s="0" t="s">
+      <c r="F76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K76" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4272,21 +4228,21 @@
       <c r="B77" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="I77" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>6</v>
+      <c r="F77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="I78" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J78" s="0" t="s">
+      <c r="F78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K78" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4294,21 +4250,21 @@
       <c r="B79" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="I79" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>6</v>
+      <c r="F79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="I80" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J80" s="0" t="s">
+      <c r="F80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K80" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4316,21 +4272,21 @@
       <c r="B81" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I81" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>6</v>
+      <c r="F81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="I82" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J82" s="0" t="s">
+      <c r="F82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K82" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4338,21 +4294,21 @@
       <c r="B83" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="I83" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>6</v>
+      <c r="F83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="I84" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J84" s="0" t="s">
+      <c r="F84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K84" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4360,21 +4316,21 @@
       <c r="B85" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="I85" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>6</v>
+      <c r="F85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="I86" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J86" s="0" t="s">
+      <c r="F86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K86" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4382,21 +4338,21 @@
       <c r="B87" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="I87" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>6</v>
+      <c r="F87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="I88" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J88" s="0" t="s">
+      <c r="F88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K88" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4404,21 +4360,21 @@
       <c r="B89" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="I89" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J89" s="0" t="s">
-        <v>6</v>
+      <c r="F89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="I90" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J90" s="0" t="s">
+      <c r="F90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K90" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4426,21 +4382,21 @@
       <c r="B91" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="I91" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>6</v>
+      <c r="F91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="I92" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J92" s="0" t="s">
+      <c r="F92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K92" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4448,21 +4404,21 @@
       <c r="B93" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="I93" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J93" s="0" t="s">
-        <v>6</v>
+      <c r="F93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="I94" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J94" s="0" t="s">
+      <c r="F94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K94" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4470,49 +4426,49 @@
       <c r="B95" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="I95" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J95" s="0" t="s">
-        <v>6</v>
+      <c r="F95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="I96" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J96" s="0" t="s">
+      <c r="F96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K96" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="5" t="s">
         <v>78</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="I97" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J97" s="0" t="s">
-        <v>6</v>
+      <c r="F97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="I98" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J98" s="0" t="s">
+      <c r="F98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K98" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4520,21 +4476,21 @@
       <c r="B99" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="I99" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J99" s="0" t="s">
-        <v>6</v>
+      <c r="F99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="I100" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J100" s="0" t="s">
+      <c r="F100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K100" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4542,21 +4498,21 @@
       <c r="B101" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="I101" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J101" s="0" t="s">
-        <v>6</v>
+      <c r="F101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="I102" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J102" s="0" t="s">
+      <c r="F102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K102" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4564,21 +4520,21 @@
       <c r="B103" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="I103" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J103" s="0" t="s">
-        <v>6</v>
+      <c r="F103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="I104" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J104" s="0" t="s">
+      <c r="F104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K104" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4586,21 +4542,21 @@
       <c r="B105" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="I105" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J105" s="0" t="s">
-        <v>6</v>
+      <c r="F105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="I106" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J106" s="0" t="s">
+      <c r="F106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K106" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4608,21 +4564,21 @@
       <c r="B107" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="I107" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J107" s="0" t="s">
-        <v>6</v>
+      <c r="F107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="I108" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J108" s="0" t="s">
+      <c r="F108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K108" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4630,21 +4586,21 @@
       <c r="B109" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="I109" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J109" s="0" t="s">
-        <v>6</v>
+      <c r="F109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="I110" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J110" s="0" t="s">
+      <c r="F110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K110" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4652,21 +4608,21 @@
       <c r="B111" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="I111" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J111" s="0" t="s">
-        <v>6</v>
+      <c r="F111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="I112" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J112" s="0" t="s">
+      <c r="F112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K112" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4674,21 +4630,21 @@
       <c r="B113" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="I113" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J113" s="0" t="s">
-        <v>6</v>
+      <c r="F113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="I114" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J114" s="0" t="s">
+      <c r="F114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K114" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4696,21 +4652,21 @@
       <c r="B115" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="I115" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J115" s="0" t="s">
-        <v>6</v>
+      <c r="F115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="I116" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J116" s="0" t="s">
+      <c r="F116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K116" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4718,21 +4674,21 @@
       <c r="B117" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="I117" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J117" s="0" t="s">
-        <v>6</v>
+      <c r="F117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="I118" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J118" s="0" t="s">
+      <c r="F118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K118" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4740,21 +4696,21 @@
       <c r="B119" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="I119" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J119" s="0" t="s">
-        <v>6</v>
+      <c r="F119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="I120" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J120" s="0" t="s">
+      <c r="F120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K120" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4762,21 +4718,21 @@
       <c r="B121" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="I121" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J121" s="0" t="s">
-        <v>6</v>
+      <c r="F121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="I122" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J122" s="0" t="s">
+      <c r="F122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K122" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4784,21 +4740,21 @@
       <c r="B123" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="I123" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J123" s="0" t="s">
-        <v>6</v>
+      <c r="F123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="I124" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J124" s="0" t="s">
+      <c r="F124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K124" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4806,21 +4762,21 @@
       <c r="B125" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="I125" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J125" s="0" t="s">
-        <v>6</v>
+      <c r="F125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="I126" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J126" s="0" t="s">
+      <c r="F126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K126" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4828,36 +4784,36 @@
       <c r="B127" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="I127" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J127" s="0" t="s">
-        <v>6</v>
+      <c r="F127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="I128" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="J128" s="0" t="s">
+      <c r="F128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K128" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="12" t="s">
+      <c r="A129" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="I129" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="J129" s="0" t="s">
-        <v>6</v>
+      <c r="F129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -4879,7 +4835,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="J2:J129 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -219,31 +219,31 @@
     <t xml:space="preserve">Local Phantom</t>
   </si>
   <si>
+    <t xml:space="preserve">Local Pad</t>
+  </si>
+  <si>
     <t xml:space="preserve">DX1 Phantom</t>
   </si>
   <si>
+    <t xml:space="preserve">DX1 Pad</t>
+  </si>
+  <si>
     <t xml:space="preserve">DX3 Phantom</t>
   </si>
   <si>
+    <t xml:space="preserve">DX3 Pad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Slink Phantom</t>
   </si>
   <si>
-    <t xml:space="preserve">Local Pad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DX1 Pad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DX3 Pad</t>
-  </si>
-  <si>
     <t xml:space="preserve">Slink Pad</t>
   </si>
   <si>
     <t xml:space="preserve">no</t>
   </si>
   <si>
-    <t xml:space="preserve">Avantis Surface</t>
+    <t xml:space="preserve">Avantis Local End</t>
   </si>
   <si>
     <t xml:space="preserve">(C)DM32 End +  DX1/3 End</t>
@@ -321,7 +321,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,14 +330,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE994"/>
-        <bgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFBF819E"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDEDCE6"/>
-        <bgColor rgb="FFC6D9F1"/>
+        <fgColor rgb="FFB7B3CA"/>
+        <bgColor rgb="FFAFD095"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB66C"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FF92D050"/>
       </patternFill>
     </fill>
   </fills>
@@ -375,7 +387,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -404,10 +416,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -425,6 +433,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -507,12 +523,12 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB7B3CA"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFDEDCE6"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -528,11 +544,11 @@
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFE994"/>
-      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FFAFD095"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFB66C"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
@@ -540,7 +556,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF558ED5"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBF819E"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -562,7 +578,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="L2:M129 D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2563,56 +2579,55 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K129"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:M129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="14.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="3.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="4.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="3.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="4.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="5" style="1" width="3.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="11" style="1" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="14" style="1" width="3.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="16" style="1" width="3.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="M1" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2626,13 +2641,10 @@
       <c r="D2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -2641,7 +2653,10 @@
       <c r="J2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2655,13 +2670,10 @@
       <c r="D3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -2670,7 +2682,10 @@
       <c r="J3" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2684,13 +2699,10 @@
       <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -2699,7 +2711,10 @@
       <c r="J4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2713,13 +2728,10 @@
       <c r="D5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -2728,7 +2740,10 @@
       <c r="J5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2742,13 +2757,10 @@
       <c r="D6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -2757,7 +2769,10 @@
       <c r="J6" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2771,13 +2786,10 @@
       <c r="D7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -2786,7 +2798,10 @@
       <c r="J7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2800,13 +2815,10 @@
       <c r="D8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -2815,7 +2827,10 @@
       <c r="J8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2829,13 +2844,10 @@
       <c r="D9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -2844,7 +2856,10 @@
       <c r="J9" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2858,13 +2873,10 @@
       <c r="D10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -2873,7 +2885,10 @@
       <c r="J10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2887,13 +2902,10 @@
       <c r="D11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -2902,7 +2914,10 @@
       <c r="J11" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2916,13 +2931,10 @@
       <c r="D12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -2931,7 +2943,10 @@
       <c r="J12" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2948,13 +2963,10 @@
       <c r="D13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -2963,7 +2975,10 @@
       <c r="J13" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2977,13 +2992,10 @@
       <c r="D14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -2992,7 +3004,10 @@
       <c r="J14" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3006,13 +3021,10 @@
       <c r="D15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -3021,7 +3033,10 @@
       <c r="J15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3035,13 +3050,10 @@
       <c r="D16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -3050,7 +3062,10 @@
       <c r="J16" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3064,13 +3079,10 @@
       <c r="D17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -3079,7 +3091,10 @@
       <c r="J17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3093,13 +3108,10 @@
       <c r="D18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -3108,7 +3120,10 @@
       <c r="J18" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3122,13 +3137,10 @@
       <c r="D19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -3137,7 +3149,10 @@
       <c r="J19" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3151,13 +3166,10 @@
       <c r="D20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -3166,7 +3178,10 @@
       <c r="J20" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3180,13 +3195,10 @@
       <c r="D21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -3195,7 +3207,10 @@
       <c r="J21" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3209,13 +3224,10 @@
       <c r="D22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -3224,7 +3236,10 @@
       <c r="J22" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3238,13 +3253,10 @@
       <c r="D23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -3253,7 +3265,10 @@
       <c r="J23" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3267,13 +3282,10 @@
       <c r="D24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -3282,7 +3294,10 @@
       <c r="J24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3296,13 +3311,10 @@
       <c r="D25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -3311,7 +3323,10 @@
       <c r="J25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M25" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3325,13 +3340,10 @@
       <c r="D26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -3340,7 +3352,10 @@
       <c r="J26" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M26" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3354,13 +3369,10 @@
       <c r="D27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -3369,7 +3381,10 @@
       <c r="J27" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3383,13 +3398,10 @@
       <c r="D28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -3398,7 +3410,10 @@
       <c r="J28" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3412,13 +3427,10 @@
       <c r="D29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -3427,7 +3439,10 @@
       <c r="J29" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3441,13 +3456,10 @@
       <c r="D30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -3456,7 +3468,10 @@
       <c r="J30" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M30" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3470,13 +3485,10 @@
       <c r="D31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -3485,7 +3497,10 @@
       <c r="J31" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M31" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3499,13 +3514,10 @@
       <c r="D32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -3514,7 +3526,10 @@
       <c r="J32" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3531,13 +3546,10 @@
       <c r="D33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>71</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -3546,7 +3558,10 @@
       <c r="J33" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3557,13 +3572,13 @@
       <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3574,13 +3589,13 @@
       <c r="C35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3591,13 +3606,13 @@
       <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="D36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3608,13 +3623,13 @@
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="D37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M37" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3625,13 +3640,13 @@
       <c r="C38" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="D38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M38" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3642,13 +3657,13 @@
       <c r="C39" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M39" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3659,13 +3674,13 @@
       <c r="C40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="D40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M40" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3676,13 +3691,13 @@
       <c r="C41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K41" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3693,13 +3708,13 @@
       <c r="C42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K42" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M42" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3710,13 +3725,13 @@
       <c r="C43" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K43" s="1" t="s">
+      <c r="D43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M43" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3727,13 +3742,13 @@
       <c r="C44" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="D44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M44" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3744,13 +3759,13 @@
       <c r="C45" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K45" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3761,13 +3776,13 @@
       <c r="C46" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K46" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M46" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3778,13 +3793,13 @@
       <c r="C47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K47" s="1" t="s">
+      <c r="D47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M47" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3795,13 +3810,13 @@
       <c r="C48" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K48" s="1" t="s">
+      <c r="D48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M48" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3815,13 +3830,13 @@
       <c r="C49" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K49" s="1" t="s">
+      <c r="D49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M49" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3832,13 +3847,13 @@
       <c r="C50" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K50" s="1" t="s">
+      <c r="D50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M50" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3849,13 +3864,13 @@
       <c r="C51" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K51" s="1" t="s">
+      <c r="D51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3866,13 +3881,13 @@
       <c r="C52" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K52" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M52" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3883,13 +3898,13 @@
       <c r="C53" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K53" s="1" t="s">
+      <c r="D53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M53" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3900,13 +3915,13 @@
       <c r="C54" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K54" s="1" t="s">
+      <c r="D54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M54" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3917,13 +3932,13 @@
       <c r="C55" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K55" s="1" t="s">
+      <c r="D55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M55" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3934,13 +3949,13 @@
       <c r="C56" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K56" s="1" t="s">
+      <c r="D56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M56" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3951,13 +3966,13 @@
       <c r="C57" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K57" s="1" t="s">
+      <c r="D57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M57" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3968,13 +3983,13 @@
       <c r="C58" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K58" s="1" t="s">
+      <c r="D58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M58" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3985,13 +4000,13 @@
       <c r="C59" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K59" s="1" t="s">
+      <c r="D59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M59" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4002,13 +4017,13 @@
       <c r="C60" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K60" s="1" t="s">
+      <c r="D60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4019,13 +4034,13 @@
       <c r="C61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K61" s="1" t="s">
+      <c r="D61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M61" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4036,13 +4051,13 @@
       <c r="C62" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K62" s="1" t="s">
+      <c r="D62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M62" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4053,13 +4068,13 @@
       <c r="C63" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K63" s="1" t="s">
+      <c r="D63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M63" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4070,13 +4085,13 @@
       <c r="C64" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K64" s="1" t="s">
+      <c r="D64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M64" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4090,13 +4105,13 @@
       <c r="C65" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K65" s="1" t="s">
+      <c r="D65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M65" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4107,10 +4122,10 @@
       <c r="B66" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="F66" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K66" s="1" t="s">
+      <c r="L66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M66" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4118,10 +4133,10 @@
       <c r="B67" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="F67" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K67" s="1" t="s">
+      <c r="L67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M67" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4129,10 +4144,10 @@
       <c r="B68" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="F68" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K68" s="1" t="s">
+      <c r="L68" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M68" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4140,10 +4155,10 @@
       <c r="B69" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="F69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K69" s="1" t="s">
+      <c r="L69" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M69" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4151,10 +4166,10 @@
       <c r="B70" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K70" s="1" t="s">
+      <c r="L70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M70" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4162,10 +4177,10 @@
       <c r="B71" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="F71" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K71" s="1" t="s">
+      <c r="L71" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M71" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4173,10 +4188,10 @@
       <c r="B72" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="F72" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K72" s="1" t="s">
+      <c r="L72" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4184,10 +4199,10 @@
       <c r="B73" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="F73" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K73" s="1" t="s">
+      <c r="L73" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M73" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4195,10 +4210,10 @@
       <c r="B74" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="F74" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K74" s="1" t="s">
+      <c r="L74" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M74" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4206,10 +4221,10 @@
       <c r="B75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="F75" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K75" s="1" t="s">
+      <c r="L75" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M75" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4217,10 +4232,10 @@
       <c r="B76" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="F76" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K76" s="1" t="s">
+      <c r="L76" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M76" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4228,10 +4243,10 @@
       <c r="B77" s="2" t="n">
         <v>76</v>
       </c>
-      <c r="F77" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K77" s="1" t="s">
+      <c r="L77" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M77" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4239,10 +4254,10 @@
       <c r="B78" s="2" t="n">
         <v>77</v>
       </c>
-      <c r="F78" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K78" s="1" t="s">
+      <c r="L78" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M78" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4250,10 +4265,10 @@
       <c r="B79" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="F79" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K79" s="1" t="s">
+      <c r="L79" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M79" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4261,10 +4276,10 @@
       <c r="B80" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="F80" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K80" s="1" t="s">
+      <c r="L80" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M80" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4272,10 +4287,10 @@
       <c r="B81" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="F81" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K81" s="1" t="s">
+      <c r="L81" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4283,10 +4298,10 @@
       <c r="B82" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="F82" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K82" s="1" t="s">
+      <c r="L82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M82" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4294,10 +4309,10 @@
       <c r="B83" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="F83" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K83" s="1" t="s">
+      <c r="L83" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M83" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4305,10 +4320,10 @@
       <c r="B84" s="2" t="n">
         <v>83</v>
       </c>
-      <c r="F84" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K84" s="1" t="s">
+      <c r="L84" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M84" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4316,10 +4331,10 @@
       <c r="B85" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="F85" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K85" s="1" t="s">
+      <c r="L85" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M85" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4327,10 +4342,10 @@
       <c r="B86" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="F86" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K86" s="1" t="s">
+      <c r="L86" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M86" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4338,10 +4353,10 @@
       <c r="B87" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="F87" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K87" s="1" t="s">
+      <c r="L87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M87" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4349,10 +4364,10 @@
       <c r="B88" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="F88" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K88" s="1" t="s">
+      <c r="L88" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M88" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4360,10 +4375,10 @@
       <c r="B89" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="F89" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K89" s="1" t="s">
+      <c r="L89" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M89" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4371,10 +4386,10 @@
       <c r="B90" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="F90" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K90" s="1" t="s">
+      <c r="L90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M90" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4382,10 +4397,10 @@
       <c r="B91" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="F91" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K91" s="1" t="s">
+      <c r="L91" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M91" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4393,10 +4408,10 @@
       <c r="B92" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="F92" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K92" s="1" t="s">
+      <c r="L92" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4404,10 +4419,10 @@
       <c r="B93" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="F93" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K93" s="1" t="s">
+      <c r="L93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M93" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4415,10 +4430,10 @@
       <c r="B94" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="F94" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K94" s="1" t="s">
+      <c r="L94" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M94" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4426,10 +4441,10 @@
       <c r="B95" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="F95" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K95" s="1" t="s">
+      <c r="L95" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M95" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4440,10 +4455,10 @@
       <c r="B96" s="2" t="n">
         <v>95</v>
       </c>
-      <c r="F96" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K96" s="1" t="s">
+      <c r="L96" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M96" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4454,10 +4469,10 @@
       <c r="B97" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="F97" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K97" s="1" t="s">
+      <c r="L97" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M97" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4465,10 +4480,10 @@
       <c r="B98" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="F98" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K98" s="1" t="s">
+      <c r="L98" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M98" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4476,10 +4491,10 @@
       <c r="B99" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="F99" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K99" s="1" t="s">
+      <c r="L99" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M99" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4487,10 +4502,10 @@
       <c r="B100" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="F100" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K100" s="1" t="s">
+      <c r="L100" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M100" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4498,10 +4513,10 @@
       <c r="B101" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="F101" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K101" s="1" t="s">
+      <c r="L101" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M101" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4509,10 +4524,10 @@
       <c r="B102" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="F102" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K102" s="1" t="s">
+      <c r="L102" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M102" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4520,10 +4535,10 @@
       <c r="B103" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="F103" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K103" s="1" t="s">
+      <c r="L103" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M103" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4531,10 +4546,10 @@
       <c r="B104" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="F104" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K104" s="1" t="s">
+      <c r="L104" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M104" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4542,10 +4557,10 @@
       <c r="B105" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="F105" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K105" s="1" t="s">
+      <c r="L105" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M105" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4553,10 +4568,10 @@
       <c r="B106" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="F106" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K106" s="1" t="s">
+      <c r="L106" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M106" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4564,10 +4579,10 @@
       <c r="B107" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="F107" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K107" s="1" t="s">
+      <c r="L107" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M107" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4575,10 +4590,10 @@
       <c r="B108" s="2" t="n">
         <v>107</v>
       </c>
-      <c r="F108" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K108" s="1" t="s">
+      <c r="L108" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M108" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4586,10 +4601,10 @@
       <c r="B109" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="F109" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K109" s="1" t="s">
+      <c r="L109" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M109" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4597,10 +4612,10 @@
       <c r="B110" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K110" s="1" t="s">
+      <c r="L110" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M110" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4608,10 +4623,10 @@
       <c r="B111" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="F111" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K111" s="1" t="s">
+      <c r="L111" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M111" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4619,10 +4634,10 @@
       <c r="B112" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="F112" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K112" s="1" t="s">
+      <c r="L112" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M112" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4630,10 +4645,10 @@
       <c r="B113" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="F113" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K113" s="1" t="s">
+      <c r="L113" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M113" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4641,10 +4656,10 @@
       <c r="B114" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="F114" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K114" s="1" t="s">
+      <c r="L114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M114" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4652,10 +4667,10 @@
       <c r="B115" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="F115" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K115" s="1" t="s">
+      <c r="L115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M115" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4663,10 +4678,10 @@
       <c r="B116" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="F116" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K116" s="1" t="s">
+      <c r="L116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M116" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4674,10 +4689,10 @@
       <c r="B117" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="F117" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K117" s="1" t="s">
+      <c r="L117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M117" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4685,10 +4700,10 @@
       <c r="B118" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="F118" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K118" s="1" t="s">
+      <c r="L118" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M118" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4696,10 +4711,10 @@
       <c r="B119" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="F119" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K119" s="1" t="s">
+      <c r="L119" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M119" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4707,10 +4722,10 @@
       <c r="B120" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="F120" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K120" s="1" t="s">
+      <c r="L120" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M120" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4718,10 +4733,10 @@
       <c r="B121" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="F121" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K121" s="1" t="s">
+      <c r="L121" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M121" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4729,10 +4744,10 @@
       <c r="B122" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="F122" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K122" s="1" t="s">
+      <c r="L122" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M122" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4740,10 +4755,10 @@
       <c r="B123" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="F123" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K123" s="1" t="s">
+      <c r="L123" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M123" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4751,10 +4766,10 @@
       <c r="B124" s="2" t="n">
         <v>123</v>
       </c>
-      <c r="F124" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K124" s="1" t="s">
+      <c r="L124" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M124" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4762,10 +4777,10 @@
       <c r="B125" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="F125" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K125" s="1" t="s">
+      <c r="L125" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M125" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4773,10 +4788,10 @@
       <c r="B126" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="F126" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K126" s="1" t="s">
+      <c r="L126" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M126" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4784,10 +4799,10 @@
       <c r="B127" s="2" t="n">
         <v>126</v>
       </c>
-      <c r="F127" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K127" s="1" t="s">
+      <c r="L127" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M127" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4795,10 +4810,10 @@
       <c r="B128" s="2" t="n">
         <v>127</v>
       </c>
-      <c r="F128" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K128" s="1" t="s">
+      <c r="L128" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M128" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4809,10 +4824,10 @@
       <c r="B129" s="2" t="n">
         <v>128</v>
       </c>
-      <c r="F129" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K129" s="1" t="s">
+      <c r="L129" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="M129" s="1" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4835,7 +4850,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="L2:M129 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -577,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A104" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D2" activeCellId="1" sqref="L2:M129 D2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2581,8 +2581,8 @@
   </sheetPr>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2:M129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4850,7 +4850,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="L2:M129 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="923" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="87">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -36,6 +36,12 @@
     <t xml:space="preserve">Mute</t>
   </si>
   <si>
+    <t xml:space="preserve">Recording</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Record Arm</t>
+  </si>
+  <si>
     <t xml:space="preserve">KickIn</t>
   </si>
   <si>
@@ -46,6 +52,9 @@
   </si>
   <si>
     <t xml:space="preserve">KickOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">SnTop</t>
@@ -238,9 +247,6 @@
   </si>
   <si>
     <t xml:space="preserve">Slink Pad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Avantis Local End</t>
@@ -387,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -397,6 +403,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -577,8 +587,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -586,22 +596,32 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="0"/>
+      <c r="F1" s="0"/>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="XFA1" s="1"/>
       <c r="XFB1" s="1"/>
@@ -612,1921 +632,2055 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>5</v>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>5</v>
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
+      <c r="B7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>5</v>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>5</v>
+      <c r="B9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>5</v>
+      <c r="B10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>5</v>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>5</v>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>5</v>
+      <c r="B13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
+      <c r="B14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>5</v>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>5</v>
+      <c r="B16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>5</v>
+      <c r="B17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>24</v>
+      <c r="B18" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>24</v>
+      <c r="B19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>27</v>
+      <c r="B20" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>27</v>
+      <c r="B21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>27</v>
+      <c r="B22" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>27</v>
-      </c>
       <c r="D23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>27</v>
+      <c r="B24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>27</v>
+      <c r="B25" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>34</v>
+      <c r="B26" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>34</v>
+      <c r="B27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>34</v>
+      <c r="B28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>39</v>
+      <c r="B30" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G30" s="7"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>39</v>
+      <c r="B31" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G31" s="7"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>39</v>
+      <c r="B32" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G32" s="7"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G33" s="7"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>39</v>
+      <c r="B34" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G34" s="7"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>39</v>
+      <c r="B35" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G35" s="7"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>39</v>
+      <c r="B36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>39</v>
+      <c r="B37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>19</v>
+      <c r="B38" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>19</v>
+      <c r="B39" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>19</v>
+      <c r="B40" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E40" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G40" s="7"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>19</v>
+      <c r="B41" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G41" s="7"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>52</v>
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G42" s="7"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>52</v>
+      <c r="B43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E43" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G43" s="7"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>52</v>
+      <c r="B44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E44" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G44" s="7"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C45" s="6" t="s">
-        <v>52</v>
-      </c>
       <c r="D45" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E45" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G45" s="7"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>57</v>
+      <c r="B46" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E46" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G46" s="7"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>57</v>
+      <c r="B47" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E47" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G47" s="7"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>57</v>
+      <c r="B48" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G48" s="7"/>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="6" t="s">
-        <v>57</v>
-      </c>
       <c r="D49" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E49" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G49" s="7"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E50" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G50" s="7"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E51" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G51" s="7"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G52" s="7"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G53" s="7"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E54" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G54" s="7"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G55" s="7"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E56" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G56" s="7"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E57" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G57" s="7"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E58" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G58" s="7"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E59" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G59" s="7"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E60" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G60" s="7"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E61" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G61" s="7"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C62" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E62" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G62" s="7"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E63" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G63" s="7"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E64" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G64" s="7"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E65" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G65" s="7"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E66" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G66" s="7"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G67" s="7"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E68" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G68" s="7"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E69" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G69" s="7"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E70" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G70" s="7"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E71" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G71" s="7"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E72" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G72" s="7"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E73" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G73" s="7"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G74" s="7"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E75" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G75" s="7"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E76" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G76" s="7"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E77" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G77" s="7"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E78" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G78" s="7"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E79" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G79" s="7"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E80" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G80" s="7"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E81" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G81" s="7"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E82" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G82" s="7"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E83" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G83" s="7"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E84" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G84" s="7"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E85" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G85" s="7"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E86" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G86" s="7"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E87" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G87" s="7"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E88" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G88" s="7"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G89" s="7"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E90" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G90" s="7"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E91" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E92" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G92" s="7"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E93" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G93" s="7"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C94" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E94" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G94" s="7"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E95" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G95" s="7"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E96" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E97" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G97" s="7"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E98" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G98" s="7"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E99" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G99" s="7"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C100" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E100" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G100" s="7"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E101" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G101" s="7"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E102" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G102" s="7"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E103" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G103" s="7"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E104" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G104" s="7"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E105" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G105" s="7"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E106" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E107" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G107" s="7"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E108" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G108" s="7"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E109" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G109" s="7"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E110" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G110" s="7"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C111" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E111" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G111" s="7"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C112" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E112" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G112" s="7"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E113" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G113" s="7"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E114" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G114" s="7"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E115" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E116" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G116" s="7"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E117" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G117" s="7"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C118" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E118" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G118" s="7"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E119" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G119" s="7"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E120" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G120" s="7"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E121" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G121" s="7"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C122" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E122" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G122" s="7"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E123" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G123" s="7"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C124" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E124" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G124" s="7"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E125" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G125" s="7"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E126" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G126" s="7"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E127" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G127" s="7"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C128" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E128" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G128" s="7"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="G129" s="7"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
@@ -2535,7 +2689,7 @@
       <c r="A131" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E1:E1048576 C1:C1048576">
+  <conditionalFormatting sqref="C1:C1048576 G1:G1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"purple"</formula>
     </cfRule>
@@ -2582,7 +2736,7 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="H18:H19 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2597,38 +2751,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="E1" s="11"/>
+      <c r="F1" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="H1" s="11"/>
+      <c r="I1" s="13" t="s">
         <v>70</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2636,28 +2790,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2665,28 +2819,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2694,28 +2848,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2723,28 +2877,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2752,28 +2906,28 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,28 +2935,28 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2810,28 +2964,28 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2839,28 +2993,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,28 +3022,28 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,28 +3051,28 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2926,60 +3080,60 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2987,28 +3141,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,28 +3170,28 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,28 +3199,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,28 +3228,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,28 +3257,28 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3132,28 +3286,28 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3161,28 +3315,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3190,28 +3344,28 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3219,28 +3373,28 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3248,28 +3402,28 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,28 +3431,28 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,28 +3460,28 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3335,28 +3489,28 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3364,28 +3518,28 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3393,28 +3547,28 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,28 +3576,28 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3451,28 +3605,28 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3480,28 +3634,28 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,60 +3663,60 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3570,16 +3724,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3587,16 +3741,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,16 +3758,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,16 +3775,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3638,16 +3792,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3655,16 +3809,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3672,16 +3826,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3689,16 +3843,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3706,16 +3860,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3723,16 +3877,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3740,16 +3894,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,16 +3911,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3774,16 +3928,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3791,16 +3945,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,36 +3962,36 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3845,16 +3999,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3862,16 +4016,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,16 +4033,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,16 +4050,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3913,16 +4067,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3930,16 +4084,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,16 +4101,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3964,16 +4118,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3981,16 +4135,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3998,16 +4152,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4015,16 +4169,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,16 +4186,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4049,16 +4203,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4066,16 +4220,16 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4083,50 +4237,50 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>65</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4134,10 +4288,10 @@
         <v>66</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4145,10 +4299,10 @@
         <v>67</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,10 +4310,10 @@
         <v>68</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4167,10 +4321,10 @@
         <v>69</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4178,10 +4332,10 @@
         <v>70</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4189,10 +4343,10 @@
         <v>71</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,10 +4354,10 @@
         <v>72</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,10 +4365,10 @@
         <v>73</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4222,10 +4376,10 @@
         <v>74</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4233,10 +4387,10 @@
         <v>75</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4244,10 +4398,10 @@
         <v>76</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4255,10 +4409,10 @@
         <v>77</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4266,10 +4420,10 @@
         <v>78</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,10 +4431,10 @@
         <v>79</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,10 +4442,10 @@
         <v>80</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,10 +4453,10 @@
         <v>81</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,10 +4464,10 @@
         <v>82</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,10 +4475,10 @@
         <v>83</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,10 +4486,10 @@
         <v>84</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,10 +4497,10 @@
         <v>85</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,10 +4508,10 @@
         <v>86</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,10 +4519,10 @@
         <v>87</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,10 +4530,10 @@
         <v>88</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,10 +4541,10 @@
         <v>89</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,10 +4552,10 @@
         <v>90</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,10 +4563,10 @@
         <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,10 +4574,10 @@
         <v>92</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,10 +4585,10 @@
         <v>93</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,38 +4596,38 @@
         <v>94</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
-        <v>77</v>
+      <c r="A96" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>95</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
-        <v>78</v>
+      <c r="A97" s="6" t="s">
+        <v>80</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,10 +4635,10 @@
         <v>97</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4492,10 +4646,10 @@
         <v>98</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4503,10 +4657,10 @@
         <v>99</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4514,10 +4668,10 @@
         <v>100</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4525,10 +4679,10 @@
         <v>101</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,10 +4690,10 @@
         <v>102</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4547,10 +4701,10 @@
         <v>103</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4558,10 +4712,10 @@
         <v>104</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4569,10 +4723,10 @@
         <v>105</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,10 +4734,10 @@
         <v>106</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4591,10 +4745,10 @@
         <v>107</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4602,10 +4756,10 @@
         <v>108</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4613,10 +4767,10 @@
         <v>109</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,10 +4778,10 @@
         <v>110</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,10 +4789,10 @@
         <v>111</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,10 +4800,10 @@
         <v>112</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,10 +4811,10 @@
         <v>113</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,10 +4822,10 @@
         <v>114</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4679,10 +4833,10 @@
         <v>115</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,10 +4844,10 @@
         <v>116</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,10 +4855,10 @@
         <v>117</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,10 +4866,10 @@
         <v>118</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,10 +4877,10 @@
         <v>119</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,10 +4888,10 @@
         <v>120</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,10 +4899,10 @@
         <v>121</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,10 +4910,10 @@
         <v>122</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,10 +4921,10 @@
         <v>123</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,10 +4932,10 @@
         <v>124</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,10 +4943,10 @@
         <v>125</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,10 +4954,10 @@
         <v>126</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,24 +4965,24 @@
         <v>127</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="5" t="s">
-        <v>79</v>
+      <c r="A129" s="6" t="s">
+        <v>81</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>128</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4850,7 +5004,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H18:H19 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4861,25 +5015,25 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="6" t="n">
-        <v>3</v>
+      <c r="A2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="87">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t xml:space="preserve">KickOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">SnTop</t>
@@ -247,6 +244,9 @@
   </si>
   <si>
     <t xml:space="preserve">Slink Pad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Avantis Local End</t>
@@ -588,7 +588,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H18" activeCellId="0" sqref="H18:H19"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -665,7 +665,7 @@
         <v>8</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -673,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>7</v>
@@ -693,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>7</v>
@@ -705,7 +705,7 @@
         <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -713,7 +713,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>7</v>
@@ -733,7 +733,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>7</v>
@@ -745,7 +745,7 @@
         <v>8</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -753,7 +753,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>7</v>
@@ -773,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>7</v>
@@ -785,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -793,7 +793,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>7</v>
@@ -813,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>7</v>
@@ -825,7 +825,7 @@
         <v>8</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,7 +833,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>7</v>
@@ -853,7 +853,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>7</v>
@@ -865,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,10 +873,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -893,7 +893,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>7</v>
@@ -905,7 +905,7 @@
         <v>8</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>7</v>
@@ -933,7 +933,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>7</v>
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -953,16 +953,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,16 +973,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -987,10 +993,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
@@ -1007,10 +1013,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
@@ -1019,7 +1025,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1027,10 +1033,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
@@ -1047,10 +1053,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
@@ -1059,7 +1065,7 @@
         <v>8</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1067,10 +1073,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
@@ -1087,10 +1093,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
@@ -1099,7 +1105,7 @@
         <v>8</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1107,10 +1113,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
@@ -1127,10 +1133,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>8</v>
@@ -1139,7 +1145,7 @@
         <v>8</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1147,10 +1153,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
@@ -1167,10 +1173,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
@@ -1179,7 +1185,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1187,1500 +1193,2000 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>60</v>
-      </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="2" t="n">
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="7"/>
+      <c r="G67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="7"/>
+      <c r="G69" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="7"/>
+      <c r="G71" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="7"/>
+      <c r="G73" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="7"/>
+      <c r="G74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="7"/>
+      <c r="G79" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C80" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="7"/>
+      <c r="G80" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="7"/>
+      <c r="G81" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="7"/>
+      <c r="G82" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="7"/>
+      <c r="G83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="7"/>
+      <c r="G84" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="7"/>
+      <c r="G85" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="7"/>
+      <c r="G86" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="7"/>
+      <c r="G87" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="7"/>
+      <c r="G88" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="7"/>
+      <c r="G90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="7"/>
+      <c r="G91" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="7"/>
+      <c r="G93" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="7"/>
+      <c r="G94" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="7"/>
+      <c r="G95" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="7"/>
+      <c r="G97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="7"/>
+      <c r="G98" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="7"/>
+      <c r="G99" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="7"/>
+      <c r="G100" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="7"/>
+      <c r="G101" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="7"/>
+      <c r="G102" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="7"/>
+      <c r="G103" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="7"/>
+      <c r="G104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="7"/>
+      <c r="G105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="7"/>
+      <c r="G106" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="7"/>
+      <c r="G107" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="7"/>
+      <c r="G108" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="7"/>
+      <c r="G109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="7"/>
+      <c r="G110" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C111" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="7"/>
+      <c r="G111" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C112" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="7"/>
+      <c r="G112" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C113" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="7"/>
+      <c r="G113" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C114" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="7"/>
+      <c r="G114" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C115" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="7"/>
+      <c r="G115" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C116" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="7"/>
+      <c r="G116" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C117" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="7"/>
+      <c r="G117" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C118" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G118" s="7"/>
+      <c r="G118" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C119" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G119" s="7"/>
+      <c r="G119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C120" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="7"/>
+      <c r="G120" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C121" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="7"/>
+      <c r="G121" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G122" s="7"/>
+      <c r="G122" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="7"/>
+      <c r="G123" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="7"/>
+      <c r="G124" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="7"/>
+      <c r="G125" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="7"/>
+      <c r="G126" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G127" s="7"/>
+      <c r="G127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G128" s="7"/>
+      <c r="G128" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G129" s="7"/>
+      <c r="G129" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
@@ -2736,7 +3242,7 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="H18:H19 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="H2:H129 L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2752,37 +3258,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="E1" s="11"/>
       <c r="F1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>69</v>
       </c>
       <c r="H1" s="11"/>
       <c r="I1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>71</v>
       </c>
       <c r="K1" s="11"/>
       <c r="L1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="14" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2790,28 +3296,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,28 +3325,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2848,28 +3354,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,28 +3383,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2906,28 +3412,28 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2935,28 +3441,28 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,28 +3470,28 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,28 +3499,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,28 +3528,28 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,28 +3557,28 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3080,28 +3586,28 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3112,28 +3618,28 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,28 +3647,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3170,28 +3676,28 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,28 +3705,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3228,28 +3734,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,28 +3763,28 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3286,28 +3792,28 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,28 +3821,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3344,28 +3850,28 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,28 +3879,28 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3402,28 +3908,28 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3431,28 +3937,28 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,28 +3966,28 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3489,28 +3995,28 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3518,28 +4024,28 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3547,28 +4053,28 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3576,28 +4082,28 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,28 +4111,28 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3634,28 +4140,28 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3663,28 +4169,28 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3695,28 +4201,28 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3724,16 +4230,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,16 +4247,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3758,16 +4264,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3775,16 +4281,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,16 +4298,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3809,16 +4315,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,16 +4332,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,16 +4349,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,16 +4366,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,16 +4383,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,16 +4400,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,16 +4417,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,16 +4434,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,16 +4451,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,16 +4468,16 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,16 +4488,16 @@
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,16 +4505,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,16 +4522,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4033,16 +4539,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4050,16 +4556,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4067,16 +4573,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,16 +4590,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,16 +4607,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,16 +4624,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,16 +4641,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,16 +4658,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,16 +4675,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,16 +4692,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,16 +4709,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,16 +4726,16 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,16 +4743,16 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4257,16 +4763,16 @@
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,10 +4783,10 @@
         <v>65</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,10 +4794,10 @@
         <v>66</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4299,10 +4805,10 @@
         <v>67</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4310,10 +4816,10 @@
         <v>68</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4321,10 +4827,10 @@
         <v>69</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,10 +4838,10 @@
         <v>70</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4343,10 +4849,10 @@
         <v>71</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4354,10 +4860,10 @@
         <v>72</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,10 +4871,10 @@
         <v>73</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,10 +4882,10 @@
         <v>74</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4387,10 +4893,10 @@
         <v>75</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,10 +4904,10 @@
         <v>76</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4409,10 +4915,10 @@
         <v>77</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4420,10 +4926,10 @@
         <v>78</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4431,10 +4937,10 @@
         <v>79</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4442,10 +4948,10 @@
         <v>80</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4453,10 +4959,10 @@
         <v>81</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,10 +4970,10 @@
         <v>82</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4475,10 +4981,10 @@
         <v>83</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4486,10 +4992,10 @@
         <v>84</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4497,10 +5003,10 @@
         <v>85</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4508,10 +5014,10 @@
         <v>86</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,10 +5025,10 @@
         <v>87</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4530,10 +5036,10 @@
         <v>88</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4541,10 +5047,10 @@
         <v>89</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,10 +5058,10 @@
         <v>90</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4563,10 +5069,10 @@
         <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4574,10 +5080,10 @@
         <v>92</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,10 +5091,10 @@
         <v>93</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4596,10 +5102,10 @@
         <v>94</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,10 +5116,10 @@
         <v>95</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,10 +5130,10 @@
         <v>96</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,10 +5141,10 @@
         <v>97</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4646,10 +5152,10 @@
         <v>98</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4657,10 +5163,10 @@
         <v>99</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4668,10 +5174,10 @@
         <v>100</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4679,10 +5185,10 @@
         <v>101</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4690,10 +5196,10 @@
         <v>102</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4701,10 +5207,10 @@
         <v>103</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,10 +5218,10 @@
         <v>104</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4723,10 +5229,10 @@
         <v>105</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4734,10 +5240,10 @@
         <v>106</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4745,10 +5251,10 @@
         <v>107</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,10 +5262,10 @@
         <v>108</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4767,10 +5273,10 @@
         <v>109</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,10 +5284,10 @@
         <v>110</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4789,10 +5295,10 @@
         <v>111</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,10 +5306,10 @@
         <v>112</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4811,10 +5317,10 @@
         <v>113</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,10 +5328,10 @@
         <v>114</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4833,10 +5339,10 @@
         <v>115</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4844,10 +5350,10 @@
         <v>116</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4855,10 +5361,10 @@
         <v>117</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4866,10 +5372,10 @@
         <v>118</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4877,10 +5383,10 @@
         <v>119</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4888,10 +5394,10 @@
         <v>120</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4899,10 +5405,10 @@
         <v>121</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4910,10 +5416,10 @@
         <v>122</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4921,10 +5427,10 @@
         <v>123</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4932,10 +5438,10 @@
         <v>124</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4943,10 +5449,10 @@
         <v>125</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,10 +5460,10 @@
         <v>126</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4965,10 +5471,10 @@
         <v>127</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,10 +5485,10 @@
         <v>128</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -5004,7 +5510,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H18:H19 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H2:H129 B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1181" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="87">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -393,7 +393,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -403,10 +403,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -587,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H129"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,31 +592,31 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="XFA1" s="1"/>
@@ -632,19 +628,19 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -652,19 +648,19 @@
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -672,19 +668,19 @@
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -692,19 +688,19 @@
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -712,19 +708,19 @@
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -732,19 +728,19 @@
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -752,19 +748,19 @@
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -772,19 +768,19 @@
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="3" t="s">
+      <c r="G9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -792,19 +788,19 @@
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -812,19 +808,19 @@
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="G11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -832,19 +828,19 @@
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
+      <c r="G12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -852,19 +848,19 @@
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="3" t="s">
+      <c r="G13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -872,19 +868,19 @@
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -892,19 +888,19 @@
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -912,19 +908,19 @@
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -932,19 +928,19 @@
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G17" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -952,19 +948,19 @@
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -972,19 +968,19 @@
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -992,19 +988,19 @@
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="3" t="s">
+      <c r="G20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1012,19 +1008,19 @@
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="3" t="s">
+      <c r="G21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1032,19 +1028,19 @@
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
+      <c r="G22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1052,19 +1048,19 @@
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="3" t="s">
+      <c r="G23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1072,19 +1068,19 @@
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1092,19 +1088,19 @@
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1112,19 +1108,19 @@
       <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1132,19 +1128,19 @@
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="3" t="s">
+      <c r="G27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1152,19 +1148,19 @@
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G28" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="3" t="s">
+      <c r="G28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1172,19 +1168,19 @@
       <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1192,19 +1188,19 @@
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G30" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="3" t="s">
+      <c r="G30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1212,19 +1208,19 @@
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G31" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1232,19 +1228,19 @@
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="3" t="s">
+      <c r="G32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1252,19 +1248,19 @@
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="3" t="s">
+      <c r="G33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1272,19 +1268,19 @@
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G34" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="3" t="s">
+      <c r="G34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H34" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1292,19 +1288,19 @@
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1312,19 +1308,19 @@
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G36" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1332,19 +1328,19 @@
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G37" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="G37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1352,19 +1348,19 @@
       <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G38" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="3" t="s">
+      <c r="G38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1372,19 +1368,19 @@
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G39" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="3" t="s">
+      <c r="G39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H39" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1392,19 +1388,19 @@
       <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="3" t="s">
+      <c r="G40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H40" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1412,19 +1408,19 @@
       <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G41" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="3" t="s">
+      <c r="G41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H41" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1432,19 +1428,19 @@
       <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="3" t="s">
+      <c r="G42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1452,19 +1448,19 @@
       <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G43" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1472,19 +1468,19 @@
       <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1492,19 +1488,19 @@
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G45" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1512,19 +1508,19 @@
       <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G46" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1532,19 +1528,19 @@
       <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1552,19 +1548,19 @@
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C48" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="3" t="s">
+      <c r="G48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1572,19 +1568,19 @@
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="B49" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="6" t="s">
         <v>59</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G49" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="3" t="s">
+      <c r="G49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1595,18 +1591,13 @@
       <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G50" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -1615,18 +1606,13 @@
       <c r="B51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -1635,18 +1621,13 @@
       <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -1655,18 +1636,13 @@
       <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G53" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -1675,18 +1651,13 @@
       <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G54" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -1695,18 +1666,13 @@
       <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -1715,18 +1681,13 @@
       <c r="B56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G56" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
@@ -1735,18 +1696,13 @@
       <c r="B57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G57" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -1755,18 +1711,13 @@
       <c r="B58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G58" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -1775,18 +1726,13 @@
       <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -1795,18 +1741,13 @@
       <c r="B60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G60" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -1815,18 +1756,13 @@
       <c r="B61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G61" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -1835,18 +1771,13 @@
       <c r="B62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G62" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
@@ -1855,18 +1786,13 @@
       <c r="B63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G63" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
@@ -1875,18 +1801,13 @@
       <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G64" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H64" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
@@ -1895,18 +1816,13 @@
       <c r="B65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G65" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -1915,18 +1831,13 @@
       <c r="B66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="7" t="s">
+      <c r="C66" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G66" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
@@ -1935,18 +1846,13 @@
       <c r="B67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="C67" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G67" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
@@ -1955,18 +1861,13 @@
       <c r="B68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C68" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
@@ -1975,18 +1876,13 @@
       <c r="B69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G69" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
@@ -1995,18 +1891,13 @@
       <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C70" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G70" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H70" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
@@ -2015,18 +1906,13 @@
       <c r="B71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="C71" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G71" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
@@ -2035,18 +1921,13 @@
       <c r="B72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G72" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
@@ -2055,18 +1936,13 @@
       <c r="B73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G73" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H73" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
@@ -2075,18 +1951,13 @@
       <c r="B74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G74" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
@@ -2095,18 +1966,13 @@
       <c r="B75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="C75" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G75" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
@@ -2115,18 +1981,13 @@
       <c r="B76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G76" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
@@ -2135,18 +1996,13 @@
       <c r="B77" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
@@ -2155,18 +2011,13 @@
       <c r="B78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G78" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H78" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
@@ -2175,18 +2026,13 @@
       <c r="B79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G79" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H79" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
@@ -2195,18 +2041,13 @@
       <c r="B80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G80" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
@@ -2215,18 +2056,13 @@
       <c r="B81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G81" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
@@ -2235,18 +2071,13 @@
       <c r="B82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C82" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G82" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
@@ -2255,18 +2086,13 @@
       <c r="B83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G83" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
@@ -2275,18 +2101,13 @@
       <c r="B84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G84" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
@@ -2295,18 +2116,13 @@
       <c r="B85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
@@ -2315,18 +2131,13 @@
       <c r="B86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G86" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
@@ -2335,18 +2146,13 @@
       <c r="B87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
@@ -2355,18 +2161,13 @@
       <c r="B88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G88" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
@@ -2375,18 +2176,13 @@
       <c r="B89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G89" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
@@ -2395,18 +2191,13 @@
       <c r="B90" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G90" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H90" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
@@ -2415,18 +2206,13 @@
       <c r="B91" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
@@ -2435,18 +2221,13 @@
       <c r="B92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G92" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H92" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
@@ -2455,18 +2236,13 @@
       <c r="B93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G93" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
@@ -2475,18 +2251,13 @@
       <c r="B94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G94" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
@@ -2495,18 +2266,13 @@
       <c r="B95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G95" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H95" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
@@ -2515,18 +2281,13 @@
       <c r="B96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G96" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
@@ -2535,18 +2296,13 @@
       <c r="B97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G97" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
@@ -2555,18 +2311,13 @@
       <c r="B98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C98" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G98" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H98" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
@@ -2575,18 +2326,13 @@
       <c r="B99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="C99" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G99" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
@@ -2595,18 +2341,13 @@
       <c r="B100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="7" t="s">
+      <c r="C100" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
@@ -2615,18 +2356,13 @@
       <c r="B101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C101" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G101" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
@@ -2635,18 +2371,13 @@
       <c r="B102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G102" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
@@ -2655,18 +2386,13 @@
       <c r="B103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G103" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
@@ -2675,18 +2401,13 @@
       <c r="B104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G104" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
@@ -2695,18 +2416,13 @@
       <c r="B105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G105" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
@@ -2715,18 +2431,13 @@
       <c r="B106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G106" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
@@ -2735,18 +2446,13 @@
       <c r="B107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G107" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
@@ -2755,18 +2461,13 @@
       <c r="B108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="7" t="s">
+      <c r="C108" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G108" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
@@ -2775,18 +2476,13 @@
       <c r="B109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="7" t="s">
+      <c r="C109" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G109" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
@@ -2795,18 +2491,13 @@
       <c r="B110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
@@ -2815,18 +2506,13 @@
       <c r="B111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="7" t="s">
+      <c r="C111" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G111" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
@@ -2835,18 +2521,13 @@
       <c r="B112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G112" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
@@ -2855,18 +2536,13 @@
       <c r="B113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G113" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
@@ -2875,18 +2551,13 @@
       <c r="B114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G114" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
@@ -2895,18 +2566,13 @@
       <c r="B115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G115" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
@@ -2915,18 +2581,13 @@
       <c r="B116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G116" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
@@ -2935,18 +2596,13 @@
       <c r="B117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G117" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
@@ -2955,18 +2611,13 @@
       <c r="B118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G118" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
@@ -2975,18 +2626,13 @@
       <c r="B119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G119" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H119" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
@@ -2995,18 +2641,13 @@
       <c r="B120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="C120" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G120" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H120" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
@@ -3015,18 +2656,13 @@
       <c r="B121" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G121" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H121" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
@@ -3035,18 +2671,13 @@
       <c r="B122" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G122" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H122" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
@@ -3055,18 +2686,13 @@
       <c r="B123" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G123" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H123" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
@@ -3075,18 +2701,13 @@
       <c r="B124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G124" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H124" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
@@ -3095,18 +2716,13 @@
       <c r="B125" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="7" t="s">
+      <c r="C125" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G125" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H125" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
@@ -3115,18 +2731,13 @@
       <c r="B126" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="7" t="s">
+      <c r="C126" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G126" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
@@ -3135,18 +2746,13 @@
       <c r="B127" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C127" s="7" t="s">
+      <c r="C127" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G127" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
@@ -3155,18 +2761,13 @@
       <c r="B128" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C128" s="7" t="s">
+      <c r="C128" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G128" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
@@ -3175,18 +2776,13 @@
       <c r="B129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="7" t="s">
+      <c r="C129" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G129" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H129" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="G129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
@@ -3242,7 +2838,7 @@
   <dimension ref="A1:M129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="1" sqref="H2:H129 L2"/>
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3257,37 +2853,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="10"/>
+      <c r="F1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="14" t="s">
+      <c r="K1" s="10"/>
+      <c r="L1" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5109,7 +4705,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>79</v>
       </c>
       <c r="B96" s="2" t="n">
@@ -5123,7 +4719,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B97" s="2" t="n">
@@ -5478,7 +5074,7 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="5" t="s">
         <v>81</v>
       </c>
       <c r="B129" s="2" t="n">
@@ -5510,7 +5106,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="H2:H129 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5521,21 +5117,21 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="7" t="n">
+      <c r="B2" s="6" t="n">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -583,8 +583,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G50" activeCellId="0" sqref="G50"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="48V &amp; Pad" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Misc" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="DCAs" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Misc" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="116">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -36,6 +37,18 @@
     <t xml:space="preserve">Mute</t>
   </si>
   <si>
+    <t xml:space="preserve">Gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fader Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPF On</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HPF Value</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recording</t>
   </si>
   <si>
@@ -49,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-inf</t>
   </si>
   <si>
     <t xml:space="preserve">KickOut</t>
@@ -271,6 +287,78 @@
   </si>
   <si>
     <t xml:space="preserve">Slink-DX2 End</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DCA24</t>
   </si>
   <si>
     <t xml:space="preserve">Property</t>
@@ -295,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -325,6 +413,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -393,7 +488,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -448,6 +543,22 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -583,19 +694,20 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.91"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="10.46"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16381" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="2" width="10.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="9.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="10.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,17 +723,25 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="XFA1" s="1"/>
-      <c r="XFB1" s="1"/>
-      <c r="XFC1" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,19 +749,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -649,19 +778,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,19 +807,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -689,19 +836,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -709,19 +865,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -729,19 +894,28 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -749,19 +923,28 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -769,19 +952,28 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -789,19 +981,28 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -809,19 +1010,28 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -829,19 +1039,28 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -849,19 +1068,28 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,19 +1097,28 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -889,19 +1126,28 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -909,19 +1155,28 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -929,19 +1184,28 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -949,19 +1213,28 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -969,19 +1242,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -989,19 +1271,28 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,19 +1300,28 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,19 +1329,28 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1049,19 +1358,28 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,19 +1387,28 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1089,19 +1416,28 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1109,19 +1445,28 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1129,19 +1474,28 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,19 +1503,28 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,19 +1532,28 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1189,19 +1561,28 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1209,19 +1590,28 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1229,19 +1619,28 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1249,19 +1648,28 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,19 +1677,28 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1289,19 +1706,28 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C35" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1309,19 +1735,28 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1329,19 +1764,28 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1349,19 +1793,28 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1369,19 +1822,28 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,19 +1851,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,19 +1880,28 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1429,19 +1909,28 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J42" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1449,19 +1938,28 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J43" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1469,19 +1967,28 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1489,19 +1996,28 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,19 +2025,28 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1529,19 +2054,28 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J47" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1549,19 +2083,28 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,19 +2112,28 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,1200 +2141,1920 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G50" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J50" s="6"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G51" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J51" s="6"/>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G52" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J52" s="6"/>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G53" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J53" s="6"/>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G54" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J54" s="6"/>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G55" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J55" s="6"/>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J56" s="6"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G57" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J57" s="6"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G58" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J58" s="6"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J59" s="6"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J60" s="6"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G61" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J61" s="6"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G62" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J62" s="6"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G63" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J63" s="6"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G64" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J64" s="6"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G65" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J65" s="6"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G66" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J66" s="6"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G67" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J67" s="6"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G68" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J68" s="6"/>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G69" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J69" s="6"/>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G70" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J70" s="6"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G71" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J71" s="6"/>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G72" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J72" s="6"/>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G73" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J73" s="6"/>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G74" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J74" s="6"/>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J75" s="6"/>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G76" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J76" s="6"/>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G77" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J77" s="6"/>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G78" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J78" s="6"/>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J79" s="6"/>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G80" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J80" s="6"/>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G81" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J81" s="6"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G82" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J82" s="6"/>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G83" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J83" s="6"/>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G84" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J84" s="6"/>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J85" s="6"/>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G86" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J86" s="6"/>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G87" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J87" s="6"/>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G88" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J88" s="6"/>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G89" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J89" s="6"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J90" s="6"/>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G91" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J91" s="6"/>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G92" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J92" s="6"/>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G93" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J93" s="6"/>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G94" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J94" s="6"/>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G95" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J95" s="6"/>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G96" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J96" s="6"/>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G97" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J97" s="6"/>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G98" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J98" s="6"/>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G99" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J99" s="6"/>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G100" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J100" s="6"/>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G101" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J101" s="6"/>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G102" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J102" s="6"/>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G103" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J103" s="6"/>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J104" s="6"/>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G105" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J105" s="6"/>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G106" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J106" s="6"/>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G107" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J107" s="6"/>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G108" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J108" s="6"/>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G109" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J109" s="6"/>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G110" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J110" s="6"/>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G111" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J111" s="6"/>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G112" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J112" s="6"/>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G113" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J113" s="6"/>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G114" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J114" s="6"/>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G115" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J115" s="6"/>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G116" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J116" s="6"/>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G117" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J117" s="6"/>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G118" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J118" s="6"/>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G119" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J119" s="6"/>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G120" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J120" s="6"/>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G121" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J121" s="6"/>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G122" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J122" s="6"/>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G123" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J123" s="6"/>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G124" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F124" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J124" s="6"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G125" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G125" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J125" s="6"/>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G126" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J126" s="6"/>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G127" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J127" s="6"/>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G128" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J128" s="6"/>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G129" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J129" s="6"/>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
@@ -2791,7 +4063,7 @@
       <c r="A131" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576 G1:G1048576">
+  <conditionalFormatting sqref="C1:C1048576 J1:J1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"purple"</formula>
     </cfRule>
@@ -2814,9 +4086,13 @@
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C129" type="list">
       <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F129" type="list">
+      <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-inf"</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
@@ -2837,7 +4113,7 @@
   </sheetPr>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
@@ -2854,37 +4130,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="K1" s="10"/>
       <c r="L1" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2892,28 +4168,28 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,28 +4197,28 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,28 +4226,28 @@
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2979,28 +4255,28 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,28 +4284,28 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,28 +4313,28 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3066,28 +4342,28 @@
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3095,28 +4371,28 @@
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3124,28 +4400,28 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3153,28 +4429,28 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3182,60 +4458,60 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,28 +4519,28 @@
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,28 +4548,28 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,28 +4577,28 @@
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,28 +4606,28 @@
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,28 +4635,28 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,28 +4664,28 @@
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,28 +4693,28 @@
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,28 +4722,28 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,28 +4751,28 @@
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,28 +4780,28 @@
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,28 +4809,28 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,28 +4838,28 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,28 +4867,28 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,28 +4896,28 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,28 +4925,28 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,28 +4954,28 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,28 +4983,28 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,28 +5012,28 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,60 +5041,60 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3826,16 +5102,16 @@
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,16 +5119,16 @@
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3860,16 +5136,16 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,16 +5153,16 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3894,16 +5170,16 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3911,16 +5187,16 @@
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,16 +5204,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3945,16 +5221,16 @@
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3962,16 +5238,16 @@
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3979,16 +5255,16 @@
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3996,16 +5272,16 @@
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4013,16 +5289,16 @@
         <v>44</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4030,16 +5306,16 @@
         <v>45</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4047,16 +5323,16 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,36 +5340,36 @@
         <v>47</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4101,16 +5377,16 @@
         <v>49</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4118,16 +5394,16 @@
         <v>50</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4135,16 +5411,16 @@
         <v>51</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,16 +5428,16 @@
         <v>52</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4169,16 +5445,16 @@
         <v>53</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4186,16 +5462,16 @@
         <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4203,16 +5479,16 @@
         <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4220,16 +5496,16 @@
         <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4237,16 +5513,16 @@
         <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4254,16 +5530,16 @@
         <v>58</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4271,16 +5547,16 @@
         <v>59</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,16 +5564,16 @@
         <v>60</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4305,16 +5581,16 @@
         <v>61</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4322,16 +5598,16 @@
         <v>62</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4339,50 +5615,50 @@
         <v>63</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>65</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4390,10 +5666,10 @@
         <v>66</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4401,10 +5677,10 @@
         <v>67</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4412,10 +5688,10 @@
         <v>68</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4423,10 +5699,10 @@
         <v>69</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4434,10 +5710,10 @@
         <v>70</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,10 +5721,10 @@
         <v>71</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4456,10 +5732,10 @@
         <v>72</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4467,10 +5743,10 @@
         <v>73</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4478,10 +5754,10 @@
         <v>74</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4489,10 +5765,10 @@
         <v>75</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4500,10 +5776,10 @@
         <v>76</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4511,10 +5787,10 @@
         <v>77</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4522,10 +5798,10 @@
         <v>78</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,10 +5809,10 @@
         <v>79</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,10 +5820,10 @@
         <v>80</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4555,10 +5831,10 @@
         <v>81</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4566,10 +5842,10 @@
         <v>82</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,10 +5853,10 @@
         <v>83</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4588,10 +5864,10 @@
         <v>84</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4599,10 +5875,10 @@
         <v>85</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4610,10 +5886,10 @@
         <v>86</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4621,10 +5897,10 @@
         <v>87</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,10 +5908,10 @@
         <v>88</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4643,10 +5919,10 @@
         <v>89</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,10 +5930,10 @@
         <v>90</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,10 +5941,10 @@
         <v>91</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,10 +5952,10 @@
         <v>92</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4687,10 +5963,10 @@
         <v>93</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,38 +5974,38 @@
         <v>94</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>95</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="5" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4737,10 +6013,10 @@
         <v>97</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4748,10 +6024,10 @@
         <v>98</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4759,10 +6035,10 @@
         <v>99</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,10 +6046,10 @@
         <v>100</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4781,10 +6057,10 @@
         <v>101</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,10 +6068,10 @@
         <v>102</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4803,10 +6079,10 @@
         <v>103</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M104" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,10 +6090,10 @@
         <v>104</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4825,10 +6101,10 @@
         <v>105</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4836,10 +6112,10 @@
         <v>106</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4847,10 +6123,10 @@
         <v>107</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M108" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,10 +6134,10 @@
         <v>108</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M109" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4869,10 +6145,10 @@
         <v>109</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,10 +6156,10 @@
         <v>110</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4891,10 +6167,10 @@
         <v>111</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M112" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,10 +6178,10 @@
         <v>112</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M113" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,10 +6189,10 @@
         <v>113</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4924,10 +6200,10 @@
         <v>114</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M115" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4935,10 +6211,10 @@
         <v>115</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4946,10 +6222,10 @@
         <v>116</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4957,10 +6233,10 @@
         <v>117</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,10 +6244,10 @@
         <v>118</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M119" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4979,10 +6255,10 @@
         <v>119</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M120" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4990,10 +6266,10 @@
         <v>120</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M121" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5001,10 +6277,10 @@
         <v>121</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5012,10 +6288,10 @@
         <v>122</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M123" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5023,10 +6299,10 @@
         <v>123</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,10 +6310,10 @@
         <v>124</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5045,10 +6321,10 @@
         <v>125</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,10 +6332,10 @@
         <v>126</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,24 +6343,24 @@
         <v>127</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M128" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>128</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M129" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5103,10 +6379,1398 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:Z129"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="0" width="4.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="40.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q1" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="R1" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="W1" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="X1" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y1" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z1" s="17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14" t="n">
+        <f aca="false">Channels!A2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="str">
+        <f aca="false">Channels!B2</f>
+        <v>KickIn</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="14" t="n">
+        <f aca="false">Channels!A3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="str">
+        <f aca="false">Channels!B3</f>
+        <v>KickOut</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="n">
+        <f aca="false">Channels!A4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="str">
+        <f aca="false">Channels!B4</f>
+        <v>SnTop</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="14" t="n">
+        <f aca="false">Channels!A5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="str">
+        <f aca="false">Channels!B5</f>
+        <v>SnBot</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="n">
+        <f aca="false">Channels!A6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="str">
+        <f aca="false">Channels!B6</f>
+        <v>Hat</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="14" t="n">
+        <f aca="false">Channels!A7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="str">
+        <f aca="false">Channels!B7</f>
+        <v>Rack1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="14" t="n">
+        <f aca="false">Channels!A8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="str">
+        <f aca="false">Channels!B8</f>
+        <v>Rack2</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="14" t="n">
+        <f aca="false">Channels!A9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="str">
+        <f aca="false">Channels!B9</f>
+        <v>Floor1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="14" t="n">
+        <f aca="false">Channels!A10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="str">
+        <f aca="false">Channels!B10</f>
+        <v>Floor2</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="14" t="n">
+        <f aca="false">Channels!A11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="str">
+        <f aca="false">Channels!B11</f>
+        <v>Ride</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="14" t="n">
+        <f aca="false">Channels!A12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="str">
+        <f aca="false">Channels!B12</f>
+        <v>OH L</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="14" t="n">
+        <f aca="false">Channels!A13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="str">
+        <f aca="false">Channels!B13</f>
+        <v>OH R</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="14" t="n">
+        <f aca="false">Channels!A14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="str">
+        <f aca="false">Channels!B14</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="14" t="n">
+        <f aca="false">Channels!A15</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="str">
+        <f aca="false">Channels!B15</f>
+        <v>Cajon</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="14" t="n">
+        <f aca="false">Channels!A16</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="str">
+        <f aca="false">Channels!B16</f>
+        <v>RoomL</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="n">
+        <f aca="false">Channels!A17</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="str">
+        <f aca="false">Channels!B17</f>
+        <v>RoomR</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="14" t="n">
+        <f aca="false">Channels!A18</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="str">
+        <f aca="false">Channels!B18</f>
+        <v>BassDI</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="14" t="n">
+        <f aca="false">Channels!A19</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="str">
+        <f aca="false">Channels!B19</f>
+        <v>BassMi</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="14" t="n">
+        <f aca="false">Channels!A20</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="str">
+        <f aca="false">Channels!B20</f>
+        <v>EGit1L</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="14" t="n">
+        <f aca="false">Channels!A21</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="str">
+        <f aca="false">Channels!B21</f>
+        <v>EGit1R</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="n">
+        <f aca="false">Channels!A22</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="str">
+        <f aca="false">Channels!B22</f>
+        <v>EGit2L</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="14" t="n">
+        <f aca="false">Channels!A23</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="str">
+        <f aca="false">Channels!B23</f>
+        <v>EGit2R</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="14" t="n">
+        <f aca="false">Channels!A24</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="str">
+        <f aca="false">Channels!B24</f>
+        <v>EGit3L</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="14" t="n">
+        <f aca="false">Channels!A25</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="str">
+        <f aca="false">Channels!B25</f>
+        <v>EGit3R</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="14" t="n">
+        <f aca="false">Channels!A26</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="str">
+        <f aca="false">Channels!B26</f>
+        <v>Accu1L</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="14" t="n">
+        <f aca="false">Channels!A27</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="str">
+        <f aca="false">Channels!B27</f>
+        <v>Accu1R</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="n">
+        <f aca="false">Channels!A28</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="str">
+        <f aca="false">Channels!B28</f>
+        <v>Accu2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="n">
+        <f aca="false">Channels!A29</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="str">
+        <f aca="false">Channels!B29</f>
+        <v>Accu3</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="14" t="n">
+        <f aca="false">Channels!A30</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="str">
+        <f aca="false">Channels!B30</f>
+        <v>Key1L</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="14" t="n">
+        <f aca="false">Channels!A31</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="str">
+        <f aca="false">Channels!B31</f>
+        <v>Key1R</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="14" t="n">
+        <f aca="false">Channels!A32</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="str">
+        <f aca="false">Channels!B32</f>
+        <v>Key2L</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="n">
+        <f aca="false">Channels!A33</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="str">
+        <f aca="false">Channels!B33</f>
+        <v>Key2R</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="14" t="n">
+        <f aca="false">Channels!A34</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="str">
+        <f aca="false">Channels!B34</f>
+        <v>Key3L</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="14" t="n">
+        <f aca="false">Channels!A35</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="str">
+        <f aca="false">Channels!B35</f>
+        <v>Key3R</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="14" t="n">
+        <f aca="false">Channels!A36</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="str">
+        <f aca="false">Channels!B36</f>
+        <v>Key4L</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="14" t="n">
+        <f aca="false">Channels!A37</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="str">
+        <f aca="false">Channels!B37</f>
+        <v>Key4R</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="14" t="n">
+        <f aca="false">Channels!A38</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="str">
+        <f aca="false">Channels!B38</f>
+        <v>Divrs1</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="14" t="n">
+        <f aca="false">Channels!A39</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="str">
+        <f aca="false">Channels!B39</f>
+        <v>Divrs2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="14" t="n">
+        <f aca="false">Channels!A40</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="str">
+        <f aca="false">Channels!B40</f>
+        <v>Divrs3</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14" t="n">
+        <f aca="false">Channels!A41</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="str">
+        <f aca="false">Channels!B41</f>
+        <v>Divrs4</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="14" t="n">
+        <f aca="false">Channels!A42</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="str">
+        <f aca="false">Channels!B42</f>
+        <v>Lead1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="14" t="n">
+        <f aca="false">Channels!A43</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="str">
+        <f aca="false">Channels!B43</f>
+        <v>Lead2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="14" t="n">
+        <f aca="false">Channels!A44</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="str">
+        <f aca="false">Channels!B44</f>
+        <v>Lead3</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="14" t="n">
+        <f aca="false">Channels!A45</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="str">
+        <f aca="false">Channels!B45</f>
+        <v>Lead4</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="14" t="n">
+        <f aca="false">Channels!A46</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="str">
+        <f aca="false">Channels!B46</f>
+        <v>BV1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="14" t="n">
+        <f aca="false">Channels!A47</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="str">
+        <f aca="false">Channels!B47</f>
+        <v>BV2</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="14" t="n">
+        <f aca="false">Channels!A48</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="str">
+        <f aca="false">Channels!B48</f>
+        <v>BV3</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="14" t="n">
+        <f aca="false">Channels!A49</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="str">
+        <f aca="false">Channels!B49</f>
+        <v>BV4</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="14" t="n">
+        <f aca="false">Channels!A50</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="str">
+        <f aca="false">Channels!B50</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="14" t="n">
+        <f aca="false">Channels!A51</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="str">
+        <f aca="false">Channels!B51</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="14" t="n">
+        <f aca="false">Channels!A52</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="str">
+        <f aca="false">Channels!B52</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="14" t="n">
+        <f aca="false">Channels!A53</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="str">
+        <f aca="false">Channels!B53</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="14" t="n">
+        <f aca="false">Channels!A54</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="str">
+        <f aca="false">Channels!B54</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="14" t="n">
+        <f aca="false">Channels!A55</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="str">
+        <f aca="false">Channels!B55</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="14" t="n">
+        <f aca="false">Channels!A56</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="str">
+        <f aca="false">Channels!B56</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="14" t="n">
+        <f aca="false">Channels!A57</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="str">
+        <f aca="false">Channels!B57</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="14" t="n">
+        <f aca="false">Channels!A58</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="str">
+        <f aca="false">Channels!B58</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="14" t="n">
+        <f aca="false">Channels!A59</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="str">
+        <f aca="false">Channels!B59</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="14" t="n">
+        <f aca="false">Channels!A60</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="str">
+        <f aca="false">Channels!B60</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="14" t="n">
+        <f aca="false">Channels!A61</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="str">
+        <f aca="false">Channels!B61</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="14" t="n">
+        <f aca="false">Channels!A62</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="str">
+        <f aca="false">Channels!B62</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="14" t="n">
+        <f aca="false">Channels!A63</f>
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="str">
+        <f aca="false">Channels!B63</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="14" t="n">
+        <f aca="false">Channels!A64</f>
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="str">
+        <f aca="false">Channels!B64</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="14" t="n">
+        <f aca="false">Channels!A65</f>
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="str">
+        <f aca="false">Channels!B65</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="14" t="n">
+        <f aca="false">Channels!A66</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="str">
+        <f aca="false">Channels!B66</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="14" t="n">
+        <f aca="false">Channels!A67</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="0" t="str">
+        <f aca="false">Channels!B67</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="14" t="n">
+        <f aca="false">Channels!A68</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="0" t="str">
+        <f aca="false">Channels!B68</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="14" t="n">
+        <f aca="false">Channels!A69</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="0" t="str">
+        <f aca="false">Channels!B69</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="14" t="n">
+        <f aca="false">Channels!A70</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="0" t="str">
+        <f aca="false">Channels!B70</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="14" t="n">
+        <f aca="false">Channels!A71</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="0" t="str">
+        <f aca="false">Channels!B71</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="14" t="n">
+        <f aca="false">Channels!A72</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="0" t="str">
+        <f aca="false">Channels!B72</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="14" t="n">
+        <f aca="false">Channels!A73</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="0" t="str">
+        <f aca="false">Channels!B73</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="14" t="n">
+        <f aca="false">Channels!A74</f>
+        <v>73</v>
+      </c>
+      <c r="B74" s="0" t="str">
+        <f aca="false">Channels!B74</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="14" t="n">
+        <f aca="false">Channels!A75</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="0" t="str">
+        <f aca="false">Channels!B75</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="14" t="n">
+        <f aca="false">Channels!A76</f>
+        <v>75</v>
+      </c>
+      <c r="B76" s="0" t="str">
+        <f aca="false">Channels!B76</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="14" t="n">
+        <f aca="false">Channels!A77</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="0" t="str">
+        <f aca="false">Channels!B77</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="14" t="n">
+        <f aca="false">Channels!A78</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="str">
+        <f aca="false">Channels!B78</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="14" t="n">
+        <f aca="false">Channels!A79</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="0" t="str">
+        <f aca="false">Channels!B79</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="14" t="n">
+        <f aca="false">Channels!A80</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="0" t="str">
+        <f aca="false">Channels!B80</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="14" t="n">
+        <f aca="false">Channels!A81</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="0" t="str">
+        <f aca="false">Channels!B81</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="14" t="n">
+        <f aca="false">Channels!A82</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="0" t="str">
+        <f aca="false">Channels!B82</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="14" t="n">
+        <f aca="false">Channels!A83</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="0" t="str">
+        <f aca="false">Channels!B83</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="14" t="n">
+        <f aca="false">Channels!A84</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="0" t="str">
+        <f aca="false">Channels!B84</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="14" t="n">
+        <f aca="false">Channels!A85</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="0" t="str">
+        <f aca="false">Channels!B85</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="14" t="n">
+        <f aca="false">Channels!A86</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="0" t="str">
+        <f aca="false">Channels!B86</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="14" t="n">
+        <f aca="false">Channels!A87</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="0" t="str">
+        <f aca="false">Channels!B87</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="14" t="n">
+        <f aca="false">Channels!A88</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="0" t="str">
+        <f aca="false">Channels!B88</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="14" t="n">
+        <f aca="false">Channels!A89</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="0" t="str">
+        <f aca="false">Channels!B89</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="14" t="n">
+        <f aca="false">Channels!A90</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="0" t="str">
+        <f aca="false">Channels!B90</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="14" t="n">
+        <f aca="false">Channels!A91</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="0" t="str">
+        <f aca="false">Channels!B91</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="14" t="n">
+        <f aca="false">Channels!A92</f>
+        <v>91</v>
+      </c>
+      <c r="B92" s="0" t="str">
+        <f aca="false">Channels!B92</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="14" t="n">
+        <f aca="false">Channels!A93</f>
+        <v>92</v>
+      </c>
+      <c r="B93" s="0" t="str">
+        <f aca="false">Channels!B93</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="14" t="n">
+        <f aca="false">Channels!A94</f>
+        <v>93</v>
+      </c>
+      <c r="B94" s="0" t="str">
+        <f aca="false">Channels!B94</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="14" t="n">
+        <f aca="false">Channels!A95</f>
+        <v>94</v>
+      </c>
+      <c r="B95" s="0" t="str">
+        <f aca="false">Channels!B95</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="14" t="n">
+        <f aca="false">Channels!A96</f>
+        <v>95</v>
+      </c>
+      <c r="B96" s="0" t="str">
+        <f aca="false">Channels!B96</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="14" t="n">
+        <f aca="false">Channels!A97</f>
+        <v>96</v>
+      </c>
+      <c r="B97" s="0" t="str">
+        <f aca="false">Channels!B97</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="14" t="n">
+        <f aca="false">Channels!A98</f>
+        <v>97</v>
+      </c>
+      <c r="B98" s="0" t="str">
+        <f aca="false">Channels!B98</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="14" t="n">
+        <f aca="false">Channels!A99</f>
+        <v>98</v>
+      </c>
+      <c r="B99" s="0" t="str">
+        <f aca="false">Channels!B99</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="14" t="n">
+        <f aca="false">Channels!A100</f>
+        <v>99</v>
+      </c>
+      <c r="B100" s="0" t="str">
+        <f aca="false">Channels!B100</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="14" t="n">
+        <f aca="false">Channels!A101</f>
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="str">
+        <f aca="false">Channels!B101</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="14" t="n">
+        <f aca="false">Channels!A102</f>
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="str">
+        <f aca="false">Channels!B102</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="14" t="n">
+        <f aca="false">Channels!A103</f>
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="str">
+        <f aca="false">Channels!B103</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="14" t="n">
+        <f aca="false">Channels!A104</f>
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="str">
+        <f aca="false">Channels!B104</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="14" t="n">
+        <f aca="false">Channels!A105</f>
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="str">
+        <f aca="false">Channels!B105</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="14" t="n">
+        <f aca="false">Channels!A106</f>
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="str">
+        <f aca="false">Channels!B106</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="14" t="n">
+        <f aca="false">Channels!A107</f>
+        <v>106</v>
+      </c>
+      <c r="B107" s="0" t="str">
+        <f aca="false">Channels!B107</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="14" t="n">
+        <f aca="false">Channels!A108</f>
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="str">
+        <f aca="false">Channels!B108</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="14" t="n">
+        <f aca="false">Channels!A109</f>
+        <v>108</v>
+      </c>
+      <c r="B109" s="0" t="str">
+        <f aca="false">Channels!B109</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="14" t="n">
+        <f aca="false">Channels!A110</f>
+        <v>109</v>
+      </c>
+      <c r="B110" s="0" t="str">
+        <f aca="false">Channels!B110</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="14" t="n">
+        <f aca="false">Channels!A111</f>
+        <v>110</v>
+      </c>
+      <c r="B111" s="0" t="str">
+        <f aca="false">Channels!B111</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="14" t="n">
+        <f aca="false">Channels!A112</f>
+        <v>111</v>
+      </c>
+      <c r="B112" s="0" t="str">
+        <f aca="false">Channels!B112</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="14" t="n">
+        <f aca="false">Channels!A113</f>
+        <v>112</v>
+      </c>
+      <c r="B113" s="0" t="str">
+        <f aca="false">Channels!B113</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="14" t="n">
+        <f aca="false">Channels!A114</f>
+        <v>113</v>
+      </c>
+      <c r="B114" s="0" t="str">
+        <f aca="false">Channels!B114</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="14" t="n">
+        <f aca="false">Channels!A115</f>
+        <v>114</v>
+      </c>
+      <c r="B115" s="0" t="str">
+        <f aca="false">Channels!B115</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="14" t="n">
+        <f aca="false">Channels!A116</f>
+        <v>115</v>
+      </c>
+      <c r="B116" s="0" t="str">
+        <f aca="false">Channels!B116</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="14" t="n">
+        <f aca="false">Channels!A117</f>
+        <v>116</v>
+      </c>
+      <c r="B117" s="0" t="str">
+        <f aca="false">Channels!B117</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="14" t="n">
+        <f aca="false">Channels!A118</f>
+        <v>117</v>
+      </c>
+      <c r="B118" s="0" t="str">
+        <f aca="false">Channels!B118</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="14" t="n">
+        <f aca="false">Channels!A119</f>
+        <v>118</v>
+      </c>
+      <c r="B119" s="0" t="str">
+        <f aca="false">Channels!B119</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="14" t="n">
+        <f aca="false">Channels!A120</f>
+        <v>119</v>
+      </c>
+      <c r="B120" s="0" t="str">
+        <f aca="false">Channels!B120</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="14" t="n">
+        <f aca="false">Channels!A121</f>
+        <v>120</v>
+      </c>
+      <c r="B121" s="0" t="str">
+        <f aca="false">Channels!B121</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="14" t="n">
+        <f aca="false">Channels!A122</f>
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="str">
+        <f aca="false">Channels!B122</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="14" t="n">
+        <f aca="false">Channels!A123</f>
+        <v>122</v>
+      </c>
+      <c r="B123" s="0" t="str">
+        <f aca="false">Channels!B123</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="14" t="n">
+        <f aca="false">Channels!A124</f>
+        <v>123</v>
+      </c>
+      <c r="B124" s="0" t="str">
+        <f aca="false">Channels!B124</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="14" t="n">
+        <f aca="false">Channels!A125</f>
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="str">
+        <f aca="false">Channels!B125</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="14" t="n">
+        <f aca="false">Channels!A126</f>
+        <v>125</v>
+      </c>
+      <c r="B126" s="0" t="str">
+        <f aca="false">Channels!B126</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="14" t="n">
+        <f aca="false">Channels!A127</f>
+        <v>126</v>
+      </c>
+      <c r="B127" s="0" t="str">
+        <f aca="false">Channels!B127</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="14" t="n">
+        <f aca="false">Channels!A128</f>
+        <v>127</v>
+      </c>
+      <c r="B128" s="0" t="str">
+        <f aca="false">Channels!B128</f>
+        <v>empty</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="14" t="n">
+        <f aca="false">Channels!A129</f>
+        <v>128</v>
+      </c>
+      <c r="B129" s="0" t="str">
+        <f aca="false">Channels!B129</f>
+        <v>empty</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5118,24 +7782,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>83</v>
+        <v>112</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>84</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="B2" s="6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -693,8 +693,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16383" min="16383" style="0" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -726,7 +725,7 @@
       <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="XFC1" s="0"/>
+      <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -680,8 +680,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7146,8 +7146,8 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7156,7 +7156,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="1" width="4.25"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="40.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="37.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1310" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="120">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -368,6 +368,9 @@
   </si>
   <si>
     <t xml:space="preserve">DCA24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
   </si>
   <si>
     <t xml:space="preserve">Property</t>
@@ -681,7 +684,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -748,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>11</v>
@@ -777,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>11</v>
@@ -806,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>11</v>
@@ -835,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>11</v>
@@ -864,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>11</v>
@@ -893,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>11</v>
@@ -922,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>11</v>
@@ -951,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -980,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
@@ -1009,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>11</v>
@@ -1038,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>11</v>
@@ -1067,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>11</v>
@@ -1096,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>11</v>
@@ -1125,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>11</v>
@@ -1154,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>11</v>
@@ -1183,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>11</v>
@@ -1212,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>11</v>
@@ -1241,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>11</v>
@@ -1270,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>11</v>
@@ -1299,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>11</v>
@@ -1328,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>11</v>
@@ -1357,7 +1360,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>11</v>
@@ -1386,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>11</v>
@@ -1415,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>11</v>
@@ -1444,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>11</v>
@@ -1473,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>11</v>
@@ -1502,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>11</v>
@@ -1531,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>11</v>
@@ -1560,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>11</v>
@@ -1589,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>11</v>
@@ -1618,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>11</v>
@@ -1647,7 +1650,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>11</v>
@@ -1676,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>11</v>
@@ -1705,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>11</v>
@@ -1734,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>11</v>
@@ -1763,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>11</v>
@@ -1792,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>11</v>
@@ -1821,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>11</v>
@@ -1850,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>11</v>
@@ -1879,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>11</v>
@@ -1908,7 +1911,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>11</v>
@@ -1937,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>11</v>
@@ -1966,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>11</v>
@@ -1995,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>11</v>
@@ -2024,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>11</v>
@@ -2053,7 +2056,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>11</v>
@@ -2082,7 +2085,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>11</v>
@@ -2111,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>11</v>
@@ -2140,7 +2143,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I50" s="6"/>
     </row>
@@ -2164,7 +2167,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I51" s="6"/>
     </row>
@@ -2188,7 +2191,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I52" s="6"/>
     </row>
@@ -2212,7 +2215,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I53" s="6"/>
     </row>
@@ -2236,7 +2239,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I54" s="6"/>
     </row>
@@ -2260,7 +2263,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I55" s="6"/>
     </row>
@@ -2284,7 +2287,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I56" s="6"/>
     </row>
@@ -2308,7 +2311,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I57" s="6"/>
     </row>
@@ -2332,7 +2335,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I58" s="6"/>
     </row>
@@ -2356,7 +2359,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I59" s="6"/>
     </row>
@@ -2380,7 +2383,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I60" s="6"/>
     </row>
@@ -2404,7 +2407,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I61" s="6"/>
     </row>
@@ -2428,7 +2431,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I62" s="6"/>
     </row>
@@ -2452,7 +2455,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I63" s="6"/>
     </row>
@@ -2476,7 +2479,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I64" s="6"/>
     </row>
@@ -2500,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I65" s="6"/>
     </row>
@@ -2524,7 +2527,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I66" s="6"/>
     </row>
@@ -2548,7 +2551,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I67" s="6"/>
     </row>
@@ -2572,7 +2575,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I68" s="6"/>
     </row>
@@ -2596,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I69" s="6"/>
     </row>
@@ -2620,7 +2623,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I70" s="6"/>
     </row>
@@ -2644,7 +2647,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I71" s="6"/>
     </row>
@@ -2668,7 +2671,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I72" s="6"/>
     </row>
@@ -2692,7 +2695,7 @@
         <v>11</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I73" s="6"/>
     </row>
@@ -2716,7 +2719,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I74" s="6"/>
     </row>
@@ -2740,7 +2743,7 @@
         <v>11</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I75" s="6"/>
     </row>
@@ -2764,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I76" s="6"/>
     </row>
@@ -2788,7 +2791,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I77" s="6"/>
     </row>
@@ -2812,7 +2815,7 @@
         <v>11</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I78" s="6"/>
     </row>
@@ -2836,7 +2839,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I79" s="6"/>
     </row>
@@ -2860,7 +2863,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I80" s="6"/>
     </row>
@@ -2884,7 +2887,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I81" s="6"/>
     </row>
@@ -2908,7 +2911,7 @@
         <v>11</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I82" s="6"/>
     </row>
@@ -2932,7 +2935,7 @@
         <v>11</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I83" s="6"/>
     </row>
@@ -2956,7 +2959,7 @@
         <v>11</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I84" s="6"/>
     </row>
@@ -2980,7 +2983,7 @@
         <v>11</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I85" s="6"/>
     </row>
@@ -3004,7 +3007,7 @@
         <v>11</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I86" s="6"/>
     </row>
@@ -3028,7 +3031,7 @@
         <v>11</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I87" s="6"/>
     </row>
@@ -3052,7 +3055,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I88" s="6"/>
     </row>
@@ -3076,7 +3079,7 @@
         <v>11</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I89" s="6"/>
     </row>
@@ -3100,7 +3103,7 @@
         <v>11</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I90" s="6"/>
     </row>
@@ -3124,7 +3127,7 @@
         <v>11</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I91" s="6"/>
     </row>
@@ -3148,7 +3151,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I92" s="6"/>
     </row>
@@ -3172,7 +3175,7 @@
         <v>11</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I93" s="6"/>
     </row>
@@ -3196,7 +3199,7 @@
         <v>11</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I94" s="6"/>
     </row>
@@ -3220,7 +3223,7 @@
         <v>11</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I95" s="6"/>
     </row>
@@ -3244,7 +3247,7 @@
         <v>11</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I96" s="6"/>
     </row>
@@ -3268,7 +3271,7 @@
         <v>11</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I97" s="6"/>
     </row>
@@ -3292,7 +3295,7 @@
         <v>11</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I98" s="6"/>
     </row>
@@ -3316,7 +3319,7 @@
         <v>11</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I99" s="6"/>
     </row>
@@ -3340,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I100" s="6"/>
     </row>
@@ -3364,7 +3367,7 @@
         <v>11</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I101" s="6"/>
     </row>
@@ -3388,7 +3391,7 @@
         <v>11</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I102" s="6"/>
     </row>
@@ -3412,7 +3415,7 @@
         <v>11</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I103" s="6"/>
     </row>
@@ -3436,7 +3439,7 @@
         <v>11</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I104" s="6"/>
     </row>
@@ -3460,7 +3463,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I105" s="6"/>
     </row>
@@ -3484,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I106" s="6"/>
     </row>
@@ -3508,7 +3511,7 @@
         <v>11</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I107" s="6"/>
     </row>
@@ -3532,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I108" s="6"/>
     </row>
@@ -3556,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I109" s="6"/>
     </row>
@@ -3580,7 +3583,7 @@
         <v>11</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I110" s="6"/>
     </row>
@@ -3604,7 +3607,7 @@
         <v>11</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I111" s="6"/>
     </row>
@@ -3628,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I112" s="6"/>
     </row>
@@ -3652,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I113" s="6"/>
     </row>
@@ -3676,7 +3679,7 @@
         <v>11</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I114" s="6"/>
     </row>
@@ -3700,7 +3703,7 @@
         <v>11</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I115" s="6"/>
     </row>
@@ -3724,7 +3727,7 @@
         <v>11</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I116" s="6"/>
     </row>
@@ -3748,7 +3751,7 @@
         <v>11</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I117" s="6"/>
     </row>
@@ -3772,7 +3775,7 @@
         <v>11</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I118" s="6"/>
     </row>
@@ -3796,7 +3799,7 @@
         <v>11</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I119" s="6"/>
     </row>
@@ -3820,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I120" s="6"/>
     </row>
@@ -3844,7 +3847,7 @@
         <v>11</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I121" s="6"/>
     </row>
@@ -3868,7 +3871,7 @@
         <v>11</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I122" s="6"/>
     </row>
@@ -3892,7 +3895,7 @@
         <v>11</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I123" s="6"/>
     </row>
@@ -3916,7 +3919,7 @@
         <v>11</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I124" s="6"/>
     </row>
@@ -3940,7 +3943,7 @@
         <v>11</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I125" s="6"/>
     </row>
@@ -3964,7 +3967,7 @@
         <v>11</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I126" s="6"/>
     </row>
@@ -3988,7 +3991,7 @@
         <v>11</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I127" s="6"/>
     </row>
@@ -4012,7 +4015,7 @@
         <v>11</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I128" s="6"/>
     </row>
@@ -4036,7 +4039,7 @@
         <v>11</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="I129" s="6"/>
     </row>
@@ -4070,7 +4073,7 @@
       <formula>"blue"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="C2:C129" type="list">
       <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
       <formula2>0</formula2>
@@ -4078,6 +4081,10 @@
     <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E129" type="list">
       <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-inf"</formula1>
       <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G129" type="decimal">
+      <formula1>20</formula1>
+      <formula2>2000</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4098,7 +4105,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4170,8 +4177,8 @@
       <c r="D2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
+      <c r="E2" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>81</v>
@@ -4179,8 +4186,8 @@
       <c r="H2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>0</v>
+      <c r="I2" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>81</v>
@@ -4188,8 +4195,8 @@
       <c r="L2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
+      <c r="M2" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>81</v>
@@ -4197,8 +4204,8 @@
       <c r="P2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="2" t="n">
-        <v>0</v>
+      <c r="Q2" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4211,8 +4218,8 @@
       <c r="D3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
+      <c r="E3" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>81</v>
@@ -4220,8 +4227,8 @@
       <c r="H3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I3" s="2" t="n">
-        <v>0</v>
+      <c r="I3" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>81</v>
@@ -4229,8 +4236,8 @@
       <c r="L3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
+      <c r="M3" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>81</v>
@@ -4238,8 +4245,8 @@
       <c r="P3" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="2" t="n">
-        <v>0</v>
+      <c r="Q3" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4252,8 +4259,8 @@
       <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>0</v>
+      <c r="E4" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>81</v>
@@ -4261,8 +4268,8 @@
       <c r="H4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I4" s="2" t="n">
-        <v>0</v>
+      <c r="I4" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>81</v>
@@ -4270,8 +4277,8 @@
       <c r="L4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
+      <c r="M4" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>81</v>
@@ -4279,8 +4286,8 @@
       <c r="P4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="2" t="n">
-        <v>0</v>
+      <c r="Q4" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4293,8 +4300,8 @@
       <c r="D5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>0</v>
+      <c r="E5" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>81</v>
@@ -4302,8 +4309,8 @@
       <c r="H5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I5" s="2" t="n">
-        <v>0</v>
+      <c r="I5" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>81</v>
@@ -4311,8 +4318,8 @@
       <c r="L5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
+      <c r="M5" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>81</v>
@@ -4320,8 +4327,8 @@
       <c r="P5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="2" t="n">
-        <v>0</v>
+      <c r="Q5" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4334,8 +4341,8 @@
       <c r="D6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
+      <c r="E6" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>81</v>
@@ -4343,8 +4350,8 @@
       <c r="H6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="2" t="n">
-        <v>0</v>
+      <c r="I6" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>81</v>
@@ -4352,8 +4359,8 @@
       <c r="L6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
+      <c r="M6" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>81</v>
@@ -4361,8 +4368,8 @@
       <c r="P6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="2" t="n">
-        <v>0</v>
+      <c r="Q6" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,8 +4382,8 @@
       <c r="D7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>0</v>
+      <c r="E7" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>81</v>
@@ -4384,8 +4391,8 @@
       <c r="H7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I7" s="2" t="n">
-        <v>0</v>
+      <c r="I7" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>81</v>
@@ -4393,8 +4400,8 @@
       <c r="L7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
+      <c r="M7" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>81</v>
@@ -4402,8 +4409,8 @@
       <c r="P7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q7" s="2" t="n">
-        <v>0</v>
+      <c r="Q7" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,8 +4423,8 @@
       <c r="D8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>0</v>
+      <c r="E8" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>81</v>
@@ -4425,8 +4432,8 @@
       <c r="H8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="2" t="n">
-        <v>0</v>
+      <c r="I8" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>81</v>
@@ -4434,8 +4441,8 @@
       <c r="L8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M8" s="2" t="n">
-        <v>0</v>
+      <c r="M8" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>81</v>
@@ -4443,8 +4450,8 @@
       <c r="P8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q8" s="2" t="n">
-        <v>0</v>
+      <c r="Q8" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4457,8 +4464,8 @@
       <c r="D9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
+      <c r="E9" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>81</v>
@@ -4466,8 +4473,8 @@
       <c r="H9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I9" s="2" t="n">
-        <v>0</v>
+      <c r="I9" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
@@ -4475,8 +4482,8 @@
       <c r="L9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M9" s="2" t="n">
-        <v>0</v>
+      <c r="M9" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>81</v>
@@ -4484,8 +4491,8 @@
       <c r="P9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" s="2" t="n">
-        <v>0</v>
+      <c r="Q9" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,8 +4505,8 @@
       <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
+      <c r="E10" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>81</v>
@@ -4507,8 +4514,8 @@
       <c r="H10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I10" s="2" t="n">
-        <v>0</v>
+      <c r="I10" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>81</v>
@@ -4516,8 +4523,8 @@
       <c r="L10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
+      <c r="M10" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>81</v>
@@ -4525,8 +4532,8 @@
       <c r="P10" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q10" s="2" t="n">
-        <v>0</v>
+      <c r="Q10" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4539,8 +4546,8 @@
       <c r="D11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
+      <c r="E11" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>81</v>
@@ -4548,8 +4555,8 @@
       <c r="H11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I11" s="2" t="n">
-        <v>0</v>
+      <c r="I11" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>81</v>
@@ -4557,8 +4564,8 @@
       <c r="L11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="2" t="n">
-        <v>0</v>
+      <c r="M11" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>81</v>
@@ -4566,8 +4573,8 @@
       <c r="P11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q11" s="2" t="n">
-        <v>0</v>
+      <c r="Q11" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4580,8 +4587,8 @@
       <c r="D12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="2" t="n">
-        <v>0</v>
+      <c r="E12" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>81</v>
@@ -4589,8 +4596,8 @@
       <c r="H12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I12" s="2" t="n">
-        <v>0</v>
+      <c r="I12" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>81</v>
@@ -4598,8 +4605,8 @@
       <c r="L12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M12" s="2" t="n">
-        <v>0</v>
+      <c r="M12" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>81</v>
@@ -4607,8 +4614,8 @@
       <c r="P12" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q12" s="2" t="n">
-        <v>0</v>
+      <c r="Q12" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,8 +4631,8 @@
       <c r="D13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
+      <c r="E13" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>81</v>
@@ -4633,8 +4640,8 @@
       <c r="H13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I13" s="2" t="n">
-        <v>0</v>
+      <c r="I13" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>81</v>
@@ -4642,8 +4649,8 @@
       <c r="L13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
+      <c r="M13" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>81</v>
@@ -4651,8 +4658,8 @@
       <c r="P13" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q13" s="2" t="n">
-        <v>0</v>
+      <c r="Q13" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,8 +4672,8 @@
       <c r="D14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="2" t="n">
-        <v>0</v>
+      <c r="E14" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>81</v>
@@ -4674,8 +4681,8 @@
       <c r="H14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>0</v>
+      <c r="I14" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>81</v>
@@ -4683,8 +4690,8 @@
       <c r="L14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
+      <c r="M14" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>81</v>
@@ -4692,8 +4699,8 @@
       <c r="P14" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q14" s="2" t="n">
-        <v>0</v>
+      <c r="Q14" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4706,8 +4713,8 @@
       <c r="D15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E15" s="2" t="n">
-        <v>0</v>
+      <c r="E15" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>81</v>
@@ -4715,8 +4722,8 @@
       <c r="H15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I15" s="2" t="n">
-        <v>0</v>
+      <c r="I15" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>81</v>
@@ -4724,8 +4731,8 @@
       <c r="L15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
+      <c r="M15" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>81</v>
@@ -4733,8 +4740,8 @@
       <c r="P15" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q15" s="2" t="n">
-        <v>0</v>
+      <c r="Q15" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4747,8 +4754,8 @@
       <c r="D16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="2" t="n">
-        <v>0</v>
+      <c r="E16" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>81</v>
@@ -4756,8 +4763,8 @@
       <c r="H16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I16" s="2" t="n">
-        <v>0</v>
+      <c r="I16" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>81</v>
@@ -4765,8 +4772,8 @@
       <c r="L16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
+      <c r="M16" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>81</v>
@@ -4774,8 +4781,8 @@
       <c r="P16" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q16" s="2" t="n">
-        <v>0</v>
+      <c r="Q16" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4788,8 +4795,8 @@
       <c r="D17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="2" t="n">
-        <v>0</v>
+      <c r="E17" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>81</v>
@@ -4797,8 +4804,8 @@
       <c r="H17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I17" s="2" t="n">
-        <v>0</v>
+      <c r="I17" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>81</v>
@@ -4806,8 +4813,8 @@
       <c r="L17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M17" s="2" t="n">
-        <v>0</v>
+      <c r="M17" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>81</v>
@@ -4815,8 +4822,8 @@
       <c r="P17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q17" s="2" t="n">
-        <v>0</v>
+      <c r="Q17" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4829,8 +4836,8 @@
       <c r="D18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E18" s="2" t="n">
-        <v>0</v>
+      <c r="E18" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>81</v>
@@ -4838,8 +4845,8 @@
       <c r="H18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I18" s="2" t="n">
-        <v>0</v>
+      <c r="I18" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>81</v>
@@ -4847,8 +4854,8 @@
       <c r="L18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M18" s="2" t="n">
-        <v>0</v>
+      <c r="M18" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>81</v>
@@ -4856,8 +4863,8 @@
       <c r="P18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q18" s="2" t="n">
-        <v>0</v>
+      <c r="Q18" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4870,8 +4877,8 @@
       <c r="D19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="2" t="n">
-        <v>0</v>
+      <c r="E19" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>81</v>
@@ -4879,8 +4886,8 @@
       <c r="H19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I19" s="2" t="n">
-        <v>0</v>
+      <c r="I19" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>81</v>
@@ -4888,8 +4895,8 @@
       <c r="L19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
+      <c r="M19" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>81</v>
@@ -4897,8 +4904,8 @@
       <c r="P19" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q19" s="2" t="n">
-        <v>0</v>
+      <c r="Q19" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4911,8 +4918,8 @@
       <c r="D20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="2" t="n">
-        <v>0</v>
+      <c r="E20" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>81</v>
@@ -4920,8 +4927,8 @@
       <c r="H20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I20" s="2" t="n">
-        <v>0</v>
+      <c r="I20" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>81</v>
@@ -4929,8 +4936,8 @@
       <c r="L20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M20" s="2" t="n">
-        <v>0</v>
+      <c r="M20" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>81</v>
@@ -4938,8 +4945,8 @@
       <c r="P20" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q20" s="2" t="n">
-        <v>0</v>
+      <c r="Q20" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,8 +4959,8 @@
       <c r="D21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E21" s="2" t="n">
-        <v>0</v>
+      <c r="E21" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>81</v>
@@ -4961,8 +4968,8 @@
       <c r="H21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="2" t="n">
-        <v>0</v>
+      <c r="I21" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>81</v>
@@ -4970,8 +4977,8 @@
       <c r="L21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M21" s="2" t="n">
-        <v>0</v>
+      <c r="M21" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>81</v>
@@ -4979,8 +4986,8 @@
       <c r="P21" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q21" s="2" t="n">
-        <v>0</v>
+      <c r="Q21" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4993,8 +5000,8 @@
       <c r="D22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="2" t="n">
-        <v>0</v>
+      <c r="E22" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>81</v>
@@ -5002,8 +5009,8 @@
       <c r="H22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I22" s="2" t="n">
-        <v>0</v>
+      <c r="I22" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>81</v>
@@ -5011,8 +5018,8 @@
       <c r="L22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M22" s="2" t="n">
-        <v>0</v>
+      <c r="M22" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>81</v>
@@ -5020,8 +5027,8 @@
       <c r="P22" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q22" s="2" t="n">
-        <v>0</v>
+      <c r="Q22" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,8 +5041,8 @@
       <c r="D23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E23" s="2" t="n">
-        <v>0</v>
+      <c r="E23" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>81</v>
@@ -5043,8 +5050,8 @@
       <c r="H23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I23" s="2" t="n">
-        <v>0</v>
+      <c r="I23" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>81</v>
@@ -5052,8 +5059,8 @@
       <c r="L23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M23" s="2" t="n">
-        <v>0</v>
+      <c r="M23" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>81</v>
@@ -5061,8 +5068,8 @@
       <c r="P23" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q23" s="2" t="n">
-        <v>0</v>
+      <c r="Q23" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,8 +5082,8 @@
       <c r="D24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="2" t="n">
-        <v>0</v>
+      <c r="E24" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>81</v>
@@ -5084,8 +5091,8 @@
       <c r="H24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="2" t="n">
-        <v>0</v>
+      <c r="I24" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>81</v>
@@ -5093,8 +5100,8 @@
       <c r="L24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M24" s="2" t="n">
-        <v>0</v>
+      <c r="M24" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>81</v>
@@ -5102,8 +5109,8 @@
       <c r="P24" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q24" s="2" t="n">
-        <v>0</v>
+      <c r="Q24" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5116,8 +5123,8 @@
       <c r="D25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E25" s="2" t="n">
-        <v>0</v>
+      <c r="E25" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>81</v>
@@ -5125,8 +5132,8 @@
       <c r="H25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I25" s="2" t="n">
-        <v>0</v>
+      <c r="I25" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>81</v>
@@ -5134,8 +5141,8 @@
       <c r="L25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M25" s="2" t="n">
-        <v>0</v>
+      <c r="M25" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>81</v>
@@ -5143,8 +5150,8 @@
       <c r="P25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q25" s="2" t="n">
-        <v>0</v>
+      <c r="Q25" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5157,8 +5164,8 @@
       <c r="D26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E26" s="2" t="n">
-        <v>0</v>
+      <c r="E26" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>81</v>
@@ -5166,8 +5173,8 @@
       <c r="H26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="2" t="n">
-        <v>0</v>
+      <c r="I26" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>81</v>
@@ -5175,8 +5182,8 @@
       <c r="L26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
+      <c r="M26" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>81</v>
@@ -5184,8 +5191,8 @@
       <c r="P26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q26" s="2" t="n">
-        <v>0</v>
+      <c r="Q26" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5198,8 +5205,8 @@
       <c r="D27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
+      <c r="E27" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>81</v>
@@ -5207,8 +5214,8 @@
       <c r="H27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I27" s="2" t="n">
-        <v>0</v>
+      <c r="I27" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>81</v>
@@ -5216,8 +5223,8 @@
       <c r="L27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M27" s="2" t="n">
-        <v>0</v>
+      <c r="M27" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>81</v>
@@ -5225,8 +5232,8 @@
       <c r="P27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q27" s="2" t="n">
-        <v>0</v>
+      <c r="Q27" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5239,8 +5246,8 @@
       <c r="D28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="2" t="n">
-        <v>0</v>
+      <c r="E28" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>81</v>
@@ -5248,8 +5255,8 @@
       <c r="H28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="2" t="n">
-        <v>0</v>
+      <c r="I28" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>81</v>
@@ -5257,8 +5264,8 @@
       <c r="L28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M28" s="2" t="n">
-        <v>0</v>
+      <c r="M28" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>81</v>
@@ -5266,8 +5273,8 @@
       <c r="P28" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q28" s="2" t="n">
-        <v>0</v>
+      <c r="Q28" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5280,8 +5287,8 @@
       <c r="D29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="2" t="n">
-        <v>0</v>
+      <c r="E29" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>81</v>
@@ -5289,8 +5296,8 @@
       <c r="H29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I29" s="2" t="n">
-        <v>0</v>
+      <c r="I29" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>81</v>
@@ -5298,8 +5305,8 @@
       <c r="L29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M29" s="2" t="n">
-        <v>0</v>
+      <c r="M29" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>81</v>
@@ -5307,8 +5314,8 @@
       <c r="P29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q29" s="2" t="n">
-        <v>0</v>
+      <c r="Q29" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,8 +5328,8 @@
       <c r="D30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
+      <c r="E30" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>81</v>
@@ -5330,8 +5337,8 @@
       <c r="H30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I30" s="2" t="n">
-        <v>0</v>
+      <c r="I30" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>81</v>
@@ -5339,8 +5346,8 @@
       <c r="L30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
+      <c r="M30" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>81</v>
@@ -5348,8 +5355,8 @@
       <c r="P30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q30" s="2" t="n">
-        <v>0</v>
+      <c r="Q30" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,8 +5369,8 @@
       <c r="D31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E31" s="2" t="n">
-        <v>0</v>
+      <c r="E31" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>81</v>
@@ -5371,8 +5378,8 @@
       <c r="H31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I31" s="2" t="n">
-        <v>0</v>
+      <c r="I31" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>81</v>
@@ -5380,8 +5387,8 @@
       <c r="L31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M31" s="2" t="n">
-        <v>0</v>
+      <c r="M31" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>81</v>
@@ -5389,8 +5396,8 @@
       <c r="P31" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q31" s="2" t="n">
-        <v>0</v>
+      <c r="Q31" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5403,8 +5410,8 @@
       <c r="D32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="2" t="n">
-        <v>0</v>
+      <c r="E32" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>81</v>
@@ -5412,8 +5419,8 @@
       <c r="H32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I32" s="2" t="n">
-        <v>0</v>
+      <c r="I32" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>81</v>
@@ -5421,8 +5428,8 @@
       <c r="L32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M32" s="2" t="n">
-        <v>0</v>
+      <c r="M32" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>81</v>
@@ -5430,8 +5437,8 @@
       <c r="P32" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q32" s="2" t="n">
-        <v>0</v>
+      <c r="Q32" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5447,8 +5454,8 @@
       <c r="D33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E33" s="2" t="n">
-        <v>0</v>
+      <c r="E33" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>81</v>
@@ -5456,8 +5463,8 @@
       <c r="H33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="2" t="n">
-        <v>0</v>
+      <c r="I33" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>81</v>
@@ -5465,8 +5472,8 @@
       <c r="L33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M33" s="2" t="n">
-        <v>0</v>
+      <c r="M33" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>81</v>
@@ -5474,8 +5481,8 @@
       <c r="P33" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q33" s="2" t="n">
-        <v>0</v>
+      <c r="Q33" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,8 +5495,8 @@
       <c r="D34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="2" t="n">
-        <v>0</v>
+      <c r="E34" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>81</v>
@@ -5497,8 +5504,8 @@
       <c r="P34" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q34" s="2" t="n">
-        <v>0</v>
+      <c r="Q34" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,8 +5518,8 @@
       <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E35" s="2" t="n">
-        <v>0</v>
+      <c r="E35" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>81</v>
@@ -5520,8 +5527,8 @@
       <c r="P35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q35" s="2" t="n">
-        <v>0</v>
+      <c r="Q35" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5534,8 +5541,8 @@
       <c r="D36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E36" s="2" t="n">
-        <v>0</v>
+      <c r="E36" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>81</v>
@@ -5543,8 +5550,8 @@
       <c r="P36" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q36" s="2" t="n">
-        <v>0</v>
+      <c r="Q36" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,8 +5564,8 @@
       <c r="D37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E37" s="2" t="n">
-        <v>0</v>
+      <c r="E37" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>81</v>
@@ -5566,8 +5573,8 @@
       <c r="P37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q37" s="2" t="n">
-        <v>0</v>
+      <c r="Q37" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5580,8 +5587,8 @@
       <c r="D38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E38" s="2" t="n">
-        <v>0</v>
+      <c r="E38" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>81</v>
@@ -5589,8 +5596,8 @@
       <c r="P38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q38" s="2" t="n">
-        <v>0</v>
+      <c r="Q38" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,8 +5610,8 @@
       <c r="D39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E39" s="2" t="n">
-        <v>0</v>
+      <c r="E39" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>81</v>
@@ -5612,8 +5619,8 @@
       <c r="P39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q39" s="2" t="n">
-        <v>0</v>
+      <c r="Q39" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5626,8 +5633,8 @@
       <c r="D40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E40" s="2" t="n">
-        <v>0</v>
+      <c r="E40" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>81</v>
@@ -5635,8 +5642,8 @@
       <c r="P40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q40" s="2" t="n">
-        <v>0</v>
+      <c r="Q40" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5649,8 +5656,8 @@
       <c r="D41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E41" s="2" t="n">
-        <v>0</v>
+      <c r="E41" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>81</v>
@@ -5658,8 +5665,8 @@
       <c r="P41" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q41" s="2" t="n">
-        <v>0</v>
+      <c r="Q41" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,8 +5679,8 @@
       <c r="D42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="2" t="n">
-        <v>0</v>
+      <c r="E42" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>81</v>
@@ -5681,8 +5688,8 @@
       <c r="P42" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q42" s="2" t="n">
-        <v>0</v>
+      <c r="Q42" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5695,8 +5702,8 @@
       <c r="D43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="2" t="n">
-        <v>0</v>
+      <c r="E43" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>81</v>
@@ -5704,8 +5711,8 @@
       <c r="P43" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q43" s="2" t="n">
-        <v>0</v>
+      <c r="Q43" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5718,8 +5725,8 @@
       <c r="D44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E44" s="2" t="n">
-        <v>0</v>
+      <c r="E44" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>81</v>
@@ -5727,8 +5734,8 @@
       <c r="P44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q44" s="2" t="n">
-        <v>0</v>
+      <c r="Q44" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,8 +5748,8 @@
       <c r="D45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="2" t="n">
-        <v>0</v>
+      <c r="E45" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>81</v>
@@ -5750,8 +5757,8 @@
       <c r="P45" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q45" s="2" t="n">
-        <v>0</v>
+      <c r="Q45" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5764,8 +5771,8 @@
       <c r="D46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E46" s="2" t="n">
-        <v>0</v>
+      <c r="E46" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>81</v>
@@ -5773,8 +5780,8 @@
       <c r="P46" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q46" s="2" t="n">
-        <v>0</v>
+      <c r="Q46" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5787,8 +5794,8 @@
       <c r="D47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E47" s="2" t="n">
-        <v>0</v>
+      <c r="E47" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>81</v>
@@ -5796,8 +5803,8 @@
       <c r="P47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q47" s="2" t="n">
-        <v>0</v>
+      <c r="Q47" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5810,8 +5817,8 @@
       <c r="D48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E48" s="2" t="n">
-        <v>0</v>
+      <c r="E48" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>81</v>
@@ -5819,8 +5826,8 @@
       <c r="P48" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q48" s="2" t="n">
-        <v>0</v>
+      <c r="Q48" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5836,8 +5843,8 @@
       <c r="D49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="2" t="n">
-        <v>0</v>
+      <c r="E49" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>81</v>
@@ -5845,8 +5852,8 @@
       <c r="P49" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q49" s="2" t="n">
-        <v>0</v>
+      <c r="Q49" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5859,8 +5866,8 @@
       <c r="D50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E50" s="2" t="n">
-        <v>0</v>
+      <c r="E50" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>81</v>
@@ -5868,8 +5875,8 @@
       <c r="P50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q50" s="2" t="n">
-        <v>0</v>
+      <c r="Q50" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5882,8 +5889,8 @@
       <c r="D51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E51" s="2" t="n">
-        <v>0</v>
+      <c r="E51" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>81</v>
@@ -5891,8 +5898,8 @@
       <c r="P51" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q51" s="2" t="n">
-        <v>0</v>
+      <c r="Q51" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5905,8 +5912,8 @@
       <c r="D52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="2" t="n">
-        <v>0</v>
+      <c r="E52" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>81</v>
@@ -5914,8 +5921,8 @@
       <c r="P52" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q52" s="2" t="n">
-        <v>0</v>
+      <c r="Q52" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5928,8 +5935,8 @@
       <c r="D53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E53" s="2" t="n">
-        <v>0</v>
+      <c r="E53" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>81</v>
@@ -5937,8 +5944,8 @@
       <c r="P53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q53" s="2" t="n">
-        <v>0</v>
+      <c r="Q53" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,8 +5958,8 @@
       <c r="D54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="2" t="n">
-        <v>0</v>
+      <c r="E54" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>81</v>
@@ -5960,8 +5967,8 @@
       <c r="P54" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q54" s="2" t="n">
-        <v>0</v>
+      <c r="Q54" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5974,8 +5981,8 @@
       <c r="D55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E55" s="2" t="n">
-        <v>0</v>
+      <c r="E55" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>81</v>
@@ -5983,8 +5990,8 @@
       <c r="P55" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
+      <c r="Q55" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,8 +6004,8 @@
       <c r="D56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E56" s="2" t="n">
-        <v>0</v>
+      <c r="E56" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>81</v>
@@ -6006,8 +6013,8 @@
       <c r="P56" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q56" s="2" t="n">
-        <v>0</v>
+      <c r="Q56" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6020,8 +6027,8 @@
       <c r="D57" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E57" s="2" t="n">
-        <v>0</v>
+      <c r="E57" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>81</v>
@@ -6029,8 +6036,8 @@
       <c r="P57" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q57" s="2" t="n">
-        <v>0</v>
+      <c r="Q57" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6043,8 +6050,8 @@
       <c r="D58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E58" s="2" t="n">
-        <v>0</v>
+      <c r="E58" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>81</v>
@@ -6052,8 +6059,8 @@
       <c r="P58" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q58" s="2" t="n">
-        <v>0</v>
+      <c r="Q58" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6066,8 +6073,8 @@
       <c r="D59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="2" t="n">
-        <v>0</v>
+      <c r="E59" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>81</v>
@@ -6075,8 +6082,8 @@
       <c r="P59" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q59" s="2" t="n">
-        <v>0</v>
+      <c r="Q59" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6089,8 +6096,8 @@
       <c r="D60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E60" s="2" t="n">
-        <v>0</v>
+      <c r="E60" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>81</v>
@@ -6098,8 +6105,8 @@
       <c r="P60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q60" s="2" t="n">
-        <v>0</v>
+      <c r="Q60" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6112,8 +6119,8 @@
       <c r="D61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E61" s="2" t="n">
-        <v>0</v>
+      <c r="E61" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>81</v>
@@ -6121,8 +6128,8 @@
       <c r="P61" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q61" s="2" t="n">
-        <v>0</v>
+      <c r="Q61" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6135,8 +6142,8 @@
       <c r="D62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="2" t="n">
-        <v>0</v>
+      <c r="E62" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>81</v>
@@ -6144,8 +6151,8 @@
       <c r="P62" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q62" s="2" t="n">
-        <v>0</v>
+      <c r="Q62" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6158,8 +6165,8 @@
       <c r="D63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E63" s="2" t="n">
-        <v>0</v>
+      <c r="E63" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>81</v>
@@ -6167,8 +6174,8 @@
       <c r="P63" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q63" s="2" t="n">
-        <v>0</v>
+      <c r="Q63" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,8 +6188,8 @@
       <c r="D64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E64" s="2" t="n">
-        <v>0</v>
+      <c r="E64" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>81</v>
@@ -6190,8 +6197,8 @@
       <c r="P64" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q64" s="2" t="n">
-        <v>0</v>
+      <c r="Q64" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6207,8 +6214,8 @@
       <c r="D65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="2" t="n">
-        <v>0</v>
+      <c r="E65" s="6" t="n">
+        <v>25</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>81</v>
@@ -6216,8 +6223,8 @@
       <c r="P65" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q65" s="2" t="n">
-        <v>0</v>
+      <c r="Q65" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6233,8 +6240,8 @@
       <c r="P66" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q66" s="2" t="n">
-        <v>0</v>
+      <c r="Q66" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6247,8 +6254,8 @@
       <c r="P67" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q67" s="2" t="n">
-        <v>0</v>
+      <c r="Q67" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,8 +6268,8 @@
       <c r="P68" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q68" s="2" t="n">
-        <v>0</v>
+      <c r="Q68" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6275,8 +6282,8 @@
       <c r="P69" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q69" s="2" t="n">
-        <v>0</v>
+      <c r="Q69" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6289,8 +6296,8 @@
       <c r="P70" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q70" s="2" t="n">
-        <v>0</v>
+      <c r="Q70" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6303,8 +6310,8 @@
       <c r="P71" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q71" s="2" t="n">
-        <v>0</v>
+      <c r="Q71" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,8 +6324,8 @@
       <c r="P72" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q72" s="2" t="n">
-        <v>0</v>
+      <c r="Q72" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6331,8 +6338,8 @@
       <c r="P73" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q73" s="2" t="n">
-        <v>0</v>
+      <c r="Q73" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6345,8 +6352,8 @@
       <c r="P74" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q74" s="2" t="n">
-        <v>0</v>
+      <c r="Q74" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,8 +6366,8 @@
       <c r="P75" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q75" s="2" t="n">
-        <v>0</v>
+      <c r="Q75" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6373,8 +6380,8 @@
       <c r="P76" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q76" s="2" t="n">
-        <v>0</v>
+      <c r="Q76" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6387,8 +6394,8 @@
       <c r="P77" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q77" s="2" t="n">
-        <v>0</v>
+      <c r="Q77" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,8 +6408,8 @@
       <c r="P78" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q78" s="2" t="n">
-        <v>0</v>
+      <c r="Q78" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6415,8 +6422,8 @@
       <c r="P79" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q79" s="2" t="n">
-        <v>0</v>
+      <c r="Q79" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6429,8 +6436,8 @@
       <c r="P80" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q80" s="2" t="n">
-        <v>0</v>
+      <c r="Q80" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6443,8 +6450,8 @@
       <c r="P81" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q81" s="2" t="n">
-        <v>0</v>
+      <c r="Q81" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6457,8 +6464,8 @@
       <c r="P82" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q82" s="2" t="n">
-        <v>0</v>
+      <c r="Q82" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6471,8 +6478,8 @@
       <c r="P83" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q83" s="2" t="n">
-        <v>0</v>
+      <c r="Q83" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6485,8 +6492,8 @@
       <c r="P84" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q84" s="2" t="n">
-        <v>0</v>
+      <c r="Q84" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6499,8 +6506,8 @@
       <c r="P85" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q85" s="2" t="n">
-        <v>0</v>
+      <c r="Q85" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6513,8 +6520,8 @@
       <c r="P86" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q86" s="2" t="n">
-        <v>0</v>
+      <c r="Q86" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6527,8 +6534,8 @@
       <c r="P87" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q87" s="2" t="n">
-        <v>0</v>
+      <c r="Q87" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6541,8 +6548,8 @@
       <c r="P88" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q88" s="2" t="n">
-        <v>0</v>
+      <c r="Q88" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6555,8 +6562,8 @@
       <c r="P89" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q89" s="2" t="n">
-        <v>0</v>
+      <c r="Q89" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6569,8 +6576,8 @@
       <c r="P90" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q90" s="2" t="n">
-        <v>0</v>
+      <c r="Q90" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6583,8 +6590,8 @@
       <c r="P91" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q91" s="2" t="n">
-        <v>0</v>
+      <c r="Q91" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6597,8 +6604,8 @@
       <c r="P92" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q92" s="2" t="n">
-        <v>0</v>
+      <c r="Q92" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6611,8 +6618,8 @@
       <c r="P93" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q93" s="2" t="n">
-        <v>0</v>
+      <c r="Q93" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6625,8 +6632,8 @@
       <c r="P94" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q94" s="2" t="n">
-        <v>0</v>
+      <c r="Q94" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6639,8 +6646,8 @@
       <c r="P95" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q95" s="2" t="n">
-        <v>0</v>
+      <c r="Q95" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6656,8 +6663,8 @@
       <c r="P96" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q96" s="2" t="n">
-        <v>0</v>
+      <c r="Q96" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6673,8 +6680,8 @@
       <c r="P97" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q97" s="2" t="n">
-        <v>0</v>
+      <c r="Q97" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6687,8 +6694,8 @@
       <c r="P98" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q98" s="2" t="n">
-        <v>0</v>
+      <c r="Q98" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6701,8 +6708,8 @@
       <c r="P99" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q99" s="2" t="n">
-        <v>0</v>
+      <c r="Q99" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6715,8 +6722,8 @@
       <c r="P100" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q100" s="2" t="n">
-        <v>0</v>
+      <c r="Q100" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6729,8 +6736,8 @@
       <c r="P101" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q101" s="2" t="n">
-        <v>0</v>
+      <c r="Q101" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6743,8 +6750,8 @@
       <c r="P102" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q102" s="2" t="n">
-        <v>0</v>
+      <c r="Q102" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6757,8 +6764,8 @@
       <c r="P103" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q103" s="2" t="n">
-        <v>0</v>
+      <c r="Q103" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6771,8 +6778,8 @@
       <c r="P104" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q104" s="2" t="n">
-        <v>0</v>
+      <c r="Q104" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6785,8 +6792,8 @@
       <c r="P105" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q105" s="2" t="n">
-        <v>0</v>
+      <c r="Q105" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6799,8 +6806,8 @@
       <c r="P106" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q106" s="2" t="n">
-        <v>0</v>
+      <c r="Q106" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6813,8 +6820,8 @@
       <c r="P107" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q107" s="2" t="n">
-        <v>0</v>
+      <c r="Q107" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,8 +6834,8 @@
       <c r="P108" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q108" s="2" t="n">
-        <v>0</v>
+      <c r="Q108" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6841,8 +6848,8 @@
       <c r="P109" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q109" s="2" t="n">
-        <v>0</v>
+      <c r="Q109" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6855,8 +6862,8 @@
       <c r="P110" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q110" s="2" t="n">
-        <v>0</v>
+      <c r="Q110" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6869,8 +6876,8 @@
       <c r="P111" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q111" s="2" t="n">
-        <v>0</v>
+      <c r="Q111" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6883,8 +6890,8 @@
       <c r="P112" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q112" s="2" t="n">
-        <v>0</v>
+      <c r="Q112" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6897,8 +6904,8 @@
       <c r="P113" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q113" s="2" t="n">
-        <v>0</v>
+      <c r="Q113" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6911,8 +6918,8 @@
       <c r="P114" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q114" s="2" t="n">
-        <v>0</v>
+      <c r="Q114" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6925,8 +6932,8 @@
       <c r="P115" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q115" s="2" t="n">
-        <v>0</v>
+      <c r="Q115" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6939,8 +6946,8 @@
       <c r="P116" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q116" s="2" t="n">
-        <v>0</v>
+      <c r="Q116" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6953,8 +6960,8 @@
       <c r="P117" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q117" s="2" t="n">
-        <v>0</v>
+      <c r="Q117" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6967,8 +6974,8 @@
       <c r="P118" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q118" s="2" t="n">
-        <v>0</v>
+      <c r="Q118" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6981,8 +6988,8 @@
       <c r="P119" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q119" s="2" t="n">
-        <v>0</v>
+      <c r="Q119" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6995,8 +7002,8 @@
       <c r="P120" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q120" s="2" t="n">
-        <v>0</v>
+      <c r="Q120" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7009,8 +7016,8 @@
       <c r="P121" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q121" s="2" t="n">
-        <v>0</v>
+      <c r="Q121" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7023,8 +7030,8 @@
       <c r="P122" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q122" s="2" t="n">
-        <v>0</v>
+      <c r="Q122" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7037,8 +7044,8 @@
       <c r="P123" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q123" s="2" t="n">
-        <v>0</v>
+      <c r="Q123" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7051,8 +7058,8 @@
       <c r="P124" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q124" s="2" t="n">
-        <v>0</v>
+      <c r="Q124" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7065,8 +7072,8 @@
       <c r="P125" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q125" s="2" t="n">
-        <v>0</v>
+      <c r="Q125" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7079,8 +7086,8 @@
       <c r="P126" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q126" s="2" t="n">
-        <v>0</v>
+      <c r="Q126" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7093,8 +7100,8 @@
       <c r="P127" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q127" s="2" t="n">
-        <v>0</v>
+      <c r="Q127" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7107,8 +7114,8 @@
       <c r="P128" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q128" s="2" t="n">
-        <v>0</v>
+      <c r="Q128" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7124,11 +7131,17 @@
       <c r="P129" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="Q129" s="2" t="n">
-        <v>0</v>
+      <c r="Q129" s="6" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E65 I2:I33 M2:M33 Q2:Q129" type="list">
+      <formula1>"+60,+55,+50,+45,+40,+35,+30,+25,+20,+15,+10,+5,"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7146,14 +7159,14 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K51" activeCellId="0" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="1" width="4.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="3" style="2" width="4.25"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7245,6 +7258,9 @@
         <f aca="false">Channels!B2</f>
         <v>KickIn</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -7255,6 +7271,9 @@
         <f aca="false">Channels!B3</f>
         <v>KickOut</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -7265,6 +7284,9 @@
         <f aca="false">Channels!B4</f>
         <v>SnTop</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -7275,6 +7297,9 @@
         <f aca="false">Channels!B5</f>
         <v>SnBot</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -7285,6 +7310,9 @@
         <f aca="false">Channels!B6</f>
         <v>Hat</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -7295,6 +7323,9 @@
         <f aca="false">Channels!B7</f>
         <v>Rack1</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -7305,6 +7336,9 @@
         <f aca="false">Channels!B8</f>
         <v>Rack2</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -7315,6 +7349,9 @@
         <f aca="false">Channels!B9</f>
         <v>Floor1</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
@@ -7325,6 +7362,9 @@
         <f aca="false">Channels!B10</f>
         <v>Floor2</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
@@ -7335,6 +7375,9 @@
         <f aca="false">Channels!B11</f>
         <v>Ride</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
@@ -7345,6 +7388,9 @@
         <f aca="false">Channels!B12</f>
         <v>OH L</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
@@ -7354,6 +7400,9 @@
       <c r="B13" s="1" t="str">
         <f aca="false">Channels!B13</f>
         <v>OH R</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7375,6 +7424,9 @@
         <f aca="false">Channels!B15</f>
         <v>Cajon</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
@@ -7405,6 +7457,9 @@
         <f aca="false">Channels!B18</f>
         <v>BassDI</v>
       </c>
+      <c r="E18" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
@@ -7415,6 +7470,9 @@
         <f aca="false">Channels!B19</f>
         <v>BassMi</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
@@ -7425,6 +7483,9 @@
         <f aca="false">Channels!B20</f>
         <v>EGit1L</v>
       </c>
+      <c r="F20" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
@@ -7435,6 +7496,9 @@
         <f aca="false">Channels!B21</f>
         <v>EGit1R</v>
       </c>
+      <c r="F21" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
@@ -7445,6 +7509,9 @@
         <f aca="false">Channels!B22</f>
         <v>EGit2L</v>
       </c>
+      <c r="F22" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
@@ -7455,6 +7522,9 @@
         <f aca="false">Channels!B23</f>
         <v>EGit2R</v>
       </c>
+      <c r="F23" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
@@ -7465,6 +7535,9 @@
         <f aca="false">Channels!B24</f>
         <v>EGit3L</v>
       </c>
+      <c r="F24" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
@@ -7475,6 +7548,9 @@
         <f aca="false">Channels!B25</f>
         <v>EGit3R</v>
       </c>
+      <c r="F25" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
@@ -7484,6 +7560,9 @@
       <c r="B26" s="1" t="str">
         <f aca="false">Channels!B26</f>
         <v>Accu1L</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7495,6 +7574,9 @@
         <f aca="false">Channels!B27</f>
         <v>Accu1R</v>
       </c>
+      <c r="G27" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
@@ -7505,6 +7587,9 @@
         <f aca="false">Channels!B28</f>
         <v>Accu2</v>
       </c>
+      <c r="G28" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
@@ -7515,6 +7600,9 @@
         <f aca="false">Channels!B29</f>
         <v>Accu3</v>
       </c>
+      <c r="G29" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
@@ -7525,6 +7613,9 @@
         <f aca="false">Channels!B30</f>
         <v>Key1L</v>
       </c>
+      <c r="H30" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
@@ -7535,6 +7626,9 @@
         <f aca="false">Channels!B31</f>
         <v>Key1R</v>
       </c>
+      <c r="H31" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
@@ -7545,6 +7639,9 @@
         <f aca="false">Channels!B32</f>
         <v>Key2L</v>
       </c>
+      <c r="H32" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
@@ -7555,6 +7652,9 @@
         <f aca="false">Channels!B33</f>
         <v>Key2R</v>
       </c>
+      <c r="H33" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
@@ -7565,6 +7665,9 @@
         <f aca="false">Channels!B34</f>
         <v>Key3L</v>
       </c>
+      <c r="H34" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
@@ -7575,6 +7678,9 @@
         <f aca="false">Channels!B35</f>
         <v>Key3R</v>
       </c>
+      <c r="H35" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
@@ -7585,6 +7691,9 @@
         <f aca="false">Channels!B36</f>
         <v>Key4L</v>
       </c>
+      <c r="H36" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
@@ -7595,6 +7704,9 @@
         <f aca="false">Channels!B37</f>
         <v>Key4R</v>
       </c>
+      <c r="H37" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
@@ -7605,6 +7717,9 @@
         <f aca="false">Channels!B38</f>
         <v>Divrs1</v>
       </c>
+      <c r="I38" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
@@ -7615,6 +7730,9 @@
         <f aca="false">Channels!B39</f>
         <v>Divrs2</v>
       </c>
+      <c r="I39" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
@@ -7625,6 +7743,9 @@
         <f aca="false">Channels!B40</f>
         <v>Divrs3</v>
       </c>
+      <c r="I40" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
@@ -7635,6 +7756,9 @@
         <f aca="false">Channels!B41</f>
         <v>Divrs4</v>
       </c>
+      <c r="I41" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
@@ -7645,6 +7769,9 @@
         <f aca="false">Channels!B42</f>
         <v>Lead1</v>
       </c>
+      <c r="J42" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
@@ -7655,6 +7782,9 @@
         <f aca="false">Channels!B43</f>
         <v>Lead2</v>
       </c>
+      <c r="J43" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
@@ -7665,6 +7795,9 @@
         <f aca="false">Channels!B44</f>
         <v>Lead3</v>
       </c>
+      <c r="J44" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
@@ -7675,6 +7808,9 @@
         <f aca="false">Channels!B45</f>
         <v>Lead4</v>
       </c>
+      <c r="J45" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
@@ -7685,6 +7821,9 @@
         <f aca="false">Channels!B46</f>
         <v>BV1</v>
       </c>
+      <c r="K46" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
@@ -7695,6 +7834,9 @@
         <f aca="false">Channels!B47</f>
         <v>BV2</v>
       </c>
+      <c r="K47" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
@@ -7705,6 +7847,9 @@
         <f aca="false">Channels!B48</f>
         <v>BV3</v>
       </c>
+      <c r="K48" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
@@ -7714,6 +7859,9 @@
       <c r="B49" s="1" t="str">
         <f aca="false">Channels!B49</f>
         <v>BV4</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8547,24 +8695,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="120">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -684,7 +684,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+      <selection pane="topLeft" activeCell="J48" activeCellId="0" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2145,7 +2145,12 @@
       <c r="G50" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="2" t="n">
@@ -2169,7 +2174,12 @@
       <c r="G51" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="2" t="n">
@@ -2193,7 +2203,12 @@
       <c r="G52" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I52" s="6"/>
+      <c r="I52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="2" t="n">
@@ -2217,7 +2232,12 @@
       <c r="G53" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="n">
@@ -2241,7 +2261,12 @@
       <c r="G54" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="2" t="n">
@@ -2265,7 +2290,12 @@
       <c r="G55" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I55" s="6"/>
+      <c r="I55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="2" t="n">
@@ -2289,7 +2319,12 @@
       <c r="G56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="2" t="n">
@@ -2313,7 +2348,12 @@
       <c r="G57" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I57" s="6"/>
+      <c r="I57" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="2" t="n">
@@ -2337,7 +2377,12 @@
       <c r="G58" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I58" s="6"/>
+      <c r="I58" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="2" t="n">
@@ -2361,7 +2406,12 @@
       <c r="G59" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="2" t="n">
@@ -2385,7 +2435,12 @@
       <c r="G60" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I60" s="6"/>
+      <c r="I60" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="2" t="n">
@@ -2409,7 +2464,12 @@
       <c r="G61" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I61" s="6"/>
+      <c r="I61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="2" t="n">
@@ -2433,7 +2493,12 @@
       <c r="G62" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I62" s="6"/>
+      <c r="I62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="2" t="n">
@@ -2457,7 +2522,12 @@
       <c r="G63" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I63" s="6"/>
+      <c r="I63" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="2" t="n">
@@ -2481,7 +2551,12 @@
       <c r="G64" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I64" s="6"/>
+      <c r="I64" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="2" t="n">
@@ -2505,7 +2580,12 @@
       <c r="G65" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I65" s="6"/>
+      <c r="I65" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="2" t="n">
@@ -2529,7 +2609,12 @@
       <c r="G66" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I66" s="6"/>
+      <c r="I66" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="2" t="n">
@@ -2553,7 +2638,12 @@
       <c r="G67" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="2" t="n">
@@ -2577,7 +2667,12 @@
       <c r="G68" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I68" s="6"/>
+      <c r="I68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="2" t="n">
@@ -2601,7 +2696,12 @@
       <c r="G69" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I69" s="6"/>
+      <c r="I69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="2" t="n">
@@ -2625,7 +2725,12 @@
       <c r="G70" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I70" s="6"/>
+      <c r="I70" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J70" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="2" t="n">
@@ -2649,7 +2754,12 @@
       <c r="G71" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I71" s="6"/>
+      <c r="I71" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="2" t="n">
@@ -2673,7 +2783,12 @@
       <c r="G72" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I72" s="6"/>
+      <c r="I72" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J72" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="2" t="n">
@@ -2697,7 +2812,12 @@
       <c r="G73" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I73" s="6"/>
+      <c r="I73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="2" t="n">
@@ -2721,7 +2841,12 @@
       <c r="G74" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I74" s="6"/>
+      <c r="I74" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="2" t="n">
@@ -2745,7 +2870,12 @@
       <c r="G75" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I75" s="6"/>
+      <c r="I75" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J75" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="2" t="n">
@@ -2769,7 +2899,12 @@
       <c r="G76" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I76" s="6"/>
+      <c r="I76" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="2" t="n">
@@ -2793,7 +2928,12 @@
       <c r="G77" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I77" s="6"/>
+      <c r="I77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="2" t="n">
@@ -2817,7 +2957,12 @@
       <c r="G78" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I78" s="6"/>
+      <c r="I78" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J78" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="2" t="n">
@@ -2841,7 +2986,12 @@
       <c r="G79" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I79" s="6"/>
+      <c r="I79" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J79" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="2" t="n">
@@ -2865,7 +3015,12 @@
       <c r="G80" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I80" s="6"/>
+      <c r="I80" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="2" t="n">
@@ -2889,7 +3044,12 @@
       <c r="G81" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J81" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="2" t="n">
@@ -2913,7 +3073,12 @@
       <c r="G82" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I82" s="6"/>
+      <c r="I82" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J82" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="2" t="n">
@@ -2937,7 +3102,12 @@
       <c r="G83" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="2" t="n">
@@ -2961,7 +3131,12 @@
       <c r="G84" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I84" s="6"/>
+      <c r="I84" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="2" t="n">
@@ -2985,7 +3160,12 @@
       <c r="G85" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I85" s="6"/>
+      <c r="I85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="2" t="n">
@@ -3009,7 +3189,12 @@
       <c r="G86" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I86" s="6"/>
+      <c r="I86" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="2" t="n">
@@ -3033,7 +3218,12 @@
       <c r="G87" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I87" s="6"/>
+      <c r="I87" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="2" t="n">
@@ -3057,7 +3247,12 @@
       <c r="G88" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I88" s="6"/>
+      <c r="I88" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="2" t="n">
@@ -3081,7 +3276,12 @@
       <c r="G89" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I89" s="6"/>
+      <c r="I89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="2" t="n">
@@ -3105,7 +3305,12 @@
       <c r="G90" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I90" s="6"/>
+      <c r="I90" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="2" t="n">
@@ -3129,7 +3334,12 @@
       <c r="G91" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I91" s="6"/>
+      <c r="I91" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J91" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="2" t="n">
@@ -3153,7 +3363,12 @@
       <c r="G92" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I92" s="6"/>
+      <c r="I92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="2" t="n">
@@ -3177,7 +3392,12 @@
       <c r="G93" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I93" s="6"/>
+      <c r="I93" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J93" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="2" t="n">
@@ -3201,7 +3421,12 @@
       <c r="G94" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I94" s="6"/>
+      <c r="I94" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="2" t="n">
@@ -3225,7 +3450,12 @@
       <c r="G95" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I95" s="6"/>
+      <c r="I95" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="2" t="n">
@@ -3249,7 +3479,12 @@
       <c r="G96" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I96" s="6"/>
+      <c r="I96" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="2" t="n">
@@ -3273,7 +3508,12 @@
       <c r="G97" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I97" s="6"/>
+      <c r="I97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="2" t="n">
@@ -3297,7 +3537,12 @@
       <c r="G98" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I98" s="6"/>
+      <c r="I98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="2" t="n">
@@ -3321,7 +3566,12 @@
       <c r="G99" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I99" s="6"/>
+      <c r="I99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="2" t="n">
@@ -3345,7 +3595,12 @@
       <c r="G100" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I100" s="6"/>
+      <c r="I100" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="2" t="n">
@@ -3369,7 +3624,12 @@
       <c r="G101" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I101" s="6"/>
+      <c r="I101" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="2" t="n">
@@ -3393,7 +3653,12 @@
       <c r="G102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I102" s="6"/>
+      <c r="I102" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="2" t="n">
@@ -3417,7 +3682,12 @@
       <c r="G103" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I103" s="6"/>
+      <c r="I103" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="2" t="n">
@@ -3441,7 +3711,12 @@
       <c r="G104" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I104" s="6"/>
+      <c r="I104" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="2" t="n">
@@ -3465,7 +3740,12 @@
       <c r="G105" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I105" s="6"/>
+      <c r="I105" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="2" t="n">
@@ -3489,7 +3769,12 @@
       <c r="G106" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I106" s="6"/>
+      <c r="I106" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="2" t="n">
@@ -3513,7 +3798,12 @@
       <c r="G107" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I107" s="6"/>
+      <c r="I107" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="2" t="n">
@@ -3537,7 +3827,12 @@
       <c r="G108" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I108" s="6"/>
+      <c r="I108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="2" t="n">
@@ -3561,7 +3856,12 @@
       <c r="G109" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I109" s="6"/>
+      <c r="I109" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="2" t="n">
@@ -3585,7 +3885,12 @@
       <c r="G110" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I110" s="6"/>
+      <c r="I110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="2" t="n">
@@ -3609,7 +3914,12 @@
       <c r="G111" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I111" s="6"/>
+      <c r="I111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="2" t="n">
@@ -3633,7 +3943,12 @@
       <c r="G112" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I112" s="6"/>
+      <c r="I112" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="2" t="n">
@@ -3657,7 +3972,12 @@
       <c r="G113" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I113" s="6"/>
+      <c r="I113" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="2" t="n">
@@ -3681,7 +4001,12 @@
       <c r="G114" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I114" s="6"/>
+      <c r="I114" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="2" t="n">
@@ -3705,7 +4030,12 @@
       <c r="G115" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I115" s="6"/>
+      <c r="I115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="2" t="n">
@@ -3729,7 +4059,12 @@
       <c r="G116" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I116" s="6"/>
+      <c r="I116" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J116" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="2" t="n">
@@ -3753,7 +4088,12 @@
       <c r="G117" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I117" s="6"/>
+      <c r="I117" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="2" t="n">
@@ -3777,7 +4117,12 @@
       <c r="G118" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I118" s="6"/>
+      <c r="I118" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="2" t="n">
@@ -3801,7 +4146,12 @@
       <c r="G119" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I119" s="6"/>
+      <c r="I119" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J119" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="2" t="n">
@@ -3825,7 +4175,12 @@
       <c r="G120" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I120" s="6"/>
+      <c r="I120" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J120" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="2" t="n">
@@ -3849,7 +4204,12 @@
       <c r="G121" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I121" s="6"/>
+      <c r="I121" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J121" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="2" t="n">
@@ -3873,7 +4233,12 @@
       <c r="G122" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I122" s="6"/>
+      <c r="I122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J122" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="2" t="n">
@@ -3897,7 +4262,12 @@
       <c r="G123" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I123" s="6"/>
+      <c r="I123" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J123" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="n">
@@ -3921,7 +4291,12 @@
       <c r="G124" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I124" s="6"/>
+      <c r="I124" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J124" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="2" t="n">
@@ -3945,7 +4320,12 @@
       <c r="G125" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I125" s="6"/>
+      <c r="I125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J125" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="2" t="n">
@@ -3969,7 +4349,12 @@
       <c r="G126" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I126" s="6"/>
+      <c r="I126" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="2" t="n">
@@ -3993,7 +4378,12 @@
       <c r="G127" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I127" s="6"/>
+      <c r="I127" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J127" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="2" t="n">
@@ -4017,7 +4407,12 @@
       <c r="G128" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I128" s="6"/>
+      <c r="I128" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J128" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="2" t="n">
@@ -4041,7 +4436,12 @@
       <c r="G129" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="I129" s="6"/>
+      <c r="I129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
@@ -4104,7 +4504,7 @@
   </sheetPr>
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -7159,8 +7559,8 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K51" activeCellId="0" sqref="K51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="120">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -61,46 +61,49 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
+    <t xml:space="preserve">no</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KickOut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SnTop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SnBot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rack2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ride</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OH R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">black</t>
+  </si>
+  <si>
     <t xml:space="preserve">-inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KickOut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SnTop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SnBot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rack2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Floor2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OH L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OH R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">black</t>
   </si>
   <si>
     <t xml:space="preserve">Cajon</t>
@@ -269,9 +272,6 @@
   </si>
   <si>
     <t xml:space="preserve">Slink Gain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Avantis Local End</t>
@@ -683,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J48" activeCellId="0" sqref="J48"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130:E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -744,11 +744,11 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
+      <c r="E2" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>80</v>
@@ -771,10 +771,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -802,11 +802,11 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>12</v>
+      <c r="E4" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>80</v>
@@ -829,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -860,11 +860,11 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
+      <c r="E6" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>80</v>
@@ -887,10 +887,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -918,11 +918,11 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
+      <c r="E8" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>80</v>
@@ -945,10 +945,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -976,11 +976,11 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>12</v>
+      <c r="E10" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>80</v>
@@ -1003,10 +1003,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -1034,11 +1034,11 @@
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>12</v>
+      <c r="E12" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>80</v>
@@ -1061,10 +1061,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
@@ -1093,10 +1093,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>80</v>
@@ -1113,16 +1113,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
@@ -1142,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -1150,11 +1150,11 @@
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
+      <c r="E16" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>80</v>
@@ -1171,16 +1171,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -1200,19 +1200,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
+      <c r="E18" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>80</v>
@@ -1229,16 +1229,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>30</v>
-      </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -1258,19 +1258,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
+      <c r="E20" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>80</v>
@@ -1287,16 +1287,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>33</v>
-      </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -1316,19 +1316,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
+      <c r="E22" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>80</v>
@@ -1345,16 +1345,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
@@ -1374,19 +1374,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>12</v>
+      <c r="E24" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>80</v>
@@ -1403,16 +1403,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -1432,19 +1432,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>12</v>
+      <c r="E26" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>80</v>
@@ -1461,16 +1461,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>11</v>
@@ -1490,19 +1490,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>12</v>
+      <c r="E28" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>80</v>
@@ -1519,16 +1519,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E29" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>11</v>
@@ -1548,19 +1548,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
+      <c r="E30" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>80</v>
@@ -1577,16 +1577,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>11</v>
@@ -1606,19 +1606,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>12</v>
+      <c r="E32" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>80</v>
@@ -1635,16 +1635,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>11</v>
@@ -1664,19 +1664,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>12</v>
+      <c r="E34" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>80</v>
@@ -1693,16 +1693,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E35" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -1722,19 +1722,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>12</v>
+      <c r="E36" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>80</v>
@@ -1751,16 +1751,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>11</v>
@@ -1780,7 +1780,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>25</v>
@@ -1788,11 +1788,11 @@
       <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="6" t="s">
-        <v>12</v>
+      <c r="E38" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>80</v>
@@ -1809,16 +1809,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>11</v>
@@ -1838,7 +1838,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>25</v>
@@ -1847,10 +1847,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>80</v>
@@ -1867,16 +1867,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E41" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="6" t="s">
-        <v>12</v>
+      <c r="E42" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>80</v>
@@ -1925,16 +1925,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="6" t="s">
-        <v>58</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>11</v>
@@ -1954,19 +1954,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>12</v>
+      <c r="E44" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>80</v>
@@ -1983,16 +1983,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>11</v>
@@ -2012,19 +2012,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>12</v>
+      <c r="E46" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>80</v>
@@ -2041,16 +2041,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C47" s="6" t="s">
-        <v>63</v>
-      </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E47" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>11</v>
@@ -2070,19 +2070,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>12</v>
+      <c r="E48" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>80</v>
@@ -2099,16 +2099,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E49" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>11</v>
@@ -2136,11 +2136,11 @@
       <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="6" t="s">
-        <v>12</v>
+      <c r="E50" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>80</v>
@@ -2163,10 +2163,10 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E51" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>11</v>
@@ -2194,11 +2194,11 @@
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>12</v>
+      <c r="E52" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>80</v>
@@ -2221,10 +2221,10 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>11</v>
@@ -2252,11 +2252,11 @@
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>12</v>
+      <c r="E54" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>80</v>
@@ -2279,10 +2279,10 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E55" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>11</v>
@@ -2310,11 +2310,11 @@
       <c r="D56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>12</v>
+      <c r="E56" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>80</v>
@@ -2337,10 +2337,10 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E57" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>11</v>
@@ -2368,11 +2368,11 @@
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="6" t="s">
-        <v>12</v>
+      <c r="E58" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>80</v>
@@ -2395,10 +2395,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E59" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>11</v>
@@ -2426,11 +2426,11 @@
       <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="6" t="s">
-        <v>12</v>
+      <c r="E60" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>80</v>
@@ -2453,10 +2453,10 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E61" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>11</v>
@@ -2484,11 +2484,11 @@
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="6" t="s">
-        <v>12</v>
+      <c r="E62" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>80</v>
@@ -2511,10 +2511,10 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E63" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>11</v>
@@ -2542,11 +2542,11 @@
       <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="6" t="s">
-        <v>12</v>
+      <c r="E64" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>80</v>
@@ -2569,10 +2569,10 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E65" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>11</v>
@@ -2601,10 +2601,10 @@
         <v>11</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>80</v>
@@ -2627,10 +2627,10 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E67" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>11</v>
@@ -2658,11 +2658,11 @@
       <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>12</v>
+      <c r="E68" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>80</v>
@@ -2685,10 +2685,10 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E69" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>11</v>
@@ -2716,11 +2716,11 @@
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>12</v>
+      <c r="E70" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>80</v>
@@ -2743,10 +2743,10 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E71" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>11</v>
@@ -2774,11 +2774,11 @@
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>12</v>
+      <c r="E72" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>80</v>
@@ -2801,10 +2801,10 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E73" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>11</v>
@@ -2832,11 +2832,11 @@
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>12</v>
+      <c r="E74" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>80</v>
@@ -2859,10 +2859,10 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E75" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E75" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>11</v>
@@ -2890,11 +2890,11 @@
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>12</v>
+      <c r="E76" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>80</v>
@@ -2917,10 +2917,10 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E77" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>11</v>
@@ -2948,11 +2948,11 @@
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="6" t="s">
-        <v>12</v>
+      <c r="E78" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>80</v>
@@ -2975,10 +2975,10 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>11</v>
@@ -3006,11 +3006,11 @@
       <c r="D80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="6" t="s">
-        <v>12</v>
+      <c r="E80" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>80</v>
@@ -3033,10 +3033,10 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E81" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>11</v>
@@ -3064,11 +3064,11 @@
       <c r="D82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="6" t="s">
-        <v>12</v>
+      <c r="E82" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>80</v>
@@ -3091,10 +3091,10 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E83" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E83" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>11</v>
@@ -3122,11 +3122,11 @@
       <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>12</v>
+      <c r="E84" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>80</v>
@@ -3149,10 +3149,10 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E85" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>11</v>
@@ -3180,11 +3180,11 @@
       <c r="D86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>12</v>
+      <c r="E86" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>80</v>
@@ -3207,10 +3207,10 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E87" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>11</v>
@@ -3238,11 +3238,11 @@
       <c r="D88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="6" t="s">
-        <v>12</v>
+      <c r="E88" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>80</v>
@@ -3265,10 +3265,10 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E89" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E89" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>11</v>
@@ -3296,11 +3296,11 @@
       <c r="D90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>12</v>
+      <c r="E90" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>80</v>
@@ -3323,10 +3323,10 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E91" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
@@ -3355,10 +3355,10 @@
         <v>11</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>80</v>
@@ -3381,10 +3381,10 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E93" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
@@ -3412,11 +3412,11 @@
       <c r="D94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>12</v>
+      <c r="E94" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>80</v>
@@ -3439,10 +3439,10 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E95" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>11</v>
@@ -3470,11 +3470,11 @@
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="6" t="s">
-        <v>12</v>
+      <c r="E96" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>80</v>
@@ -3497,10 +3497,10 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E97" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>11</v>
@@ -3528,11 +3528,11 @@
       <c r="D98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="6" t="s">
-        <v>12</v>
+      <c r="E98" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>80</v>
@@ -3555,10 +3555,10 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E99" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>11</v>
@@ -3586,11 +3586,11 @@
       <c r="D100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="6" t="s">
-        <v>12</v>
+      <c r="E100" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>80</v>
@@ -3613,10 +3613,10 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E101" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>11</v>
@@ -3644,11 +3644,11 @@
       <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="6" t="s">
-        <v>12</v>
+      <c r="E102" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>80</v>
@@ -3671,10 +3671,10 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E103" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>11</v>
@@ -3702,11 +3702,11 @@
       <c r="D104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="6" t="s">
-        <v>12</v>
+      <c r="E104" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>80</v>
@@ -3729,10 +3729,10 @@
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>11</v>
@@ -3760,11 +3760,11 @@
       <c r="D106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="6" t="s">
-        <v>12</v>
+      <c r="E106" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>80</v>
@@ -3787,10 +3787,10 @@
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E107" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>11</v>
@@ -3818,11 +3818,11 @@
       <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="6" t="s">
-        <v>12</v>
+      <c r="E108" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>80</v>
@@ -3845,10 +3845,10 @@
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E109" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>11</v>
@@ -3876,11 +3876,11 @@
       <c r="D110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>12</v>
+      <c r="E110" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>80</v>
@@ -3903,10 +3903,10 @@
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E111" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>11</v>
@@ -3934,11 +3934,11 @@
       <c r="D112" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>12</v>
+      <c r="E112" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>80</v>
@@ -3961,10 +3961,10 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E113" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E113" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>11</v>
@@ -3992,11 +3992,11 @@
       <c r="D114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>12</v>
+      <c r="E114" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>80</v>
@@ -4019,10 +4019,10 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E115" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E115" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>11</v>
@@ -4050,11 +4050,11 @@
       <c r="D116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>12</v>
+      <c r="E116" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>80</v>
@@ -4077,10 +4077,10 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E117" s="6" t="n">
+        <v>-45</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>11</v>
@@ -4109,10 +4109,10 @@
         <v>11</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>80</v>
@@ -4135,10 +4135,10 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E119" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E119" s="6" t="n">
+        <v>10</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>11</v>
@@ -4166,11 +4166,11 @@
       <c r="D120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E120" s="6" t="s">
-        <v>12</v>
+      <c r="E120" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>80</v>
@@ -4193,10 +4193,10 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E121" s="6" t="n">
+        <v>0</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>11</v>
@@ -4224,11 +4224,11 @@
       <c r="D122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>12</v>
+      <c r="E122" s="6" t="n">
+        <v>-5</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>80</v>
@@ -4251,10 +4251,10 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E123" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E123" s="6" t="n">
+        <v>-10</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>11</v>
@@ -4282,11 +4282,11 @@
       <c r="D124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E124" s="6" t="s">
-        <v>12</v>
+      <c r="E124" s="6" t="n">
+        <v>-15</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>80</v>
@@ -4309,10 +4309,10 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E125" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E125" s="6" t="n">
+        <v>-20</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>11</v>
@@ -4340,11 +4340,11 @@
       <c r="D126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E126" s="6" t="s">
-        <v>12</v>
+      <c r="E126" s="6" t="n">
+        <v>-25</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>80</v>
@@ -4367,10 +4367,10 @@
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E127" s="6" t="n">
+        <v>-30</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>11</v>
@@ -4398,11 +4398,11 @@
       <c r="D128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="6" t="s">
-        <v>12</v>
+      <c r="E128" s="6" t="n">
+        <v>-35</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>80</v>
@@ -4425,10 +4425,10 @@
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>12</v>
+        <v>12</v>
+      </c>
+      <c r="E129" s="6" t="n">
+        <v>-40</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>11</v>
@@ -4445,9 +4445,11 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
+      <c r="E131" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576 I1:I1048576">
@@ -4478,7 +4480,7 @@
       <formula1>"blue,red,yellow,green,light blue,white,purple,black"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E129" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="E2:E131" type="list">
       <formula1>"+10,+5,0,-5,-10,-15,-20,-25,-30,-35,-40,-45,-inf"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -4504,8 +4506,8 @@
   </sheetPr>
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="E130:E131 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4522,49 +4524,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L1" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,37 +4574,37 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M2" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q2" s="6" t="n">
         <v>25</v>
@@ -4613,37 +4615,37 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q3" s="6" t="n">
         <v>25</v>
@@ -4654,37 +4656,37 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="6" t="n">
         <v>25</v>
@@ -4695,37 +4697,37 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E5" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="6" t="n">
         <v>25</v>
@@ -4736,37 +4738,37 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q6" s="6" t="n">
         <v>25</v>
@@ -4777,37 +4779,37 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="6" t="n">
         <v>25</v>
@@ -4818,37 +4820,37 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q8" s="6" t="n">
         <v>25</v>
@@ -4859,37 +4861,37 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I9" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q9" s="6" t="n">
         <v>25</v>
@@ -4900,37 +4902,37 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="6" t="n">
         <v>25</v>
@@ -4941,37 +4943,37 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="6" t="n">
         <v>25</v>
@@ -4982,37 +4984,37 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="6" t="n">
         <v>25</v>
@@ -5026,37 +5028,37 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="6" t="n">
         <v>25</v>
@@ -5067,37 +5069,37 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="6" t="n">
         <v>25</v>
@@ -5108,37 +5110,37 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E15" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I15" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="6" t="n">
         <v>25</v>
@@ -5149,37 +5151,37 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="6" t="n">
         <v>25</v>
@@ -5190,37 +5192,37 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E17" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q17" s="6" t="n">
         <v>25</v>
@@ -5231,37 +5233,37 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="6" t="n">
         <v>25</v>
@@ -5272,37 +5274,37 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q19" s="6" t="n">
         <v>25</v>
@@ -5313,37 +5315,37 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="6" t="n">
         <v>25</v>
@@ -5354,37 +5356,37 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E21" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I21" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q21" s="6" t="n">
         <v>25</v>
@@ -5395,37 +5397,37 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="6" t="n">
         <v>25</v>
@@ -5436,37 +5438,37 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q23" s="6" t="n">
         <v>25</v>
@@ -5477,37 +5479,37 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="6" t="n">
         <v>25</v>
@@ -5518,37 +5520,37 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E25" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q25" s="6" t="n">
         <v>25</v>
@@ -5559,37 +5561,37 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="6" t="n">
         <v>25</v>
@@ -5600,37 +5602,37 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E27" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q27" s="6" t="n">
         <v>25</v>
@@ -5641,37 +5643,37 @@
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="6" t="n">
         <v>25</v>
@@ -5682,37 +5684,37 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E29" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I29" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="6" t="n">
         <v>25</v>
@@ -5723,37 +5725,37 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="6" t="n">
         <v>25</v>
@@ -5764,37 +5766,37 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q31" s="6" t="n">
         <v>25</v>
@@ -5805,37 +5807,37 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q32" s="6" t="n">
         <v>25</v>
@@ -5849,37 +5851,37 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E33" s="6" t="n">
         <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="I33" s="6" t="n">
         <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q33" s="6" t="n">
         <v>25</v>
@@ -5890,19 +5892,19 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q34" s="6" t="n">
         <v>25</v>
@@ -5913,19 +5915,19 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E35" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q35" s="6" t="n">
         <v>25</v>
@@ -5936,19 +5938,19 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q36" s="6" t="n">
         <v>25</v>
@@ -5959,19 +5961,19 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E37" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q37" s="6" t="n">
         <v>25</v>
@@ -5982,19 +5984,19 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="6" t="n">
         <v>25</v>
@@ -6005,19 +6007,19 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E39" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q39" s="6" t="n">
         <v>25</v>
@@ -6028,19 +6030,19 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q40" s="6" t="n">
         <v>25</v>
@@ -6051,19 +6053,19 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E41" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q41" s="6" t="n">
         <v>25</v>
@@ -6074,19 +6076,19 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q42" s="6" t="n">
         <v>25</v>
@@ -6097,19 +6099,19 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E43" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q43" s="6" t="n">
         <v>25</v>
@@ -6120,19 +6122,19 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q44" s="6" t="n">
         <v>25</v>
@@ -6143,19 +6145,19 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E45" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q45" s="6" t="n">
         <v>25</v>
@@ -6166,19 +6168,19 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q46" s="6" t="n">
         <v>25</v>
@@ -6189,19 +6191,19 @@
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E47" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q47" s="6" t="n">
         <v>25</v>
@@ -6212,19 +6214,19 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E48" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q48" s="6" t="n">
         <v>25</v>
@@ -6238,19 +6240,19 @@
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q49" s="6" t="n">
         <v>25</v>
@@ -6261,19 +6263,19 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q50" s="6" t="n">
         <v>25</v>
@@ -6284,19 +6286,19 @@
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E51" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q51" s="6" t="n">
         <v>25</v>
@@ -6307,19 +6309,19 @@
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q52" s="6" t="n">
         <v>25</v>
@@ -6330,19 +6332,19 @@
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E53" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q53" s="6" t="n">
         <v>25</v>
@@ -6353,19 +6355,19 @@
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q54" s="6" t="n">
         <v>25</v>
@@ -6376,19 +6378,19 @@
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q55" s="6" t="n">
         <v>25</v>
@@ -6399,19 +6401,19 @@
         <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q56" s="6" t="n">
         <v>25</v>
@@ -6422,19 +6424,19 @@
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E57" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q57" s="6" t="n">
         <v>25</v>
@@ -6445,19 +6447,19 @@
         <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q58" s="6" t="n">
         <v>25</v>
@@ -6468,19 +6470,19 @@
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E59" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q59" s="6" t="n">
         <v>25</v>
@@ -6491,19 +6493,19 @@
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q60" s="6" t="n">
         <v>25</v>
@@ -6514,19 +6516,19 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E61" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q61" s="6" t="n">
         <v>25</v>
@@ -6537,19 +6539,19 @@
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q62" s="6" t="n">
         <v>25</v>
@@ -6560,19 +6562,19 @@
         <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E63" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q63" s="6" t="n">
         <v>25</v>
@@ -6583,19 +6585,19 @@
         <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="E64" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q64" s="6" t="n">
         <v>25</v>
@@ -6609,19 +6611,19 @@
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="E65" s="6" t="n">
         <v>25</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q65" s="6" t="n">
         <v>25</v>
@@ -6635,10 +6637,10 @@
         <v>65</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q66" s="6" t="n">
         <v>25</v>
@@ -6649,10 +6651,10 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q67" s="6" t="n">
         <v>25</v>
@@ -6663,10 +6665,10 @@
         <v>67</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q68" s="6" t="n">
         <v>25</v>
@@ -6677,10 +6679,10 @@
         <v>68</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q69" s="6" t="n">
         <v>25</v>
@@ -6691,10 +6693,10 @@
         <v>69</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q70" s="6" t="n">
         <v>25</v>
@@ -6705,10 +6707,10 @@
         <v>70</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q71" s="6" t="n">
         <v>25</v>
@@ -6719,10 +6721,10 @@
         <v>71</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q72" s="6" t="n">
         <v>25</v>
@@ -6733,10 +6735,10 @@
         <v>72</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q73" s="6" t="n">
         <v>25</v>
@@ -6747,10 +6749,10 @@
         <v>73</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q74" s="6" t="n">
         <v>25</v>
@@ -6761,10 +6763,10 @@
         <v>74</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q75" s="6" t="n">
         <v>25</v>
@@ -6775,10 +6777,10 @@
         <v>75</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q76" s="6" t="n">
         <v>25</v>
@@ -6789,10 +6791,10 @@
         <v>76</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q77" s="6" t="n">
         <v>25</v>
@@ -6803,10 +6805,10 @@
         <v>77</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q78" s="6" t="n">
         <v>25</v>
@@ -6817,10 +6819,10 @@
         <v>78</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q79" s="6" t="n">
         <v>25</v>
@@ -6831,10 +6833,10 @@
         <v>79</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q80" s="6" t="n">
         <v>25</v>
@@ -6845,10 +6847,10 @@
         <v>80</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q81" s="6" t="n">
         <v>25</v>
@@ -6859,10 +6861,10 @@
         <v>81</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q82" s="6" t="n">
         <v>25</v>
@@ -6873,10 +6875,10 @@
         <v>82</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q83" s="6" t="n">
         <v>25</v>
@@ -6887,10 +6889,10 @@
         <v>83</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q84" s="6" t="n">
         <v>25</v>
@@ -6901,10 +6903,10 @@
         <v>84</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q85" s="6" t="n">
         <v>25</v>
@@ -6915,10 +6917,10 @@
         <v>85</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q86" s="6" t="n">
         <v>25</v>
@@ -6929,10 +6931,10 @@
         <v>86</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q87" s="6" t="n">
         <v>25</v>
@@ -6943,10 +6945,10 @@
         <v>87</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q88" s="6" t="n">
         <v>25</v>
@@ -6957,10 +6959,10 @@
         <v>88</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q89" s="6" t="n">
         <v>25</v>
@@ -6971,10 +6973,10 @@
         <v>89</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q90" s="6" t="n">
         <v>25</v>
@@ -6985,10 +6987,10 @@
         <v>90</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q91" s="6" t="n">
         <v>25</v>
@@ -6999,10 +7001,10 @@
         <v>91</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q92" s="6" t="n">
         <v>25</v>
@@ -7013,10 +7015,10 @@
         <v>92</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q93" s="6" t="n">
         <v>25</v>
@@ -7027,10 +7029,10 @@
         <v>93</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q94" s="6" t="n">
         <v>25</v>
@@ -7041,10 +7043,10 @@
         <v>94</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q95" s="6" t="n">
         <v>25</v>
@@ -7058,10 +7060,10 @@
         <v>95</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q96" s="6" t="n">
         <v>25</v>
@@ -7075,10 +7077,10 @@
         <v>96</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q97" s="6" t="n">
         <v>25</v>
@@ -7089,10 +7091,10 @@
         <v>97</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q98" s="6" t="n">
         <v>25</v>
@@ -7103,10 +7105,10 @@
         <v>98</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q99" s="6" t="n">
         <v>25</v>
@@ -7117,10 +7119,10 @@
         <v>99</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q100" s="6" t="n">
         <v>25</v>
@@ -7131,10 +7133,10 @@
         <v>100</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q101" s="6" t="n">
         <v>25</v>
@@ -7145,10 +7147,10 @@
         <v>101</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q102" s="6" t="n">
         <v>25</v>
@@ -7159,10 +7161,10 @@
         <v>102</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q103" s="6" t="n">
         <v>25</v>
@@ -7173,10 +7175,10 @@
         <v>103</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q104" s="6" t="n">
         <v>25</v>
@@ -7187,10 +7189,10 @@
         <v>104</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q105" s="6" t="n">
         <v>25</v>
@@ -7201,10 +7203,10 @@
         <v>105</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q106" s="6" t="n">
         <v>25</v>
@@ -7215,10 +7217,10 @@
         <v>106</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q107" s="6" t="n">
         <v>25</v>
@@ -7229,10 +7231,10 @@
         <v>107</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q108" s="6" t="n">
         <v>25</v>
@@ -7243,10 +7245,10 @@
         <v>108</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q109" s="6" t="n">
         <v>25</v>
@@ -7257,10 +7259,10 @@
         <v>109</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q110" s="6" t="n">
         <v>25</v>
@@ -7271,10 +7273,10 @@
         <v>110</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q111" s="6" t="n">
         <v>25</v>
@@ -7285,10 +7287,10 @@
         <v>111</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q112" s="6" t="n">
         <v>25</v>
@@ -7299,10 +7301,10 @@
         <v>112</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q113" s="6" t="n">
         <v>25</v>
@@ -7313,10 +7315,10 @@
         <v>113</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q114" s="6" t="n">
         <v>25</v>
@@ -7327,10 +7329,10 @@
         <v>114</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q115" s="6" t="n">
         <v>25</v>
@@ -7341,10 +7343,10 @@
         <v>115</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q116" s="6" t="n">
         <v>25</v>
@@ -7355,10 +7357,10 @@
         <v>116</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q117" s="6" t="n">
         <v>25</v>
@@ -7369,10 +7371,10 @@
         <v>117</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q118" s="6" t="n">
         <v>25</v>
@@ -7383,10 +7385,10 @@
         <v>118</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q119" s="6" t="n">
         <v>25</v>
@@ -7397,10 +7399,10 @@
         <v>119</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q120" s="6" t="n">
         <v>25</v>
@@ -7411,10 +7413,10 @@
         <v>120</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q121" s="6" t="n">
         <v>25</v>
@@ -7425,10 +7427,10 @@
         <v>121</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q122" s="6" t="n">
         <v>25</v>
@@ -7439,10 +7441,10 @@
         <v>122</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q123" s="6" t="n">
         <v>25</v>
@@ -7453,10 +7455,10 @@
         <v>123</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q124" s="6" t="n">
         <v>25</v>
@@ -7467,10 +7469,10 @@
         <v>124</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q125" s="6" t="n">
         <v>25</v>
@@ -7481,10 +7483,10 @@
         <v>125</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q126" s="6" t="n">
         <v>25</v>
@@ -7495,10 +7497,10 @@
         <v>126</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q127" s="6" t="n">
         <v>25</v>
@@ -7509,10 +7511,10 @@
         <v>127</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="Q128" s="6" t="n">
         <v>25</v>
@@ -7526,10 +7528,10 @@
         <v>128</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="Q129" s="6" t="n">
         <v>25</v>
@@ -7559,8 +7561,8 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="E130:E131 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7814,6 +7816,9 @@
         <f aca="false">Channels!B14</f>
         <v>empty</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
@@ -7837,6 +7842,9 @@
         <f aca="false">Channels!B16</f>
         <v>RoomL</v>
       </c>
+      <c r="D16" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
@@ -7846,6 +7854,9 @@
       <c r="B17" s="1" t="str">
         <f aca="false">Channels!B17</f>
         <v>RoomR</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9082,8 +9093,8 @@
   </sheetPr>
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E130:E131 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="120">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -61,7 +61,7 @@
     <t xml:space="preserve">yes</t>
   </si>
   <si>
-    <t xml:space="preserve">no</t>
+    <t xml:space="preserve">-inf</t>
   </si>
   <si>
     <t xml:space="preserve">KickOut</t>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">black</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-inf</t>
   </si>
   <si>
     <t xml:space="preserve">Cajon</t>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t xml:space="preserve">Slink Gain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Avantis Local End</t>
@@ -684,7 +684,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E130" activeCellId="0" sqref="E130:E131"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -744,11 +744,11 @@
       <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>10</v>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>80</v>
@@ -771,10 +771,10 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
@@ -802,11 +802,11 @@
       <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6" t="n">
-        <v>0</v>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>80</v>
@@ -829,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>-5</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>11</v>
@@ -860,11 +860,11 @@
       <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6" t="n">
-        <v>-10</v>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>80</v>
@@ -887,10 +887,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="6" t="n">
-        <v>-15</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>11</v>
@@ -918,11 +918,11 @@
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="n">
-        <v>-20</v>
+      <c r="E8" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>80</v>
@@ -945,10 +945,10 @@
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="n">
-        <v>-25</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>11</v>
@@ -976,11 +976,11 @@
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6" t="n">
-        <v>-30</v>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>80</v>
@@ -1003,10 +1003,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="n">
-        <v>-35</v>
+        <v>11</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
@@ -1034,11 +1034,11 @@
       <c r="D12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="6" t="n">
-        <v>-40</v>
+      <c r="E12" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>80</v>
@@ -1061,10 +1061,10 @@
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="6" t="n">
-        <v>-45</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>11</v>
@@ -1093,10 +1093,10 @@
         <v>11</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>80</v>
@@ -1113,16 +1113,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>11</v>
@@ -1142,7 +1142,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>10</v>
@@ -1150,11 +1150,11 @@
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6" t="n">
-        <v>5</v>
+      <c r="E16" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>80</v>
@@ -1171,16 +1171,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>11</v>
@@ -1200,19 +1200,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="6" t="n">
-        <v>-5</v>
+      <c r="E18" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>80</v>
@@ -1229,16 +1229,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="6" t="n">
-        <v>-10</v>
+        <v>11</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -1258,19 +1258,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E20" s="6" t="n">
-        <v>-15</v>
+      <c r="E20" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>80</v>
@@ -1287,16 +1287,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>-20</v>
+        <v>11</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
@@ -1316,19 +1316,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E22" s="6" t="n">
-        <v>-25</v>
+      <c r="E22" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>80</v>
@@ -1345,16 +1345,16 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" s="6" t="n">
-        <v>-30</v>
+        <v>11</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
@@ -1374,19 +1374,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E24" s="6" t="n">
-        <v>-35</v>
+      <c r="E24" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>80</v>
@@ -1403,16 +1403,16 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="6" t="n">
-        <v>-40</v>
+        <v>11</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>11</v>
@@ -1432,19 +1432,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="6" t="n">
-        <v>-45</v>
+      <c r="E26" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>80</v>
@@ -1461,16 +1461,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>11</v>
@@ -1490,19 +1490,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="6" t="n">
-        <v>10</v>
+      <c r="E28" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>80</v>
@@ -1519,16 +1519,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="6" t="n">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>11</v>
@@ -1548,19 +1548,19 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E30" s="6" t="n">
-        <v>0</v>
+      <c r="E30" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>80</v>
@@ -1577,16 +1577,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E31" s="6" t="n">
-        <v>-5</v>
+        <v>11</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>11</v>
@@ -1606,19 +1606,19 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E32" s="6" t="n">
-        <v>-10</v>
+      <c r="E32" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>80</v>
@@ -1635,16 +1635,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E33" s="6" t="n">
-        <v>-15</v>
+        <v>11</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>11</v>
@@ -1664,19 +1664,19 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E34" s="6" t="n">
-        <v>-20</v>
+      <c r="E34" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>80</v>
@@ -1693,16 +1693,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E35" s="6" t="n">
-        <v>-25</v>
+        <v>11</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>11</v>
@@ -1722,19 +1722,19 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E36" s="6" t="n">
-        <v>-30</v>
+      <c r="E36" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>80</v>
@@ -1751,16 +1751,16 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="6" t="n">
-        <v>-35</v>
+        <v>11</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>11</v>
@@ -1780,7 +1780,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>25</v>
@@ -1788,11 +1788,11 @@
       <c r="D38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E38" s="6" t="n">
-        <v>-40</v>
+      <c r="E38" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>80</v>
@@ -1809,16 +1809,16 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>-45</v>
+        <v>11</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>11</v>
@@ -1838,7 +1838,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>25</v>
@@ -1847,10 +1847,10 @@
         <v>11</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>80</v>
@@ -1867,16 +1867,16 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>11</v>
@@ -1896,19 +1896,19 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C42" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="D42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E42" s="6" t="n">
-        <v>5</v>
+      <c r="E42" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>80</v>
@@ -1925,16 +1925,16 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>11</v>
@@ -1954,19 +1954,19 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E44" s="6" t="n">
-        <v>-5</v>
+      <c r="E44" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>80</v>
@@ -1983,16 +1983,16 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="6" t="n">
-        <v>-10</v>
+        <v>11</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>11</v>
@@ -2012,19 +2012,19 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C46" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E46" s="6" t="n">
-        <v>-15</v>
+      <c r="E46" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>80</v>
@@ -2041,16 +2041,16 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="6" t="n">
-        <v>-20</v>
+        <v>11</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>11</v>
@@ -2070,19 +2070,19 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E48" s="6" t="n">
-        <v>-25</v>
+      <c r="E48" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>80</v>
@@ -2099,16 +2099,16 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="6" t="n">
-        <v>-30</v>
+        <v>11</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>11</v>
@@ -2136,11 +2136,11 @@
       <c r="D50" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E50" s="6" t="n">
-        <v>-35</v>
+      <c r="E50" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>80</v>
@@ -2163,10 +2163,10 @@
         <v>25</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="6" t="n">
-        <v>-40</v>
+        <v>11</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>11</v>
@@ -2194,11 +2194,11 @@
       <c r="D52" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="6" t="n">
-        <v>-45</v>
+      <c r="E52" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>80</v>
@@ -2221,10 +2221,10 @@
         <v>25</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>11</v>
@@ -2252,11 +2252,11 @@
       <c r="D54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E54" s="6" t="n">
-        <v>10</v>
+      <c r="E54" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>80</v>
@@ -2279,10 +2279,10 @@
         <v>25</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E55" s="6" t="n">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>11</v>
@@ -2310,11 +2310,11 @@
       <c r="D56" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E56" s="6" t="n">
-        <v>0</v>
+      <c r="E56" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>80</v>
@@ -2337,10 +2337,10 @@
         <v>25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="6" t="n">
-        <v>-5</v>
+        <v>11</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>11</v>
@@ -2368,11 +2368,11 @@
       <c r="D58" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E58" s="6" t="n">
-        <v>-10</v>
+      <c r="E58" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>80</v>
@@ -2395,10 +2395,10 @@
         <v>25</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="6" t="n">
-        <v>-15</v>
+        <v>11</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>11</v>
@@ -2426,11 +2426,11 @@
       <c r="D60" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="6" t="n">
-        <v>-20</v>
+      <c r="E60" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>80</v>
@@ -2453,10 +2453,10 @@
         <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="6" t="n">
-        <v>-25</v>
+        <v>11</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>11</v>
@@ -2484,11 +2484,11 @@
       <c r="D62" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E62" s="6" t="n">
-        <v>-30</v>
+      <c r="E62" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>80</v>
@@ -2511,10 +2511,10 @@
         <v>25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="6" t="n">
-        <v>-35</v>
+        <v>11</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>11</v>
@@ -2542,11 +2542,11 @@
       <c r="D64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E64" s="6" t="n">
-        <v>-40</v>
+      <c r="E64" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>80</v>
@@ -2569,10 +2569,10 @@
         <v>25</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="6" t="n">
-        <v>-45</v>
+        <v>11</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>11</v>
@@ -2601,10 +2601,10 @@
         <v>11</v>
       </c>
       <c r="E66" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>80</v>
@@ -2627,10 +2627,10 @@
         <v>25</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E67" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>11</v>
@@ -2658,11 +2658,11 @@
       <c r="D68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E68" s="6" t="n">
-        <v>5</v>
+      <c r="E68" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>80</v>
@@ -2685,10 +2685,10 @@
         <v>25</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>11</v>
@@ -2716,11 +2716,11 @@
       <c r="D70" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E70" s="6" t="n">
-        <v>-5</v>
+      <c r="E70" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>80</v>
@@ -2743,10 +2743,10 @@
         <v>25</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E71" s="6" t="n">
-        <v>-10</v>
+        <v>11</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>11</v>
@@ -2774,11 +2774,11 @@
       <c r="D72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E72" s="6" t="n">
-        <v>-15</v>
+      <c r="E72" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>80</v>
@@ -2801,10 +2801,10 @@
         <v>25</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="6" t="n">
-        <v>-20</v>
+        <v>11</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>11</v>
@@ -2832,11 +2832,11 @@
       <c r="D74" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E74" s="6" t="n">
-        <v>-25</v>
+      <c r="E74" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>80</v>
@@ -2859,10 +2859,10 @@
         <v>25</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E75" s="6" t="n">
-        <v>-30</v>
+        <v>11</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>11</v>
@@ -2890,11 +2890,11 @@
       <c r="D76" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="6" t="n">
-        <v>-35</v>
+      <c r="E76" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>80</v>
@@ -2917,10 +2917,10 @@
         <v>25</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="6" t="n">
-        <v>-40</v>
+        <v>11</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>11</v>
@@ -2948,11 +2948,11 @@
       <c r="D78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="6" t="n">
-        <v>-45</v>
+      <c r="E78" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>80</v>
@@ -2975,10 +2975,10 @@
         <v>25</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E79" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>11</v>
@@ -3006,11 +3006,11 @@
       <c r="D80" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E80" s="6" t="n">
-        <v>10</v>
+      <c r="E80" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>80</v>
@@ -3033,10 +3033,10 @@
         <v>25</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="6" t="n">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>11</v>
@@ -3064,11 +3064,11 @@
       <c r="D82" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E82" s="6" t="n">
-        <v>0</v>
+      <c r="E82" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>80</v>
@@ -3091,10 +3091,10 @@
         <v>25</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83" s="6" t="n">
-        <v>-5</v>
+        <v>11</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>11</v>
@@ -3122,11 +3122,11 @@
       <c r="D84" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E84" s="6" t="n">
-        <v>-10</v>
+      <c r="E84" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>80</v>
@@ -3149,10 +3149,10 @@
         <v>25</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" s="6" t="n">
-        <v>-15</v>
+        <v>11</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>11</v>
@@ -3180,11 +3180,11 @@
       <c r="D86" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E86" s="6" t="n">
-        <v>-20</v>
+      <c r="E86" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>80</v>
@@ -3207,10 +3207,10 @@
         <v>25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E87" s="6" t="n">
-        <v>-25</v>
+        <v>11</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>11</v>
@@ -3238,11 +3238,11 @@
       <c r="D88" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E88" s="6" t="n">
-        <v>-30</v>
+      <c r="E88" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>80</v>
@@ -3265,10 +3265,10 @@
         <v>25</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E89" s="6" t="n">
-        <v>-35</v>
+        <v>11</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>11</v>
@@ -3296,11 +3296,11 @@
       <c r="D90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E90" s="6" t="n">
-        <v>-40</v>
+      <c r="E90" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>80</v>
@@ -3323,10 +3323,10 @@
         <v>25</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="6" t="n">
-        <v>-45</v>
+        <v>11</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>11</v>
@@ -3355,10 +3355,10 @@
         <v>11</v>
       </c>
       <c r="E92" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>80</v>
@@ -3381,10 +3381,10 @@
         <v>25</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>11</v>
@@ -3412,11 +3412,11 @@
       <c r="D94" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E94" s="6" t="n">
-        <v>5</v>
+      <c r="E94" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>80</v>
@@ -3439,10 +3439,10 @@
         <v>25</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>11</v>
@@ -3470,11 +3470,11 @@
       <c r="D96" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="6" t="n">
-        <v>-5</v>
+      <c r="E96" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>80</v>
@@ -3497,10 +3497,10 @@
         <v>25</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="6" t="n">
-        <v>-10</v>
+        <v>11</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>11</v>
@@ -3528,11 +3528,11 @@
       <c r="D98" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E98" s="6" t="n">
-        <v>-15</v>
+      <c r="E98" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>80</v>
@@ -3555,10 +3555,10 @@
         <v>25</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="6" t="n">
-        <v>-20</v>
+        <v>11</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>11</v>
@@ -3586,11 +3586,11 @@
       <c r="D100" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="6" t="n">
-        <v>-25</v>
+      <c r="E100" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>80</v>
@@ -3613,10 +3613,10 @@
         <v>25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="6" t="n">
-        <v>-30</v>
+        <v>11</v>
+      </c>
+      <c r="E101" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>11</v>
@@ -3644,11 +3644,11 @@
       <c r="D102" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E102" s="6" t="n">
-        <v>-35</v>
+      <c r="E102" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>80</v>
@@ -3671,10 +3671,10 @@
         <v>25</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="6" t="n">
-        <v>-40</v>
+        <v>11</v>
+      </c>
+      <c r="E103" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>11</v>
@@ -3702,11 +3702,11 @@
       <c r="D104" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E104" s="6" t="n">
-        <v>-45</v>
+      <c r="E104" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>80</v>
@@ -3729,10 +3729,10 @@
         <v>25</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E105" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>11</v>
@@ -3760,11 +3760,11 @@
       <c r="D106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E106" s="6" t="n">
-        <v>10</v>
+      <c r="E106" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>80</v>
@@ -3787,10 +3787,10 @@
         <v>25</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="6" t="n">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>11</v>
@@ -3818,11 +3818,11 @@
       <c r="D108" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E108" s="6" t="n">
-        <v>0</v>
+      <c r="E108" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>80</v>
@@ -3845,10 +3845,10 @@
         <v>25</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="6" t="n">
-        <v>-5</v>
+        <v>11</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>11</v>
@@ -3876,11 +3876,11 @@
       <c r="D110" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E110" s="6" t="n">
-        <v>-10</v>
+      <c r="E110" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>80</v>
@@ -3903,10 +3903,10 @@
         <v>25</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E111" s="6" t="n">
-        <v>-15</v>
+        <v>11</v>
+      </c>
+      <c r="E111" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>11</v>
@@ -3934,11 +3934,11 @@
       <c r="D112" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E112" s="6" t="n">
-        <v>-20</v>
+      <c r="E112" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>80</v>
@@ -3961,10 +3961,10 @@
         <v>25</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="6" t="n">
-        <v>-25</v>
+        <v>11</v>
+      </c>
+      <c r="E113" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>11</v>
@@ -3992,11 +3992,11 @@
       <c r="D114" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E114" s="6" t="n">
-        <v>-30</v>
+      <c r="E114" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>80</v>
@@ -4019,10 +4019,10 @@
         <v>25</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E115" s="6" t="n">
-        <v>-35</v>
+        <v>11</v>
+      </c>
+      <c r="E115" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>11</v>
@@ -4050,11 +4050,11 @@
       <c r="D116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E116" s="6" t="n">
-        <v>-40</v>
+      <c r="E116" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>80</v>
@@ -4077,10 +4077,10 @@
         <v>25</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E117" s="6" t="n">
-        <v>-45</v>
+        <v>11</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>11</v>
@@ -4109,10 +4109,10 @@
         <v>11</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>80</v>
@@ -4135,10 +4135,10 @@
         <v>25</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E119" s="6" t="n">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="E119" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>11</v>
@@ -4166,11 +4166,11 @@
       <c r="D120" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E120" s="6" t="n">
-        <v>5</v>
+      <c r="E120" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>80</v>
@@ -4193,10 +4193,10 @@
         <v>25</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E121" s="6" t="n">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E121" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>11</v>
@@ -4224,11 +4224,11 @@
       <c r="D122" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E122" s="6" t="n">
-        <v>-5</v>
+      <c r="E122" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>80</v>
@@ -4251,10 +4251,10 @@
         <v>25</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E123" s="6" t="n">
-        <v>-10</v>
+        <v>11</v>
+      </c>
+      <c r="E123" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>11</v>
@@ -4282,11 +4282,11 @@
       <c r="D124" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E124" s="6" t="n">
-        <v>-15</v>
+      <c r="E124" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>80</v>
@@ -4309,10 +4309,10 @@
         <v>25</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E125" s="6" t="n">
-        <v>-20</v>
+        <v>11</v>
+      </c>
+      <c r="E125" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>11</v>
@@ -4340,11 +4340,11 @@
       <c r="D126" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E126" s="6" t="n">
-        <v>-25</v>
+      <c r="E126" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>80</v>
@@ -4367,10 +4367,10 @@
         <v>25</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E127" s="6" t="n">
-        <v>-30</v>
+        <v>11</v>
+      </c>
+      <c r="E127" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>11</v>
@@ -4398,11 +4398,11 @@
       <c r="D128" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E128" s="6" t="n">
-        <v>-35</v>
+      <c r="E128" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>80</v>
@@ -4425,10 +4425,10 @@
         <v>25</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E129" s="6" t="n">
-        <v>-40</v>
+        <v>11</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>11</v>
@@ -4507,7 +4507,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="E130:E131 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="F2:F129 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4524,49 +4524,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>71</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>72</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>74</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="J1" s="10"/>
       <c r="K1" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="M1" s="12" t="s">
         <v>77</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>78</v>
       </c>
       <c r="N1" s="10"/>
       <c r="O1" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="P1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>80</v>
-      </c>
       <c r="Q1" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4577,7 @@
         <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>25</v>
@@ -4586,7 +4586,7 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I2" s="6" t="n">
         <v>25</v>
@@ -4595,7 +4595,7 @@
         <v>11</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M2" s="6" t="n">
         <v>25</v>
@@ -4604,7 +4604,7 @@
         <v>11</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="6" t="n">
         <v>25</v>
@@ -4615,7 +4615,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>11</v>
@@ -4624,7 +4624,7 @@
         <v>25</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
@@ -4633,7 +4633,7 @@
         <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>11</v>
@@ -4642,7 +4642,7 @@
         <v>25</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>11</v>
@@ -4659,7 +4659,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>25</v>
@@ -4668,7 +4668,7 @@
         <v>11</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>25</v>
@@ -4677,7 +4677,7 @@
         <v>11</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>25</v>
@@ -4686,7 +4686,7 @@
         <v>11</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="6" t="n">
         <v>25</v>
@@ -4697,7 +4697,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>11</v>
@@ -4706,7 +4706,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
@@ -4715,7 +4715,7 @@
         <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>11</v>
@@ -4724,7 +4724,7 @@
         <v>25</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>11</v>
@@ -4741,7 +4741,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>25</v>
@@ -4750,7 +4750,7 @@
         <v>11</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>25</v>
@@ -4759,7 +4759,7 @@
         <v>11</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>25</v>
@@ -4768,7 +4768,7 @@
         <v>11</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q6" s="6" t="n">
         <v>25</v>
@@ -4779,7 +4779,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
@@ -4788,7 +4788,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>11</v>
@@ -4797,7 +4797,7 @@
         <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>11</v>
@@ -4806,7 +4806,7 @@
         <v>25</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>11</v>
@@ -4823,7 +4823,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>25</v>
@@ -4832,7 +4832,7 @@
         <v>11</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>25</v>
@@ -4841,7 +4841,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>25</v>
@@ -4850,7 +4850,7 @@
         <v>11</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q8" s="6" t="n">
         <v>25</v>
@@ -4861,7 +4861,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
@@ -4870,7 +4870,7 @@
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>11</v>
@@ -4879,7 +4879,7 @@
         <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>11</v>
@@ -4888,7 +4888,7 @@
         <v>25</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P9" s="2" t="s">
         <v>11</v>
@@ -4905,7 +4905,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>25</v>
@@ -4914,7 +4914,7 @@
         <v>11</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>25</v>
@@ -4923,7 +4923,7 @@
         <v>11</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>25</v>
@@ -4932,7 +4932,7 @@
         <v>11</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q10" s="6" t="n">
         <v>25</v>
@@ -4943,7 +4943,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>11</v>
@@ -4952,7 +4952,7 @@
         <v>25</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>11</v>
@@ -4961,7 +4961,7 @@
         <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>11</v>
@@ -4970,7 +4970,7 @@
         <v>25</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>11</v>
@@ -4987,7 +4987,7 @@
         <v>11</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E12" s="6" t="n">
         <v>25</v>
@@ -4996,7 +4996,7 @@
         <v>11</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I12" s="6" t="n">
         <v>25</v>
@@ -5005,7 +5005,7 @@
         <v>11</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>25</v>
@@ -5014,7 +5014,7 @@
         <v>11</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="6" t="n">
         <v>25</v>
@@ -5028,7 +5028,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>11</v>
@@ -5037,7 +5037,7 @@
         <v>25</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>11</v>
@@ -5046,7 +5046,7 @@
         <v>25</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>11</v>
@@ -5055,7 +5055,7 @@
         <v>25</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>11</v>
@@ -5072,7 +5072,7 @@
         <v>11</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>25</v>
@@ -5081,7 +5081,7 @@
         <v>11</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>25</v>
@@ -5090,7 +5090,7 @@
         <v>11</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>25</v>
@@ -5099,7 +5099,7 @@
         <v>11</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="6" t="n">
         <v>25</v>
@@ -5110,7 +5110,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>11</v>
@@ -5119,7 +5119,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>11</v>
@@ -5128,7 +5128,7 @@
         <v>25</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>11</v>
@@ -5137,7 +5137,7 @@
         <v>25</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>11</v>
@@ -5154,7 +5154,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E16" s="6" t="n">
         <v>25</v>
@@ -5163,7 +5163,7 @@
         <v>11</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I16" s="6" t="n">
         <v>25</v>
@@ -5172,7 +5172,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>25</v>
@@ -5181,7 +5181,7 @@
         <v>11</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q16" s="6" t="n">
         <v>25</v>
@@ -5192,7 +5192,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>11</v>
@@ -5201,7 +5201,7 @@
         <v>25</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>11</v>
@@ -5210,7 +5210,7 @@
         <v>25</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>11</v>
@@ -5219,7 +5219,7 @@
         <v>25</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>11</v>
@@ -5236,7 +5236,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E18" s="6" t="n">
         <v>25</v>
@@ -5245,7 +5245,7 @@
         <v>11</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I18" s="6" t="n">
         <v>25</v>
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>25</v>
@@ -5263,7 +5263,7 @@
         <v>11</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q18" s="6" t="n">
         <v>25</v>
@@ -5274,7 +5274,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>11</v>
@@ -5283,7 +5283,7 @@
         <v>25</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>11</v>
@@ -5292,7 +5292,7 @@
         <v>25</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>11</v>
@@ -5301,7 +5301,7 @@
         <v>25</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>11</v>
@@ -5318,7 +5318,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E20" s="6" t="n">
         <v>25</v>
@@ -5327,7 +5327,7 @@
         <v>11</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>25</v>
@@ -5336,7 +5336,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>25</v>
@@ -5345,7 +5345,7 @@
         <v>11</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q20" s="6" t="n">
         <v>25</v>
@@ -5356,7 +5356,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>11</v>
@@ -5365,7 +5365,7 @@
         <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>11</v>
@@ -5374,7 +5374,7 @@
         <v>25</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>11</v>
@@ -5383,7 +5383,7 @@
         <v>25</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P21" s="2" t="s">
         <v>11</v>
@@ -5400,7 +5400,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>25</v>
@@ -5409,7 +5409,7 @@
         <v>11</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>25</v>
@@ -5418,7 +5418,7 @@
         <v>11</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>25</v>
@@ -5427,7 +5427,7 @@
         <v>11</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q22" s="6" t="n">
         <v>25</v>
@@ -5438,7 +5438,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
@@ -5447,7 +5447,7 @@
         <v>25</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>11</v>
@@ -5456,7 +5456,7 @@
         <v>25</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>11</v>
@@ -5465,7 +5465,7 @@
         <v>25</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>11</v>
@@ -5482,7 +5482,7 @@
         <v>11</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E24" s="6" t="n">
         <v>25</v>
@@ -5491,7 +5491,7 @@
         <v>11</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I24" s="6" t="n">
         <v>25</v>
@@ -5500,7 +5500,7 @@
         <v>11</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>25</v>
@@ -5509,7 +5509,7 @@
         <v>11</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="6" t="n">
         <v>25</v>
@@ -5520,7 +5520,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
@@ -5529,7 +5529,7 @@
         <v>25</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>11</v>
@@ -5538,7 +5538,7 @@
         <v>25</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>11</v>
@@ -5547,7 +5547,7 @@
         <v>25</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P25" s="2" t="s">
         <v>11</v>
@@ -5564,7 +5564,7 @@
         <v>11</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>25</v>
@@ -5573,7 +5573,7 @@
         <v>11</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>25</v>
@@ -5582,7 +5582,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>25</v>
@@ -5591,7 +5591,7 @@
         <v>11</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="6" t="n">
         <v>25</v>
@@ -5602,7 +5602,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
@@ -5611,7 +5611,7 @@
         <v>25</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>11</v>
@@ -5620,7 +5620,7 @@
         <v>25</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>11</v>
@@ -5629,7 +5629,7 @@
         <v>25</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P27" s="2" t="s">
         <v>11</v>
@@ -5646,7 +5646,7 @@
         <v>11</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E28" s="6" t="n">
         <v>25</v>
@@ -5655,7 +5655,7 @@
         <v>11</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I28" s="6" t="n">
         <v>25</v>
@@ -5664,7 +5664,7 @@
         <v>11</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>25</v>
@@ -5673,7 +5673,7 @@
         <v>11</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q28" s="6" t="n">
         <v>25</v>
@@ -5684,7 +5684,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>11</v>
@@ -5693,7 +5693,7 @@
         <v>25</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>11</v>
@@ -5702,7 +5702,7 @@
         <v>25</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>11</v>
@@ -5711,7 +5711,7 @@
         <v>25</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P29" s="2" t="s">
         <v>11</v>
@@ -5728,7 +5728,7 @@
         <v>11</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E30" s="6" t="n">
         <v>25</v>
@@ -5737,7 +5737,7 @@
         <v>11</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I30" s="6" t="n">
         <v>25</v>
@@ -5746,7 +5746,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>25</v>
@@ -5755,7 +5755,7 @@
         <v>11</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q30" s="6" t="n">
         <v>25</v>
@@ -5766,7 +5766,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>11</v>
@@ -5775,7 +5775,7 @@
         <v>25</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>11</v>
@@ -5784,7 +5784,7 @@
         <v>25</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>11</v>
@@ -5793,7 +5793,7 @@
         <v>25</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>11</v>
@@ -5810,7 +5810,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E32" s="6" t="n">
         <v>25</v>
@@ -5819,7 +5819,7 @@
         <v>11</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>25</v>
@@ -5828,7 +5828,7 @@
         <v>11</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>25</v>
@@ -5837,7 +5837,7 @@
         <v>11</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q32" s="6" t="n">
         <v>25</v>
@@ -5851,7 +5851,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>11</v>
@@ -5860,7 +5860,7 @@
         <v>25</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>11</v>
@@ -5869,7 +5869,7 @@
         <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>11</v>
@@ -5878,7 +5878,7 @@
         <v>25</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>11</v>
@@ -5895,7 +5895,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E34" s="6" t="n">
         <v>25</v>
@@ -5904,7 +5904,7 @@
         <v>11</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q34" s="6" t="n">
         <v>25</v>
@@ -5915,7 +5915,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>11</v>
@@ -5924,7 +5924,7 @@
         <v>25</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P35" s="2" t="s">
         <v>11</v>
@@ -5941,7 +5941,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E36" s="6" t="n">
         <v>25</v>
@@ -5950,7 +5950,7 @@
         <v>11</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q36" s="6" t="n">
         <v>25</v>
@@ -5961,7 +5961,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>11</v>
@@ -5970,7 +5970,7 @@
         <v>25</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>11</v>
@@ -5987,7 +5987,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E38" s="6" t="n">
         <v>25</v>
@@ -5996,7 +5996,7 @@
         <v>11</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q38" s="6" t="n">
         <v>25</v>
@@ -6007,7 +6007,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>11</v>
@@ -6016,7 +6016,7 @@
         <v>25</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>11</v>
@@ -6033,7 +6033,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E40" s="6" t="n">
         <v>25</v>
@@ -6042,7 +6042,7 @@
         <v>11</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q40" s="6" t="n">
         <v>25</v>
@@ -6053,7 +6053,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>11</v>
@@ -6062,7 +6062,7 @@
         <v>25</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>11</v>
@@ -6079,7 +6079,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E42" s="6" t="n">
         <v>25</v>
@@ -6088,7 +6088,7 @@
         <v>11</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q42" s="6" t="n">
         <v>25</v>
@@ -6099,7 +6099,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>11</v>
@@ -6108,7 +6108,7 @@
         <v>25</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P43" s="2" t="s">
         <v>11</v>
@@ -6125,7 +6125,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E44" s="6" t="n">
         <v>25</v>
@@ -6134,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q44" s="6" t="n">
         <v>25</v>
@@ -6145,7 +6145,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>11</v>
@@ -6154,7 +6154,7 @@
         <v>25</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P45" s="2" t="s">
         <v>11</v>
@@ -6171,7 +6171,7 @@
         <v>11</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E46" s="6" t="n">
         <v>25</v>
@@ -6180,7 +6180,7 @@
         <v>11</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q46" s="6" t="n">
         <v>25</v>
@@ -6191,7 +6191,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>11</v>
@@ -6200,7 +6200,7 @@
         <v>25</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P47" s="2" t="s">
         <v>11</v>
@@ -6217,7 +6217,7 @@
         <v>11</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E48" s="6" t="n">
         <v>25</v>
@@ -6226,7 +6226,7 @@
         <v>11</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q48" s="6" t="n">
         <v>25</v>
@@ -6240,7 +6240,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>11</v>
@@ -6249,7 +6249,7 @@
         <v>25</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>11</v>
@@ -6266,7 +6266,7 @@
         <v>11</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E50" s="6" t="n">
         <v>25</v>
@@ -6275,7 +6275,7 @@
         <v>11</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q50" s="6" t="n">
         <v>25</v>
@@ -6286,7 +6286,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>11</v>
@@ -6295,7 +6295,7 @@
         <v>25</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P51" s="2" t="s">
         <v>11</v>
@@ -6312,7 +6312,7 @@
         <v>11</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E52" s="6" t="n">
         <v>25</v>
@@ -6321,7 +6321,7 @@
         <v>11</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q52" s="6" t="n">
         <v>25</v>
@@ -6332,7 +6332,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>11</v>
@@ -6341,7 +6341,7 @@
         <v>25</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>11</v>
@@ -6358,7 +6358,7 @@
         <v>11</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E54" s="6" t="n">
         <v>25</v>
@@ -6367,7 +6367,7 @@
         <v>11</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q54" s="6" t="n">
         <v>25</v>
@@ -6378,7 +6378,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>11</v>
@@ -6387,7 +6387,7 @@
         <v>25</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P55" s="2" t="s">
         <v>11</v>
@@ -6404,7 +6404,7 @@
         <v>11</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E56" s="6" t="n">
         <v>25</v>
@@ -6413,7 +6413,7 @@
         <v>11</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q56" s="6" t="n">
         <v>25</v>
@@ -6424,7 +6424,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>11</v>
@@ -6433,7 +6433,7 @@
         <v>25</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P57" s="2" t="s">
         <v>11</v>
@@ -6450,7 +6450,7 @@
         <v>11</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E58" s="6" t="n">
         <v>25</v>
@@ -6459,7 +6459,7 @@
         <v>11</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q58" s="6" t="n">
         <v>25</v>
@@ -6470,7 +6470,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>11</v>
@@ -6479,7 +6479,7 @@
         <v>25</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>11</v>
@@ -6496,7 +6496,7 @@
         <v>11</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E60" s="6" t="n">
         <v>25</v>
@@ -6505,7 +6505,7 @@
         <v>11</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q60" s="6" t="n">
         <v>25</v>
@@ -6516,7 +6516,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>11</v>
@@ -6525,7 +6525,7 @@
         <v>25</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>11</v>
@@ -6542,7 +6542,7 @@
         <v>11</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E62" s="6" t="n">
         <v>25</v>
@@ -6551,7 +6551,7 @@
         <v>11</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q62" s="6" t="n">
         <v>25</v>
@@ -6562,7 +6562,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>11</v>
@@ -6571,7 +6571,7 @@
         <v>25</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P63" s="2" t="s">
         <v>11</v>
@@ -6588,7 +6588,7 @@
         <v>11</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="E64" s="6" t="n">
         <v>25</v>
@@ -6597,7 +6597,7 @@
         <v>11</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q64" s="6" t="n">
         <v>25</v>
@@ -6611,7 +6611,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>11</v>
@@ -6620,7 +6620,7 @@
         <v>25</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P65" s="2" t="s">
         <v>11</v>
@@ -6640,7 +6640,7 @@
         <v>11</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q66" s="6" t="n">
         <v>25</v>
@@ -6651,7 +6651,7 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P67" s="2" t="s">
         <v>11</v>
@@ -6668,7 +6668,7 @@
         <v>11</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q68" s="6" t="n">
         <v>25</v>
@@ -6679,7 +6679,7 @@
         <v>68</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P69" s="2" t="s">
         <v>11</v>
@@ -6696,7 +6696,7 @@
         <v>11</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q70" s="6" t="n">
         <v>25</v>
@@ -6707,7 +6707,7 @@
         <v>70</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P71" s="2" t="s">
         <v>11</v>
@@ -6724,7 +6724,7 @@
         <v>11</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q72" s="6" t="n">
         <v>25</v>
@@ -6735,7 +6735,7 @@
         <v>72</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P73" s="2" t="s">
         <v>11</v>
@@ -6752,7 +6752,7 @@
         <v>11</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q74" s="6" t="n">
         <v>25</v>
@@ -6763,7 +6763,7 @@
         <v>74</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P75" s="2" t="s">
         <v>11</v>
@@ -6780,7 +6780,7 @@
         <v>11</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q76" s="6" t="n">
         <v>25</v>
@@ -6791,7 +6791,7 @@
         <v>76</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P77" s="2" t="s">
         <v>11</v>
@@ -6808,7 +6808,7 @@
         <v>11</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q78" s="6" t="n">
         <v>25</v>
@@ -6819,7 +6819,7 @@
         <v>78</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>11</v>
@@ -6836,7 +6836,7 @@
         <v>11</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q80" s="6" t="n">
         <v>25</v>
@@ -6847,7 +6847,7 @@
         <v>80</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>11</v>
@@ -6864,7 +6864,7 @@
         <v>11</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q82" s="6" t="n">
         <v>25</v>
@@ -6875,7 +6875,7 @@
         <v>82</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P83" s="2" t="s">
         <v>11</v>
@@ -6892,7 +6892,7 @@
         <v>11</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q84" s="6" t="n">
         <v>25</v>
@@ -6903,7 +6903,7 @@
         <v>84</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P85" s="2" t="s">
         <v>11</v>
@@ -6920,7 +6920,7 @@
         <v>11</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q86" s="6" t="n">
         <v>25</v>
@@ -6931,7 +6931,7 @@
         <v>86</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P87" s="2" t="s">
         <v>11</v>
@@ -6948,7 +6948,7 @@
         <v>11</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q88" s="6" t="n">
         <v>25</v>
@@ -6959,7 +6959,7 @@
         <v>88</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P89" s="2" t="s">
         <v>11</v>
@@ -6976,7 +6976,7 @@
         <v>11</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q90" s="6" t="n">
         <v>25</v>
@@ -6987,7 +6987,7 @@
         <v>90</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P91" s="2" t="s">
         <v>11</v>
@@ -7004,7 +7004,7 @@
         <v>11</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q92" s="6" t="n">
         <v>25</v>
@@ -7015,7 +7015,7 @@
         <v>92</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P93" s="2" t="s">
         <v>11</v>
@@ -7032,7 +7032,7 @@
         <v>11</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q94" s="6" t="n">
         <v>25</v>
@@ -7043,7 +7043,7 @@
         <v>94</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>11</v>
@@ -7063,7 +7063,7 @@
         <v>11</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q96" s="6" t="n">
         <v>25</v>
@@ -7077,7 +7077,7 @@
         <v>96</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P97" s="2" t="s">
         <v>11</v>
@@ -7094,7 +7094,7 @@
         <v>11</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q98" s="6" t="n">
         <v>25</v>
@@ -7105,7 +7105,7 @@
         <v>98</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>11</v>
@@ -7122,7 +7122,7 @@
         <v>11</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q100" s="6" t="n">
         <v>25</v>
@@ -7133,7 +7133,7 @@
         <v>100</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P101" s="2" t="s">
         <v>11</v>
@@ -7150,7 +7150,7 @@
         <v>11</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q102" s="6" t="n">
         <v>25</v>
@@ -7161,7 +7161,7 @@
         <v>102</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P103" s="2" t="s">
         <v>11</v>
@@ -7178,7 +7178,7 @@
         <v>11</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q104" s="6" t="n">
         <v>25</v>
@@ -7189,7 +7189,7 @@
         <v>104</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P105" s="2" t="s">
         <v>11</v>
@@ -7206,7 +7206,7 @@
         <v>11</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q106" s="6" t="n">
         <v>25</v>
@@ -7217,7 +7217,7 @@
         <v>106</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P107" s="2" t="s">
         <v>11</v>
@@ -7234,7 +7234,7 @@
         <v>11</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q108" s="6" t="n">
         <v>25</v>
@@ -7245,7 +7245,7 @@
         <v>108</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P109" s="2" t="s">
         <v>11</v>
@@ -7262,7 +7262,7 @@
         <v>11</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q110" s="6" t="n">
         <v>25</v>
@@ -7273,7 +7273,7 @@
         <v>110</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P111" s="2" t="s">
         <v>11</v>
@@ -7290,7 +7290,7 @@
         <v>11</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q112" s="6" t="n">
         <v>25</v>
@@ -7301,7 +7301,7 @@
         <v>112</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P113" s="2" t="s">
         <v>11</v>
@@ -7318,7 +7318,7 @@
         <v>11</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q114" s="6" t="n">
         <v>25</v>
@@ -7329,7 +7329,7 @@
         <v>114</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P115" s="2" t="s">
         <v>11</v>
@@ -7346,7 +7346,7 @@
         <v>11</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q116" s="6" t="n">
         <v>25</v>
@@ -7357,7 +7357,7 @@
         <v>116</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P117" s="2" t="s">
         <v>11</v>
@@ -7374,7 +7374,7 @@
         <v>11</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q118" s="6" t="n">
         <v>25</v>
@@ -7385,7 +7385,7 @@
         <v>118</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P119" s="2" t="s">
         <v>11</v>
@@ -7402,7 +7402,7 @@
         <v>11</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q120" s="6" t="n">
         <v>25</v>
@@ -7413,7 +7413,7 @@
         <v>120</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P121" s="2" t="s">
         <v>11</v>
@@ -7430,7 +7430,7 @@
         <v>11</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q122" s="6" t="n">
         <v>25</v>
@@ -7441,7 +7441,7 @@
         <v>122</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P123" s="2" t="s">
         <v>11</v>
@@ -7458,7 +7458,7 @@
         <v>11</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q124" s="6" t="n">
         <v>25</v>
@@ -7469,7 +7469,7 @@
         <v>124</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P125" s="2" t="s">
         <v>11</v>
@@ -7486,7 +7486,7 @@
         <v>11</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q126" s="6" t="n">
         <v>25</v>
@@ -7497,7 +7497,7 @@
         <v>126</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P127" s="2" t="s">
         <v>11</v>
@@ -7514,7 +7514,7 @@
         <v>11</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="Q128" s="6" t="n">
         <v>25</v>
@@ -7528,7 +7528,7 @@
         <v>128</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="P129" s="2" t="s">
         <v>11</v>
@@ -7562,7 +7562,7 @@
   <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="E130:E131 D20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="F2:F129 D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9094,7 +9094,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="E130:E131 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F2:F129 B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -684,7 +684,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F129"/>
+      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4507,7 +4507,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="1" sqref="F2:F129 H2"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7562,7 +7562,7 @@
   <dimension ref="A1:Z129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="F2:F129 D20"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9094,7 +9094,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="F2:F129 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="15.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Channels" sheetId="1" state="visible" r:id="rId2"/>
@@ -683,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I25" activeCellId="0" sqref="I25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -751,7 +751,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>11</v>
@@ -780,7 +780,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>11</v>
@@ -809,7 +809,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>11</v>
@@ -838,7 +838,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I5" s="6" t="s">
         <v>11</v>
@@ -867,7 +867,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>11</v>
@@ -896,7 +896,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>11</v>
@@ -925,7 +925,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>11</v>
@@ -954,7 +954,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>11</v>
@@ -983,7 +983,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>11</v>
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>11</v>
@@ -1041,7 +1041,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>11</v>
@@ -1070,7 +1070,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>11</v>
@@ -1099,7 +1099,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I14" s="6" t="s">
         <v>11</v>
@@ -1128,7 +1128,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I15" s="6" t="s">
         <v>11</v>
@@ -1157,7 +1157,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I16" s="6" t="s">
         <v>11</v>
@@ -1186,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I17" s="6" t="s">
         <v>11</v>
@@ -1215,7 +1215,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>11</v>
@@ -1244,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I19" s="6" t="s">
         <v>11</v>
@@ -1273,7 +1273,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I20" s="6" t="s">
         <v>11</v>
@@ -1302,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I21" s="6" t="s">
         <v>11</v>
@@ -1331,7 +1331,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I22" s="6" t="s">
         <v>11</v>
@@ -1360,7 +1360,7 @@
         <v>11</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I23" s="6" t="s">
         <v>11</v>
@@ -1389,7 +1389,7 @@
         <v>11</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I24" s="6" t="s">
         <v>11</v>
@@ -1418,7 +1418,7 @@
         <v>11</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I25" s="6" t="s">
         <v>11</v>
@@ -1447,7 +1447,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I26" s="6" t="s">
         <v>11</v>
@@ -1476,7 +1476,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>11</v>
@@ -1505,7 +1505,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I28" s="6" t="s">
         <v>11</v>
@@ -1534,7 +1534,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I29" s="6" t="s">
         <v>11</v>
@@ -1563,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>11</v>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>11</v>
@@ -1621,7 +1621,7 @@
         <v>11</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>11</v>
@@ -1650,7 +1650,7 @@
         <v>11</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>11</v>
@@ -1679,7 +1679,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>11</v>
@@ -1708,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>11</v>
@@ -1737,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>11</v>
@@ -1766,7 +1766,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>11</v>
@@ -1795,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>11</v>
@@ -1824,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>11</v>
@@ -1853,7 +1853,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>11</v>
@@ -1882,7 +1882,7 @@
         <v>11</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>11</v>
@@ -1911,7 +1911,7 @@
         <v>11</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>11</v>
@@ -1940,7 +1940,7 @@
         <v>11</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I43" s="6" t="s">
         <v>11</v>
@@ -1969,7 +1969,7 @@
         <v>11</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>11</v>
@@ -1998,7 +1998,7 @@
         <v>11</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>11</v>
@@ -2027,7 +2027,7 @@
         <v>11</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>11</v>
@@ -2056,7 +2056,7 @@
         <v>11</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I47" s="6" t="s">
         <v>11</v>
@@ -2085,7 +2085,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>11</v>
@@ -2114,7 +2114,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>11</v>
@@ -2143,7 +2143,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>11</v>
@@ -2172,7 +2172,7 @@
         <v>11</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I51" s="6" t="s">
         <v>11</v>
@@ -2201,7 +2201,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>11</v>
@@ -2230,7 +2230,7 @@
         <v>11</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>11</v>
@@ -2259,7 +2259,7 @@
         <v>11</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>11</v>
@@ -2288,7 +2288,7 @@
         <v>11</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I55" s="6" t="s">
         <v>11</v>
@@ -2317,7 +2317,7 @@
         <v>11</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I56" s="6" t="s">
         <v>11</v>
@@ -2346,7 +2346,7 @@
         <v>11</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I57" s="6" t="s">
         <v>11</v>
@@ -2375,7 +2375,7 @@
         <v>11</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I58" s="6" t="s">
         <v>11</v>
@@ -2404,7 +2404,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I59" s="6" t="s">
         <v>11</v>
@@ -2433,7 +2433,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I60" s="6" t="s">
         <v>11</v>
@@ -2462,7 +2462,7 @@
         <v>11</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I61" s="6" t="s">
         <v>11</v>
@@ -2491,7 +2491,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I62" s="6" t="s">
         <v>11</v>
@@ -2520,7 +2520,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I63" s="6" t="s">
         <v>11</v>
@@ -2549,7 +2549,7 @@
         <v>11</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I64" s="6" t="s">
         <v>11</v>
@@ -2578,7 +2578,7 @@
         <v>11</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I65" s="6" t="s">
         <v>11</v>
@@ -2607,7 +2607,7 @@
         <v>11</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I66" s="6" t="s">
         <v>11</v>
@@ -2636,7 +2636,7 @@
         <v>11</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I67" s="6" t="s">
         <v>11</v>
@@ -2665,7 +2665,7 @@
         <v>11</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I68" s="6" t="s">
         <v>11</v>
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I69" s="6" t="s">
         <v>11</v>
@@ -2723,7 +2723,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I70" s="6" t="s">
         <v>11</v>
@@ -2752,7 +2752,7 @@
         <v>11</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I71" s="6" t="s">
         <v>11</v>
@@ -2781,7 +2781,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I72" s="6" t="s">
         <v>11</v>
@@ -2810,7 +2810,7 @@
         <v>11</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I73" s="6" t="s">
         <v>11</v>
@@ -2839,7 +2839,7 @@
         <v>11</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I74" s="6" t="s">
         <v>11</v>
@@ -2868,7 +2868,7 @@
         <v>11</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I75" s="6" t="s">
         <v>11</v>
@@ -2897,7 +2897,7 @@
         <v>11</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I76" s="6" t="s">
         <v>11</v>
@@ -2926,7 +2926,7 @@
         <v>11</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I77" s="6" t="s">
         <v>11</v>
@@ -2955,7 +2955,7 @@
         <v>11</v>
       </c>
       <c r="G78" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I78" s="6" t="s">
         <v>11</v>
@@ -2984,7 +2984,7 @@
         <v>11</v>
       </c>
       <c r="G79" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I79" s="6" t="s">
         <v>11</v>
@@ -3013,7 +3013,7 @@
         <v>11</v>
       </c>
       <c r="G80" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I80" s="6" t="s">
         <v>11</v>
@@ -3042,7 +3042,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I81" s="6" t="s">
         <v>11</v>
@@ -3071,7 +3071,7 @@
         <v>11</v>
       </c>
       <c r="G82" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I82" s="6" t="s">
         <v>11</v>
@@ -3100,7 +3100,7 @@
         <v>11</v>
       </c>
       <c r="G83" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I83" s="6" t="s">
         <v>11</v>
@@ -3129,7 +3129,7 @@
         <v>11</v>
       </c>
       <c r="G84" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I84" s="6" t="s">
         <v>11</v>
@@ -3158,7 +3158,7 @@
         <v>11</v>
       </c>
       <c r="G85" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I85" s="6" t="s">
         <v>11</v>
@@ -3187,7 +3187,7 @@
         <v>11</v>
       </c>
       <c r="G86" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>11</v>
@@ -3216,7 +3216,7 @@
         <v>11</v>
       </c>
       <c r="G87" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I87" s="6" t="s">
         <v>11</v>
@@ -3245,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="G88" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I88" s="6" t="s">
         <v>11</v>
@@ -3274,7 +3274,7 @@
         <v>11</v>
       </c>
       <c r="G89" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I89" s="6" t="s">
         <v>11</v>
@@ -3303,7 +3303,7 @@
         <v>11</v>
       </c>
       <c r="G90" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I90" s="6" t="s">
         <v>11</v>
@@ -3332,7 +3332,7 @@
         <v>11</v>
       </c>
       <c r="G91" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I91" s="6" t="s">
         <v>11</v>
@@ -3361,7 +3361,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I92" s="6" t="s">
         <v>11</v>
@@ -3390,7 +3390,7 @@
         <v>11</v>
       </c>
       <c r="G93" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I93" s="6" t="s">
         <v>11</v>
@@ -3419,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="G94" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>11</v>
@@ -3448,7 +3448,7 @@
         <v>11</v>
       </c>
       <c r="G95" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I95" s="6" t="s">
         <v>11</v>
@@ -3477,7 +3477,7 @@
         <v>11</v>
       </c>
       <c r="G96" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I96" s="6" t="s">
         <v>11</v>
@@ -3506,7 +3506,7 @@
         <v>11</v>
       </c>
       <c r="G97" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I97" s="6" t="s">
         <v>11</v>
@@ -3535,7 +3535,7 @@
         <v>11</v>
       </c>
       <c r="G98" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I98" s="6" t="s">
         <v>11</v>
@@ -3564,7 +3564,7 @@
         <v>11</v>
       </c>
       <c r="G99" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I99" s="6" t="s">
         <v>11</v>
@@ -3593,7 +3593,7 @@
         <v>11</v>
       </c>
       <c r="G100" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I100" s="6" t="s">
         <v>11</v>
@@ -3622,7 +3622,7 @@
         <v>11</v>
       </c>
       <c r="G101" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>11</v>
@@ -3651,7 +3651,7 @@
         <v>11</v>
       </c>
       <c r="G102" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I102" s="6" t="s">
         <v>11</v>
@@ -3680,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="G103" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I103" s="6" t="s">
         <v>11</v>
@@ -3709,7 +3709,7 @@
         <v>11</v>
       </c>
       <c r="G104" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I104" s="6" t="s">
         <v>11</v>
@@ -3738,7 +3738,7 @@
         <v>11</v>
       </c>
       <c r="G105" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I105" s="6" t="s">
         <v>11</v>
@@ -3767,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="G106" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I106" s="6" t="s">
         <v>11</v>
@@ -3796,7 +3796,7 @@
         <v>11</v>
       </c>
       <c r="G107" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I107" s="6" t="s">
         <v>11</v>
@@ -3825,7 +3825,7 @@
         <v>11</v>
       </c>
       <c r="G108" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I108" s="6" t="s">
         <v>11</v>
@@ -3854,7 +3854,7 @@
         <v>11</v>
       </c>
       <c r="G109" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I109" s="6" t="s">
         <v>11</v>
@@ -3883,7 +3883,7 @@
         <v>11</v>
       </c>
       <c r="G110" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I110" s="6" t="s">
         <v>11</v>
@@ -3912,7 +3912,7 @@
         <v>11</v>
       </c>
       <c r="G111" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I111" s="6" t="s">
         <v>11</v>
@@ -3941,7 +3941,7 @@
         <v>11</v>
       </c>
       <c r="G112" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I112" s="6" t="s">
         <v>11</v>
@@ -3970,7 +3970,7 @@
         <v>11</v>
       </c>
       <c r="G113" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I113" s="6" t="s">
         <v>11</v>
@@ -3999,7 +3999,7 @@
         <v>11</v>
       </c>
       <c r="G114" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I114" s="6" t="s">
         <v>11</v>
@@ -4028,7 +4028,7 @@
         <v>11</v>
       </c>
       <c r="G115" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I115" s="6" t="s">
         <v>11</v>
@@ -4057,7 +4057,7 @@
         <v>11</v>
       </c>
       <c r="G116" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I116" s="6" t="s">
         <v>11</v>
@@ -4086,7 +4086,7 @@
         <v>11</v>
       </c>
       <c r="G117" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I117" s="6" t="s">
         <v>11</v>
@@ -4115,7 +4115,7 @@
         <v>11</v>
       </c>
       <c r="G118" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I118" s="6" t="s">
         <v>11</v>
@@ -4144,7 +4144,7 @@
         <v>11</v>
       </c>
       <c r="G119" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I119" s="6" t="s">
         <v>11</v>
@@ -4173,7 +4173,7 @@
         <v>11</v>
       </c>
       <c r="G120" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I120" s="6" t="s">
         <v>11</v>
@@ -4202,7 +4202,7 @@
         <v>11</v>
       </c>
       <c r="G121" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I121" s="6" t="s">
         <v>11</v>
@@ -4231,7 +4231,7 @@
         <v>11</v>
       </c>
       <c r="G122" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>11</v>
@@ -4260,7 +4260,7 @@
         <v>11</v>
       </c>
       <c r="G123" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I123" s="6" t="s">
         <v>11</v>
@@ -4289,7 +4289,7 @@
         <v>11</v>
       </c>
       <c r="G124" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I124" s="6" t="s">
         <v>11</v>
@@ -4318,7 +4318,7 @@
         <v>11</v>
       </c>
       <c r="G125" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I125" s="6" t="s">
         <v>11</v>
@@ -4347,7 +4347,7 @@
         <v>11</v>
       </c>
       <c r="G126" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I126" s="6" t="s">
         <v>11</v>
@@ -4376,7 +4376,7 @@
         <v>11</v>
       </c>
       <c r="G127" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I127" s="6" t="s">
         <v>11</v>
@@ -4405,7 +4405,7 @@
         <v>11</v>
       </c>
       <c r="G128" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I128" s="6" t="s">
         <v>11</v>
@@ -4434,7 +4434,7 @@
         <v>11</v>
       </c>
       <c r="G129" s="2" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I129" s="6" t="s">
         <v>11</v>
@@ -4506,8 +4506,8 @@
   </sheetPr>
   <dimension ref="A1:Q129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4574,40 +4574,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I2" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M2" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q2" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,37 +4618,37 @@
         <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I3" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M3" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,40 +4656,40 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P4" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4700,37 +4700,37 @@
         <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M5" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,40 +4738,40 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P6" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q6" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4782,37 +4782,37 @@
         <v>81</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4820,40 +4820,40 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M8" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q8" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,37 +4864,37 @@
         <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M9" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q9" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4902,40 +4902,40 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4946,37 +4946,37 @@
         <v>81</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,40 +4984,40 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M12" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q12" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5031,37 +5031,37 @@
         <v>81</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M13" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5069,40 +5069,40 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q14" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5113,37 +5113,37 @@
         <v>81</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5151,40 +5151,40 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E16" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M16" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q16" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,37 +5195,37 @@
         <v>81</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M17" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5233,40 +5233,40 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q18" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,37 +5277,37 @@
         <v>81</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,40 +5315,40 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M20" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q20" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5359,37 +5359,37 @@
         <v>81</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M21" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q21" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5397,40 +5397,40 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P22" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q22" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5441,37 +5441,37 @@
         <v>81</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5479,40 +5479,40 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M24" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P24" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q24" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5523,37 +5523,37 @@
         <v>81</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M25" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q25" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5561,40 +5561,40 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P26" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q26" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,37 +5605,37 @@
         <v>81</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q27" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5643,40 +5643,40 @@
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E28" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M28" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q28" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5687,37 +5687,37 @@
         <v>81</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E29" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M29" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q29" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5725,40 +5725,40 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P30" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q30" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5769,37 +5769,37 @@
         <v>81</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q31" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,40 +5807,40 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="M32" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P32" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q32" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5854,37 +5854,37 @@
         <v>81</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M33" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q33" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5892,22 +5892,22 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P34" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q34" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5918,19 +5918,19 @@
         <v>81</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q35" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5938,22 +5938,22 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E36" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q36" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5964,19 +5964,19 @@
         <v>81</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q37" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5984,22 +5984,22 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q38" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6010,19 +6010,19 @@
         <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q39" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6030,22 +6030,22 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E40" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q40" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6056,19 +6056,19 @@
         <v>81</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E41" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q41" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6076,22 +6076,22 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E42" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q42" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6102,19 +6102,19 @@
         <v>81</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q43" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6122,22 +6122,22 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P44" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q44" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6148,19 +6148,19 @@
         <v>81</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q45" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6168,22 +6168,22 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E46" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P46" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q46" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6194,19 +6194,19 @@
         <v>81</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E47" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q47" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6214,22 +6214,22 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E48" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P48" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q48" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6243,19 +6243,19 @@
         <v>81</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q49" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6263,22 +6263,22 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P50" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q50" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6289,19 +6289,19 @@
         <v>81</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q51" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,22 +6309,22 @@
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E52" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P52" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q52" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6335,19 +6335,19 @@
         <v>81</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E53" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q53" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6355,22 +6355,22 @@
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E54" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P54" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q54" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6381,19 +6381,19 @@
         <v>81</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q55" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6401,22 +6401,22 @@
         <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P56" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q56" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6427,19 +6427,19 @@
         <v>81</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q57" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6447,22 +6447,22 @@
         <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E58" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q58" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6473,19 +6473,19 @@
         <v>81</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E59" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q59" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6493,22 +6493,22 @@
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E60" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q60" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6519,19 +6519,19 @@
         <v>81</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E61" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q61" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6539,22 +6539,22 @@
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E62" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P62" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q62" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6565,19 +6565,19 @@
         <v>81</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E63" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q63" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6585,22 +6585,22 @@
         <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="E64" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q64" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6614,19 +6614,19 @@
         <v>81</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="E65" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>81</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q65" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6637,13 +6637,13 @@
         <v>65</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P66" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q66" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6654,10 +6654,10 @@
         <v>81</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q67" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6665,13 +6665,13 @@
         <v>67</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q68" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6682,10 +6682,10 @@
         <v>81</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q69" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6693,13 +6693,13 @@
         <v>69</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P70" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q70" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6710,10 +6710,10 @@
         <v>81</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q71" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6721,13 +6721,13 @@
         <v>71</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P72" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q72" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6738,10 +6738,10 @@
         <v>81</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q73" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6749,13 +6749,13 @@
         <v>73</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P74" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q74" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6766,10 +6766,10 @@
         <v>81</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q75" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6777,13 +6777,13 @@
         <v>75</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q76" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6794,10 +6794,10 @@
         <v>81</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q77" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6805,13 +6805,13 @@
         <v>77</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P78" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q78" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6822,10 +6822,10 @@
         <v>81</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q79" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6833,13 +6833,13 @@
         <v>79</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q80" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6850,10 +6850,10 @@
         <v>81</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q81" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6861,13 +6861,13 @@
         <v>81</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P82" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q82" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6878,10 +6878,10 @@
         <v>81</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q83" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6889,13 +6889,13 @@
         <v>83</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q84" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6906,10 +6906,10 @@
         <v>81</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q85" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,13 +6917,13 @@
         <v>85</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P86" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q86" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6934,10 +6934,10 @@
         <v>81</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q87" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6945,13 +6945,13 @@
         <v>87</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P88" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q88" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6962,10 +6962,10 @@
         <v>81</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q89" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6973,13 +6973,13 @@
         <v>89</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P90" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q90" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6990,10 +6990,10 @@
         <v>81</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q91" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7001,13 +7001,13 @@
         <v>91</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P92" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q92" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7018,10 +7018,10 @@
         <v>81</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q93" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7029,13 +7029,13 @@
         <v>93</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P94" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q94" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7046,10 +7046,10 @@
         <v>81</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q95" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7060,13 +7060,13 @@
         <v>95</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P96" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q96" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7080,10 +7080,10 @@
         <v>81</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q97" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7091,13 +7091,13 @@
         <v>97</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P98" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q98" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7108,10 +7108,10 @@
         <v>81</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q99" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7119,13 +7119,13 @@
         <v>99</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P100" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q100" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7136,10 +7136,10 @@
         <v>81</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q101" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7147,13 +7147,13 @@
         <v>101</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P102" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q102" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7164,10 +7164,10 @@
         <v>81</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q103" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7175,13 +7175,13 @@
         <v>103</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P104" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q104" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7192,10 +7192,10 @@
         <v>81</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q105" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7203,13 +7203,13 @@
         <v>105</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P106" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q106" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7220,10 +7220,10 @@
         <v>81</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q107" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7231,13 +7231,13 @@
         <v>107</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P108" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q108" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7248,10 +7248,10 @@
         <v>81</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q109" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7259,13 +7259,13 @@
         <v>109</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P110" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q110" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7276,10 +7276,10 @@
         <v>81</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q111" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7287,13 +7287,13 @@
         <v>111</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P112" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q112" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7304,10 +7304,10 @@
         <v>81</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q113" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7315,13 +7315,13 @@
         <v>113</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P114" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q114" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7332,10 +7332,10 @@
         <v>81</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q115" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7343,13 +7343,13 @@
         <v>115</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P116" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q116" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7360,10 +7360,10 @@
         <v>81</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q117" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7371,13 +7371,13 @@
         <v>117</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P118" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q118" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7388,10 +7388,10 @@
         <v>81</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q119" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7399,13 +7399,13 @@
         <v>119</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P120" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q120" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7416,10 +7416,10 @@
         <v>81</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q121" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7427,13 +7427,13 @@
         <v>121</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P122" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q122" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7444,10 +7444,10 @@
         <v>81</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q123" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7455,13 +7455,13 @@
         <v>123</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P124" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q124" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7472,10 +7472,10 @@
         <v>81</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q125" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7483,13 +7483,13 @@
         <v>125</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P126" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q126" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7500,10 +7500,10 @@
         <v>81</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q127" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7511,13 +7511,13 @@
         <v>127</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="P128" s="2" t="s">
         <v>81</v>
       </c>
       <c r="Q128" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7531,10 +7531,10 @@
         <v>81</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="Q129" s="6" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -7561,8 +7561,8 @@
   </sheetPr>
   <dimension ref="A1:Z129"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B36" activeCellId="0" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -4507,7 +4507,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q19" activeCellId="0" sqref="Q19"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4580,7 +4580,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>81</v>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -4507,7 +4507,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4580,7 +4580,7 @@
         <v>81</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>81</v>
@@ -4621,7 +4621,7 @@
         <v>81</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>81</v>
@@ -4662,7 +4662,7 @@
         <v>81</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>81</v>
@@ -4703,7 +4703,7 @@
         <v>81</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>81</v>
@@ -4744,7 +4744,7 @@
         <v>81</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>81</v>
@@ -4785,7 +4785,7 @@
         <v>81</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>81</v>
@@ -4826,7 +4826,7 @@
         <v>81</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>81</v>
@@ -4867,7 +4867,7 @@
         <v>81</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>81</v>
@@ -4908,7 +4908,7 @@
         <v>81</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>81</v>
@@ -4949,7 +4949,7 @@
         <v>81</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>81</v>
@@ -4990,7 +4990,7 @@
         <v>81</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>81</v>
@@ -5034,7 +5034,7 @@
         <v>81</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>81</v>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1516" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="128">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -123,6 +123,30 @@
     <t xml:space="preserve">DCA24</t>
   </si>
   <si>
+    <t xml:space="preserve">Mute1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mute8</t>
+  </si>
+  <si>
     <t xml:space="preserve">KickIn</t>
   </si>
   <si>
@@ -133,6 +157,9 @@
   </si>
   <si>
     <t xml:space="preserve">-inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">x</t>
@@ -343,9 +370,6 @@
   </si>
   <si>
     <t xml:space="preserve">Slink Gain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Avantis Local End</t>
@@ -492,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -515,6 +539,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -683,7 +711,7 @@
   <dimension ref="A1:XFD131"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S4" activeCellId="0" sqref="S4"/>
+      <selection pane="topLeft" activeCell="AO16" activeCellId="0" sqref="AO16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -696,6 +724,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="12" style="2" width="4.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="37" style="0" width="4.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -800,6 +829,30 @@
       <c r="AI1" s="5" t="s">
         <v>32</v>
       </c>
+      <c r="AK1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="XFC1" s="1"/>
       <c r="XFD1" s="1"/>
     </row>
@@ -807,1536 +860,1536 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
+      <c r="B2" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>35</v>
+      <c r="I2" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>34</v>
+      <c r="B3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>35</v>
+      <c r="I3" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>34</v>
+      <c r="B4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
+      <c r="I4" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>34</v>
+      <c r="B5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>35</v>
+      <c r="I5" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>34</v>
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>35</v>
+      <c r="I6" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>35</v>
+      <c r="I7" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>34</v>
+      <c r="B8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>35</v>
+      <c r="I8" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>34</v>
+      <c r="B9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>35</v>
+      <c r="I9" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>34</v>
+      <c r="B10" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>35</v>
+      <c r="I10" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L11" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>34</v>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>35</v>
+      <c r="I12" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>34</v>
+      <c r="B13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E13" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>35</v>
+      <c r="I13" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>50</v>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>35</v>
+      <c r="I14" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>34</v>
+      <c r="B15" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E15" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>35</v>
+      <c r="I15" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>34</v>
+      <c r="B16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I16" s="7" t="s">
-        <v>35</v>
+      <c r="I16" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>34</v>
+      <c r="B17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E17" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>35</v>
+      <c r="I17" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>55</v>
+      <c r="B18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I18" s="7" t="s">
-        <v>35</v>
+      <c r="I18" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
+      <c r="B19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I19" s="7" t="s">
-        <v>35</v>
+      <c r="I19" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>58</v>
+      <c r="B20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>35</v>
+      <c r="I20" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>58</v>
+      <c r="B21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I21" s="7" t="s">
-        <v>35</v>
+      <c r="I21" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>58</v>
+      <c r="B22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>35</v>
+      <c r="I22" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>58</v>
+      <c r="B23" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>35</v>
+      <c r="I23" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>58</v>
+      <c r="B24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>35</v>
+      <c r="I24" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>58</v>
+      <c r="B25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G25" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>35</v>
+      <c r="I25" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>65</v>
+      <c r="B26" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>35</v>
+      <c r="I26" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>65</v>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>35</v>
+      <c r="I27" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>65</v>
+      <c r="B28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>35</v>
+      <c r="I28" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>65</v>
+      <c r="B29" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E29" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>35</v>
+      <c r="I29" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>70</v>
+      <c r="B30" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>35</v>
+      <c r="I30" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>70</v>
+      <c r="B31" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E31" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>35</v>
+      <c r="I31" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>70</v>
+      <c r="B32" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>35</v>
+      <c r="I32" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>70</v>
+      <c r="B33" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>35</v>
+      <c r="I33" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>70</v>
+      <c r="B34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>35</v>
+      <c r="I34" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>70</v>
+      <c r="B35" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I35" s="7" t="s">
-        <v>35</v>
+      <c r="I35" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>70</v>
+      <c r="B36" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G36" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I36" s="7" t="s">
-        <v>35</v>
+      <c r="I36" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>70</v>
+      <c r="B37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E37" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G37" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I37" s="7" t="s">
-        <v>35</v>
+      <c r="I37" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>50</v>
+      <c r="B38" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G38" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I38" s="7" t="s">
-        <v>35</v>
+      <c r="I38" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R38" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>50</v>
+      <c r="B39" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E39" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G39" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I39" s="7" t="s">
-        <v>35</v>
+      <c r="I39" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>50</v>
+      <c r="B40" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G40" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>35</v>
+      <c r="I40" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R40" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>50</v>
+      <c r="B41" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E41" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G41" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I41" s="7" t="s">
-        <v>35</v>
+      <c r="I41" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="R41" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>83</v>
+      <c r="B42" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G42" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I42" s="7" t="s">
-        <v>35</v>
+      <c r="I42" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>83</v>
+      <c r="B43" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E43" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G43" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I43" s="7" t="s">
-        <v>35</v>
+      <c r="I43" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S43" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>83</v>
+      <c r="B44" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G44" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I44" s="7" t="s">
-        <v>35</v>
+      <c r="I44" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>83</v>
+      <c r="B45" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>92</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G45" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I45" s="7" t="s">
-        <v>35</v>
+      <c r="I45" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="S45" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>88</v>
+      <c r="B46" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G46" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I46" s="7" t="s">
-        <v>35</v>
+      <c r="I46" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>88</v>
+      <c r="B47" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G47" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I47" s="7" t="s">
-        <v>35</v>
+      <c r="I47" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T47" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>88</v>
+      <c r="B48" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G48" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I48" s="7" t="s">
-        <v>35</v>
+      <c r="I48" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>88</v>
+      <c r="B49" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G49" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I49" s="7" t="s">
-        <v>35</v>
+      <c r="I49" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="T49" s="2" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2344,28 +2397,28 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G50" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I50" s="7" t="s">
-        <v>35</v>
+      <c r="I50" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,28 +2426,28 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G51" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I51" s="7" t="s">
-        <v>35</v>
+      <c r="I51" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2402,28 +2455,28 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G52" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I52" s="7" t="s">
-        <v>35</v>
+      <c r="I52" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2431,28 +2484,28 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G53" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I53" s="7" t="s">
-        <v>35</v>
+      <c r="I53" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2460,28 +2513,28 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G54" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I54" s="7" t="s">
-        <v>35</v>
+      <c r="I54" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2489,28 +2542,28 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E55" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G55" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I55" s="7" t="s">
-        <v>35</v>
+      <c r="I55" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,28 +2571,28 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G56" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I56" s="7" t="s">
-        <v>35</v>
+      <c r="I56" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2547,28 +2600,28 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G57" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I57" s="7" t="s">
-        <v>35</v>
+      <c r="I57" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,28 +2629,28 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G58" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I58" s="7" t="s">
-        <v>35</v>
+      <c r="I58" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,28 +2658,28 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E59" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G59" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I59" s="7" t="s">
-        <v>35</v>
+      <c r="I59" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2634,28 +2687,28 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G60" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I60" s="7" t="s">
-        <v>35</v>
+      <c r="I60" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2663,28 +2716,28 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E61" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G61" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I61" s="7" t="s">
-        <v>35</v>
+      <c r="I61" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2692,28 +2745,28 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G62" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I62" s="7" t="s">
-        <v>35</v>
+      <c r="I62" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2721,28 +2774,28 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E63" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G63" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I63" s="7" t="s">
-        <v>35</v>
+      <c r="I63" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2750,28 +2803,28 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I64" s="7" t="s">
-        <v>35</v>
+      <c r="I64" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2779,28 +2832,28 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I65" s="7" t="s">
-        <v>35</v>
+      <c r="I65" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2808,28 +2861,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G66" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I66" s="7" t="s">
-        <v>35</v>
+      <c r="I66" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2837,28 +2890,28 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G67" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I67" s="7" t="s">
-        <v>35</v>
+      <c r="I67" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2866,28 +2919,28 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G68" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I68" s="7" t="s">
-        <v>35</v>
+      <c r="I68" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2895,28 +2948,28 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E69" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G69" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I69" s="7" t="s">
-        <v>35</v>
+      <c r="I69" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,28 +2977,28 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I70" s="7" t="s">
-        <v>35</v>
+      <c r="I70" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,28 +3006,28 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E71" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G71" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I71" s="7" t="s">
-        <v>35</v>
+      <c r="I71" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2982,28 +3035,28 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G72" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I72" s="7" t="s">
-        <v>35</v>
+      <c r="I72" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3011,28 +3064,28 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E73" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G73" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I73" s="7" t="s">
-        <v>35</v>
+      <c r="I73" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3040,28 +3093,28 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G74" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I74" s="7" t="s">
-        <v>35</v>
+      <c r="I74" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,28 +3122,28 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E75" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G75" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I75" s="7" t="s">
-        <v>35</v>
+      <c r="I75" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3098,28 +3151,28 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G76" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I76" s="7" t="s">
-        <v>35</v>
+      <c r="I76" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3127,28 +3180,28 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E77" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G77" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I77" s="7" t="s">
-        <v>35</v>
+      <c r="I77" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J77" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3156,28 +3209,28 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G78" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I78" s="7" t="s">
-        <v>35</v>
+      <c r="I78" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,28 +3238,28 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E79" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G79" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I79" s="7" t="s">
-        <v>35</v>
+      <c r="I79" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,28 +3267,28 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E80" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G80" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I80" s="7" t="s">
-        <v>35</v>
+      <c r="I80" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3243,28 +3296,28 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E81" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I81" s="7" t="s">
-        <v>35</v>
+      <c r="I81" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3272,28 +3325,28 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G82" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I82" s="7" t="s">
-        <v>35</v>
+      <c r="I82" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,28 +3354,28 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E83" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G83" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I83" s="7" t="s">
-        <v>35</v>
+      <c r="I83" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,28 +3383,28 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G84" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I84" s="7" t="s">
-        <v>35</v>
+      <c r="I84" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,28 +3412,28 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E85" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G85" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I85" s="7" t="s">
-        <v>35</v>
+      <c r="I85" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3388,28 +3441,28 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G86" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I86" s="7" t="s">
-        <v>35</v>
+      <c r="I86" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J86" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3417,28 +3470,28 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E87" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G87" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I87" s="7" t="s">
-        <v>35</v>
+      <c r="I87" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3446,28 +3499,28 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G88" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I88" s="7" t="s">
-        <v>35</v>
+      <c r="I88" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3475,28 +3528,28 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E89" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G89" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I89" s="7" t="s">
-        <v>35</v>
+      <c r="I89" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3504,28 +3557,28 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G90" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I90" s="7" t="s">
-        <v>35</v>
+      <c r="I90" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,28 +3586,28 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E91" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G91" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I91" s="7" t="s">
-        <v>35</v>
+      <c r="I91" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,28 +3615,28 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G92" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I92" s="7" t="s">
-        <v>35</v>
+      <c r="I92" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3591,28 +3644,28 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E93" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G93" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I93" s="7" t="s">
-        <v>35</v>
+      <c r="I93" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3620,28 +3673,28 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G94" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I94" s="7" t="s">
-        <v>35</v>
+      <c r="I94" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3649,28 +3702,28 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E95" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G95" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I95" s="7" t="s">
-        <v>35</v>
+      <c r="I95" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3678,28 +3731,28 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E96" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G96" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I96" s="7" t="s">
-        <v>35</v>
+      <c r="I96" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3707,28 +3760,28 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C97" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E97" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G97" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I97" s="7" t="s">
-        <v>35</v>
+      <c r="I97" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3736,28 +3789,28 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G98" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I98" s="7" t="s">
-        <v>35</v>
+      <c r="I98" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,28 +3818,28 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E99" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E99" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G99" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I99" s="7" t="s">
-        <v>35</v>
+      <c r="I99" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3794,28 +3847,28 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E100" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G100" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I100" s="7" t="s">
-        <v>35</v>
+      <c r="I100" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3823,28 +3876,28 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E101" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G101" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I101" s="7" t="s">
-        <v>35</v>
+      <c r="I101" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3852,28 +3905,28 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I102" s="7" t="s">
-        <v>35</v>
+      <c r="I102" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J102" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3881,28 +3934,28 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E103" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G103" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I103" s="7" t="s">
-        <v>35</v>
+      <c r="I103" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J103" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3910,28 +3963,28 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E104" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I104" s="7" t="s">
-        <v>35</v>
+      <c r="I104" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J104" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3939,28 +3992,28 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E105" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G105" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I105" s="7" t="s">
-        <v>35</v>
+      <c r="I105" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J105" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,28 +4021,28 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G106" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I106" s="7" t="s">
-        <v>35</v>
+      <c r="I106" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J106" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3997,28 +4050,28 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C107" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E107" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G107" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I107" s="7" t="s">
-        <v>35</v>
+      <c r="I107" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J107" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4026,28 +4079,28 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C108" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G108" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I108" s="7" t="s">
-        <v>35</v>
+      <c r="I108" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J108" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4055,28 +4108,28 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C109" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E109" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E109" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G109" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I109" s="7" t="s">
-        <v>35</v>
+      <c r="I109" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J109" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4084,28 +4137,28 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G110" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I110" s="7" t="s">
-        <v>35</v>
+      <c r="I110" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J110" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4113,28 +4166,28 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E111" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G111" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I111" s="7" t="s">
-        <v>35</v>
+      <c r="I111" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J111" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4142,28 +4195,28 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G112" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I112" s="7" t="s">
-        <v>35</v>
+      <c r="I112" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J112" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4171,28 +4224,28 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E113" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G113" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I113" s="7" t="s">
-        <v>35</v>
+      <c r="I113" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J113" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,28 +4253,28 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C114" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E114" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G114" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I114" s="7" t="s">
-        <v>35</v>
+      <c r="I114" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J114" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4229,28 +4282,28 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E115" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G115" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I115" s="7" t="s">
-        <v>35</v>
+      <c r="I115" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J115" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,28 +4311,28 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G116" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I116" s="7" t="s">
-        <v>35</v>
+      <c r="I116" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J116" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4287,28 +4340,28 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E117" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G117" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I117" s="7" t="s">
-        <v>35</v>
+      <c r="I117" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J117" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4316,28 +4369,28 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G118" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I118" s="7" t="s">
-        <v>35</v>
+      <c r="I118" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J118" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4345,28 +4398,28 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E119" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G119" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I119" s="7" t="s">
-        <v>35</v>
+      <c r="I119" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J119" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4374,28 +4427,28 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I120" s="7" t="s">
-        <v>35</v>
+      <c r="I120" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J120" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4403,28 +4456,28 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E121" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G121" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I121" s="7" t="s">
-        <v>35</v>
+      <c r="I121" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J121" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,28 +4485,28 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I122" s="7" t="s">
-        <v>35</v>
+      <c r="I122" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J122" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4461,28 +4514,28 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C123" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E123" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I123" s="7" t="s">
-        <v>35</v>
+      <c r="I123" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J123" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4490,28 +4543,28 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I124" s="7" t="s">
-        <v>35</v>
+      <c r="I124" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J124" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4519,28 +4572,28 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E125" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I125" s="7" t="s">
-        <v>35</v>
+      <c r="I125" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J125" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4548,28 +4601,28 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I126" s="7" t="s">
-        <v>35</v>
+      <c r="I126" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J126" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,28 +4630,28 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C127" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E127" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I127" s="7" t="s">
-        <v>35</v>
+      <c r="I127" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J127" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4606,28 +4659,28 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E128" s="7" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>44</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G128" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I128" s="7" t="s">
-        <v>35</v>
+      <c r="I128" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J128" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,37 +4688,37 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>50</v>
+        <v>58</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E129" s="7" t="s">
-        <v>36</v>
+        <v>45</v>
+      </c>
+      <c r="E129" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="G129" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I129" s="7" t="s">
-        <v>35</v>
+      <c r="I129" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="J129" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
-      <c r="E130" s="7"/>
+      <c r="E130" s="8"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
-      <c r="E131" s="7"/>
+      <c r="E131" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576 C1:C1048576">
@@ -4723,7 +4776,7 @@
   <dimension ref="A1:Q129"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4739,50 +4792,50 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>96</v>
+      <c r="A1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>99</v>
+      <c r="G1" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>108</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>102</v>
+      <c r="K1" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M1" s="13" t="s">
+        <v>111</v>
       </c>
       <c r="N1" s="5"/>
-      <c r="O1" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="P1" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q1" s="13" t="s">
-        <v>105</v>
+      <c r="O1" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q1" s="14" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,40 +4843,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="E2" s="8" t="n">
+        <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="I2" s="8" t="n">
+        <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M2" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="M2" s="8" t="n">
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q2" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="8" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4831,40 +4884,40 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="I3" s="8" t="n">
+        <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="M3" s="8" t="n">
+        <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q3" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="Q3" s="8" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4872,40 +4925,40 @@
         <v>3</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I4" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="I4" s="8" t="n">
+        <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="M4" s="8" t="n">
+        <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="Q4" s="8" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4913,40 +4966,40 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I5" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M5" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>45</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q5" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4954,40 +5007,40 @@
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I6" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="I6" s="8" t="n">
+        <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M6" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="M6" s="8" t="n">
+        <v>40</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q6" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="Q6" s="8" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,40 +5048,40 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I7" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="I7" s="8" t="n">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M7" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="M7" s="8" t="n">
+        <v>35</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="Q7" s="8" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5036,40 +5089,40 @@
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I8" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="I8" s="8" t="n">
+        <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M8" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="M8" s="8" t="n">
+        <v>30</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="Q8" s="8" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5077,40 +5130,40 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E9" s="8" t="n">
+        <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I9" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="I9" s="8" t="n">
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M9" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="M9" s="8" t="n">
+        <v>25</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="Q9" s="8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,40 +5171,40 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="I10" s="8" t="n">
+        <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M10" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="M10" s="8" t="n">
+        <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="Q10" s="8" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5159,40 +5212,40 @@
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="E11" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I11" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="I11" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M11" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="M11" s="8" t="n">
+        <v>15</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q11" s="7" t="n">
-        <v>5</v>
+        <v>43</v>
+      </c>
+      <c r="Q11" s="8" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,83 +5253,83 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="E12" s="8" t="n">
+        <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I12" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="I12" s="8" t="n">
+        <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M12" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="M12" s="8" t="n">
+        <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q12" s="7" t="n">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="Q12" s="8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E13" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I13" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I13" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M13" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M13" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q13" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q13" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5285,39 +5338,39 @@
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E14" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I14" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M14" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M14" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q14" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5326,39 +5379,39 @@
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E15" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I15" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I15" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M15" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M15" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q15" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q15" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5367,39 +5420,39 @@
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I16" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I16" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M16" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M16" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q16" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5408,39 +5461,39 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E17" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I17" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I17" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M17" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M17" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q17" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q17" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5449,39 +5502,39 @@
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I18" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M18" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M18" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q18" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5490,39 +5543,39 @@
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E19" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I19" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I19" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M19" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M19" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q19" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q19" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5531,39 +5584,39 @@
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E20" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E20" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I20" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M20" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M20" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q20" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5572,39 +5625,39 @@
         <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E21" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E21" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I21" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I21" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M21" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M21" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q21" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q21" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5613,39 +5666,39 @@
         <v>21</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E22" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E22" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I22" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I22" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M22" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M22" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q22" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q22" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5654,39 +5707,39 @@
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E23" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I23" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M23" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M23" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q23" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q23" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5695,39 +5748,39 @@
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E24" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I24" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I24" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M24" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q24" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5736,39 +5789,39 @@
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E25" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E25" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I25" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I25" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M25" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M25" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q25" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q25" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5777,39 +5830,39 @@
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E26" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I26" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I26" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M26" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M26" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q26" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5818,39 +5871,39 @@
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E27" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E27" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I27" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M27" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M27" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q27" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q27" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5859,39 +5912,39 @@
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E28" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E28" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I28" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I28" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M28" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M28" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P28" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q28" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5900,39 +5953,39 @@
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E29" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E29" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I29" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I29" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M29" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M29" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q29" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5941,39 +5994,39 @@
         <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E30" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E30" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I30" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M30" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M30" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P30" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q30" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q30" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5982,39 +6035,39 @@
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E31" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E31" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I31" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I31" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M31" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M31" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P31" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q31" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q31" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6023,83 +6076,83 @@
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E32" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E32" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="I32" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M32" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="M32" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q32" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E33" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E33" s="8" t="n">
         <v>5</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="I33" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="I33" s="8" t="n">
         <v>5</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="M33" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="M33" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q33" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q33" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6108,21 +6161,21 @@
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E34" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E34" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O34" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q34" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q34" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6131,21 +6184,21 @@
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E35" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q35" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q35" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6154,21 +6207,21 @@
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E36" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E36" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q36" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q36" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6177,21 +6230,21 @@
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E37" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E37" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q37" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6200,21 +6253,21 @@
         <v>37</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E38" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E38" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P38" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q38" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q38" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6223,21 +6276,21 @@
         <v>38</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E39" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E39" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O39" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q39" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q39" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6246,21 +6299,21 @@
         <v>39</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E40" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E40" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q40" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q40" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6269,21 +6322,21 @@
         <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E41" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q41" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q41" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6292,21 +6345,21 @@
         <v>41</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E42" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E42" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q42" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q42" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6315,21 +6368,21 @@
         <v>42</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E43" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O43" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q43" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q43" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6338,21 +6391,21 @@
         <v>43</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E44" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E44" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q44" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q44" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6361,21 +6414,21 @@
         <v>44</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E45" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q45" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q45" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6384,21 +6437,21 @@
         <v>45</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E46" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O46" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q46" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q46" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6407,21 +6460,21 @@
         <v>46</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E47" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E47" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O47" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q47" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q47" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6430,47 +6483,47 @@
         <v>47</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E48" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E48" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O48" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q48" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q48" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B49" s="2" t="n">
         <v>48</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E49" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E49" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O49" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q49" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q49" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6479,21 +6532,21 @@
         <v>49</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E50" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E50" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q50" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q50" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6502,21 +6555,21 @@
         <v>50</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E51" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E51" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q51" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q51" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6525,21 +6578,21 @@
         <v>51</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E52" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E52" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q52" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q52" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6548,21 +6601,21 @@
         <v>52</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E53" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E53" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P53" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q53" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q53" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6571,21 +6624,21 @@
         <v>53</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E54" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E54" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O54" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P54" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q54" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q54" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6594,21 +6647,21 @@
         <v>54</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E55" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E55" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O55" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q55" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6617,21 +6670,21 @@
         <v>55</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E56" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O56" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q56" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q56" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6640,21 +6693,21 @@
         <v>56</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E57" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E57" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q57" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q57" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6663,21 +6716,21 @@
         <v>57</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E58" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q58" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q58" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6686,21 +6739,21 @@
         <v>58</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E59" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q59" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q59" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6709,21 +6762,21 @@
         <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E60" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E60" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O60" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q60" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q60" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6732,21 +6785,21 @@
         <v>60</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E61" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q61" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q61" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6755,21 +6808,21 @@
         <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E62" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O62" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q62" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q62" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6778,21 +6831,21 @@
         <v>62</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E63" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E63" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q63" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q63" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6801,64 +6854,64 @@
         <v>63</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="E64" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P64" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q64" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q64" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>64</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E65" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="E65" s="8" t="n">
         <v>5</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q65" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q65" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B66" s="2" t="n">
         <v>65</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q66" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q66" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6867,12 +6920,12 @@
         <v>66</v>
       </c>
       <c r="O67" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q67" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q67" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6881,12 +6934,12 @@
         <v>67</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P68" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q68" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q68" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6895,12 +6948,12 @@
         <v>68</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q69" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q69" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6909,12 +6962,12 @@
         <v>69</v>
       </c>
       <c r="O70" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q70" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q70" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6923,12 +6976,12 @@
         <v>70</v>
       </c>
       <c r="O71" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P71" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q71" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q71" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6937,12 +6990,12 @@
         <v>71</v>
       </c>
       <c r="O72" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P72" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q72" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q72" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6951,12 +7004,12 @@
         <v>72</v>
       </c>
       <c r="O73" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P73" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q73" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q73" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6965,12 +7018,12 @@
         <v>73</v>
       </c>
       <c r="O74" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q74" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q74" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6979,12 +7032,12 @@
         <v>74</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q75" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q75" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6993,12 +7046,12 @@
         <v>75</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P76" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q76" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q76" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7007,12 +7060,12 @@
         <v>76</v>
       </c>
       <c r="O77" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P77" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q77" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q77" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7021,12 +7074,12 @@
         <v>77</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q78" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q78" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7035,12 +7088,12 @@
         <v>78</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q79" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q79" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7049,12 +7102,12 @@
         <v>79</v>
       </c>
       <c r="O80" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q80" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q80" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7063,12 +7116,12 @@
         <v>80</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P81" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q81" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q81" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7077,12 +7130,12 @@
         <v>81</v>
       </c>
       <c r="O82" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q82" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q82" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7091,12 +7144,12 @@
         <v>82</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q83" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q83" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7105,12 +7158,12 @@
         <v>83</v>
       </c>
       <c r="O84" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q84" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q84" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7119,12 +7172,12 @@
         <v>84</v>
       </c>
       <c r="O85" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P85" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q85" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q85" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7133,12 +7186,12 @@
         <v>85</v>
       </c>
       <c r="O86" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q86" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q86" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7147,12 +7200,12 @@
         <v>86</v>
       </c>
       <c r="O87" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P87" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q87" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q87" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7161,12 +7214,12 @@
         <v>87</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q88" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q88" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7175,12 +7228,12 @@
         <v>88</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q89" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q89" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7189,12 +7242,12 @@
         <v>89</v>
       </c>
       <c r="O90" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P90" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q90" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q90" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7203,12 +7256,12 @@
         <v>90</v>
       </c>
       <c r="O91" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P91" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q91" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q91" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7217,12 +7270,12 @@
         <v>91</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q92" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q92" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7231,12 +7284,12 @@
         <v>92</v>
       </c>
       <c r="O93" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q93" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q93" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7245,12 +7298,12 @@
         <v>93</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q94" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q94" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7259,46 +7312,46 @@
         <v>94</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P95" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q95" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q95" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
-        <v>112</v>
+      <c r="A96" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>95</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q96" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q96" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
-        <v>113</v>
+      <c r="A97" s="7" t="s">
+        <v>121</v>
       </c>
       <c r="B97" s="2" t="n">
         <v>96</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q97" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q97" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7307,12 +7360,12 @@
         <v>97</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q98" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q98" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7321,12 +7374,12 @@
         <v>98</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P99" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q99" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q99" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7335,12 +7388,12 @@
         <v>99</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q100" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q100" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7349,12 +7402,12 @@
         <v>100</v>
       </c>
       <c r="O101" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q101" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q101" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7363,12 +7416,12 @@
         <v>101</v>
       </c>
       <c r="O102" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P102" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q102" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q102" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7377,12 +7430,12 @@
         <v>102</v>
       </c>
       <c r="O103" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P103" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q103" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q103" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7391,12 +7444,12 @@
         <v>103</v>
       </c>
       <c r="O104" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P104" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q104" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q104" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7405,12 +7458,12 @@
         <v>104</v>
       </c>
       <c r="O105" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P105" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q105" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q105" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7419,12 +7472,12 @@
         <v>105</v>
       </c>
       <c r="O106" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P106" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q106" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q106" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7433,12 +7486,12 @@
         <v>106</v>
       </c>
       <c r="O107" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P107" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q107" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q107" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7447,12 +7500,12 @@
         <v>107</v>
       </c>
       <c r="O108" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P108" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q108" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q108" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7461,12 +7514,12 @@
         <v>108</v>
       </c>
       <c r="O109" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P109" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q109" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q109" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7475,12 +7528,12 @@
         <v>109</v>
       </c>
       <c r="O110" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P110" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q110" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q110" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7489,12 +7542,12 @@
         <v>110</v>
       </c>
       <c r="O111" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P111" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q111" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q111" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7503,12 +7556,12 @@
         <v>111</v>
       </c>
       <c r="O112" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P112" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q112" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q112" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7517,12 +7570,12 @@
         <v>112</v>
       </c>
       <c r="O113" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P113" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q113" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q113" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7531,12 +7584,12 @@
         <v>113</v>
       </c>
       <c r="O114" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P114" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q114" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q114" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7545,12 +7598,12 @@
         <v>114</v>
       </c>
       <c r="O115" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P115" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q115" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q115" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7559,12 +7612,12 @@
         <v>115</v>
       </c>
       <c r="O116" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P116" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q116" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q116" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7573,12 +7626,12 @@
         <v>116</v>
       </c>
       <c r="O117" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P117" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q117" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q117" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7587,12 +7640,12 @@
         <v>117</v>
       </c>
       <c r="O118" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P118" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q118" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q118" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7601,12 +7654,12 @@
         <v>118</v>
       </c>
       <c r="O119" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P119" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q119" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q119" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7615,12 +7668,12 @@
         <v>119</v>
       </c>
       <c r="O120" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P120" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q120" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q120" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7629,12 +7682,12 @@
         <v>120</v>
       </c>
       <c r="O121" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P121" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q121" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q121" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7643,12 +7696,12 @@
         <v>121</v>
       </c>
       <c r="O122" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P122" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q122" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q122" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7657,12 +7710,12 @@
         <v>122</v>
       </c>
       <c r="O123" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P123" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q123" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q123" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7671,12 +7724,12 @@
         <v>123</v>
       </c>
       <c r="O124" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P124" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q124" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q124" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7685,12 +7738,12 @@
         <v>124</v>
       </c>
       <c r="O125" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P125" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q125" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q125" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7699,12 +7752,12 @@
         <v>125</v>
       </c>
       <c r="O126" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P126" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q126" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q126" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7713,12 +7766,12 @@
         <v>126</v>
       </c>
       <c r="O127" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P127" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q127" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q127" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7727,29 +7780,29 @@
         <v>127</v>
       </c>
       <c r="O128" s="2" t="s">
-        <v>106</v>
+        <v>43</v>
       </c>
       <c r="P128" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q128" s="7" t="n">
+        <v>45</v>
+      </c>
+      <c r="Q128" s="8" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="6" t="s">
-        <v>114</v>
+      <c r="A129" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>128</v>
       </c>
       <c r="O129" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="P129" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q129" s="7" t="n">
+        <v>43</v>
+      </c>
+      <c r="Q129" s="8" t="n">
         <v>5</v>
       </c>
     </row>
@@ -7790,24 +7843,24 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B2" s="7" t="n">
+      <c r="A2" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="8" t="n">
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="128">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -516,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -550,6 +550,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -710,8 +714,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO16" activeCellId="0" sqref="AO16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL5" activeCellId="0" sqref="AL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -887,6 +891,16 @@
       <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AK2" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="9"/>
+      <c r="AQ2" s="9"/>
+      <c r="AR2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
@@ -919,6 +933,16 @@
       <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM3" s="9"/>
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="9"/>
+      <c r="AQ3" s="9"/>
+      <c r="AR3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
@@ -951,6 +975,16 @@
       <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AK4" s="9"/>
+      <c r="AL4" s="9"/>
+      <c r="AM4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AN4" s="9"/>
+      <c r="AO4" s="9"/>
+      <c r="AP4" s="9"/>
+      <c r="AQ4" s="9"/>
+      <c r="AR4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
@@ -983,6 +1017,16 @@
       <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AK5" s="9"/>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9"/>
+      <c r="AN5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AO5" s="9"/>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9"/>
+      <c r="AR5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
@@ -1015,6 +1059,16 @@
       <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
@@ -1047,6 +1101,16 @@
       <c r="L7" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AK7" s="9"/>
+      <c r="AL7" s="9"/>
+      <c r="AM7" s="9"/>
+      <c r="AN7" s="9"/>
+      <c r="AO7" s="9"/>
+      <c r="AP7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AQ7" s="9"/>
+      <c r="AR7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
@@ -1079,6 +1143,16 @@
       <c r="L8" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="AK8" s="9"/>
+      <c r="AL8" s="9"/>
+      <c r="AM8" s="9"/>
+      <c r="AN8" s="9"/>
+      <c r="AO8" s="9"/>
+      <c r="AP8" s="9"/>
+      <c r="AQ8" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="AR8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
@@ -1109,6 +1183,16 @@
         <v>43</v>
       </c>
       <c r="L9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -4792,49 +4876,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>105</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>108</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>111</v>
       </c>
       <c r="N1" s="5"/>
-      <c r="O1" s="14" t="s">
+      <c r="O1" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="P1" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="Q1" s="15" t="s">
         <v>114</v>
       </c>
     </row>

--- a/dLiveChannelList.xlsx
+++ b/dLiveChannelList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1468" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="128">
   <si>
     <t xml:space="preserve">Channel</t>
   </si>
@@ -516,7 +516,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,19 +541,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -714,8 +706,8 @@
   </sheetPr>
   <dimension ref="A1:XFD131"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL5" activeCellId="0" sqref="AL5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AL49" activeCellId="0" sqref="AL49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -728,7 +720,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="10.46"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="12" style="2" width="4.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="37" style="0" width="4.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="37" style="2" width="4.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16383" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -833,28 +825,28 @@
       <c r="AI1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AK1" s="6" t="s">
+      <c r="AK1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="AL1" s="6" t="s">
+      <c r="AL1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="6" t="s">
+      <c r="AM1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="AN1" s="6" t="s">
+      <c r="AN1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AO1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AQ1" s="6" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="AR1" s="6" t="s">
+      <c r="AR1" s="5" t="s">
         <v>40</v>
       </c>
       <c r="XFC1" s="1"/>
@@ -864,16 +856,16 @@
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -882,7 +874,7 @@
       <c r="G2" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -891,31 +883,31 @@
       <c r="L2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="9"/>
-      <c r="AQ2" s="9"/>
-      <c r="AR2" s="9"/>
+      <c r="AK2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL2" s="7"/>
+      <c r="AM2" s="7"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -924,7 +916,7 @@
       <c r="G3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J3" s="2" t="s">
@@ -933,31 +925,31 @@
       <c r="L3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM3" s="9"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
+      <c r="AK3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL3" s="7"/>
+      <c r="AM3" s="7"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -966,7 +958,7 @@
       <c r="G4" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
@@ -975,31 +967,31 @@
       <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
+      <c r="AK4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1008,7 +1000,7 @@
       <c r="G5" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="2" t="s">
@@ -1017,31 +1009,31 @@
       <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AK5" s="9"/>
-      <c r="AL5" s="9"/>
-      <c r="AM5" s="9"/>
-      <c r="AN5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AO5" s="9"/>
-      <c r="AP5" s="9"/>
-      <c r="AQ5" s="9"/>
-      <c r="AR5" s="9"/>
+      <c r="AK5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL5" s="7"/>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
@@ -1050,7 +1042,7 @@
       <c r="G6" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J6" s="2" t="s">
@@ -1059,31 +1051,31 @@
       <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AK6" s="9"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="9"/>
-      <c r="AO6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AP6" s="9"/>
-      <c r="AQ6" s="9"/>
-      <c r="AR6" s="9"/>
+      <c r="AK6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="2" t="s">
@@ -1092,7 +1084,7 @@
       <c r="G7" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J7" s="2" t="s">
@@ -1101,31 +1093,31 @@
       <c r="L7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AK7" s="9"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="9"/>
-      <c r="AO7" s="9"/>
-      <c r="AP7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ7" s="9"/>
-      <c r="AR7" s="9"/>
+      <c r="AK7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
@@ -1134,7 +1126,7 @@
       <c r="G8" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J8" s="2" t="s">
@@ -1143,31 +1135,31 @@
       <c r="L8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AK8" s="9"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="9"/>
-      <c r="AO8" s="9"/>
-      <c r="AP8" s="9"/>
-      <c r="AQ8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="AR8" s="9"/>
+      <c r="AK8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -1176,7 +1168,7 @@
       <c r="G9" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J9" s="2" t="s">
@@ -1185,31 +1177,31 @@
       <c r="L9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AK9" s="9"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="9"/>
-      <c r="AO9" s="9"/>
-      <c r="AP9" s="9"/>
-      <c r="AQ9" s="9"/>
-      <c r="AR9" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="AK9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="2" t="s">
@@ -1218,13 +1210,16 @@
       <c r="G10" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1232,16 +1227,16 @@
       <c r="A11" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="2" t="s">
@@ -1250,13 +1245,16 @@
       <c r="G11" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK11" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1264,16 +1262,16 @@
       <c r="A12" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="2" t="s">
@@ -1282,13 +1280,16 @@
       <c r="G12" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="I12" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1296,16 +1297,16 @@
       <c r="A13" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
@@ -1314,13 +1315,16 @@
       <c r="G13" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="L13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK13" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1328,16 +1332,16 @@
       <c r="A14" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -1346,13 +1350,16 @@
       <c r="G14" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="I14" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK14" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1360,16 +1367,16 @@
       <c r="A15" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
@@ -1378,13 +1385,16 @@
       <c r="G15" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J15" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK15" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1392,16 +1402,16 @@
       <c r="A16" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
@@ -1410,13 +1420,16 @@
       <c r="G16" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK16" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1424,16 +1437,16 @@
       <c r="A17" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="2" t="s">
@@ -1442,13 +1455,16 @@
       <c r="G17" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>43</v>
       </c>
       <c r="M17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK17" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1456,16 +1472,16 @@
       <c r="A18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="2" t="s">
@@ -1474,13 +1490,16 @@
       <c r="G18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N18" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK18" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1488,16 +1507,16 @@
       <c r="A19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
@@ -1506,13 +1525,16 @@
       <c r="G19" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="N19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK19" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1520,16 +1542,16 @@
       <c r="A20" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
@@ -1538,13 +1560,16 @@
       <c r="G20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1552,16 +1577,16 @@
       <c r="A21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -1570,13 +1595,16 @@
       <c r="G21" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK21" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1584,16 +1612,16 @@
       <c r="A22" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F22" s="2" t="s">
@@ -1602,13 +1630,16 @@
       <c r="G22" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1616,16 +1647,16 @@
       <c r="A23" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="2" t="s">
@@ -1634,13 +1665,16 @@
       <c r="G23" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J23" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1648,16 +1682,16 @@
       <c r="A24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F24" s="2" t="s">
@@ -1666,13 +1700,16 @@
       <c r="G24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J24" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK24" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1680,16 +1717,16 @@
       <c r="A25" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="2" t="s">
@@ -1698,13 +1735,16 @@
       <c r="G25" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I25" s="8" t="s">
+      <c r="I25" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>43</v>
       </c>
       <c r="O25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK25" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1712,16 +1752,16 @@
       <c r="A26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F26" s="2" t="s">
@@ -1730,13 +1770,16 @@
       <c r="G26" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J26" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1744,16 +1787,16 @@
       <c r="A27" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="2" t="s">
@@ -1762,13 +1805,16 @@
       <c r="G27" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK27" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1776,16 +1822,16 @@
       <c r="A28" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F28" s="2" t="s">
@@ -1794,13 +1840,16 @@
       <c r="G28" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J28" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK28" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1808,16 +1857,16 @@
       <c r="A29" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>74</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="2" t="s">
@@ -1826,13 +1875,16 @@
       <c r="G29" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I29" s="8" t="s">
+      <c r="I29" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J29" s="2" t="s">
         <v>43</v>
       </c>
       <c r="P29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK29" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1840,16 +1892,16 @@
       <c r="A30" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F30" s="2" t="s">
@@ -1858,13 +1910,16 @@
       <c r="G30" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I30" s="8" t="s">
+      <c r="I30" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK30" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1872,16 +1927,16 @@
       <c r="A31" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -1890,13 +1945,16 @@
       <c r="G31" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I31" s="8" t="s">
+      <c r="I31" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK31" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1904,16 +1962,16 @@
       <c r="A32" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F32" s="2" t="s">
@@ -1922,13 +1980,16 @@
       <c r="G32" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I32" s="8" t="s">
+      <c r="I32" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J32" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK32" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1936,16 +1997,16 @@
       <c r="A33" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="E33" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -1954,13 +2015,16 @@
       <c r="G33" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I33" s="8" t="s">
+      <c r="I33" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK33" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1968,16 +2032,16 @@
       <c r="A34" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F34" s="2" t="s">
@@ -1986,13 +2050,16 @@
       <c r="G34" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I34" s="8" t="s">
+      <c r="I34" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J34" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK34" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2000,16 +2067,16 @@
       <c r="A35" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="8" t="n">
+      <c r="E35" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="2" t="s">
@@ -2018,13 +2085,16 @@
       <c r="G35" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I35" s="8" t="s">
+      <c r="I35" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J35" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK35" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2032,16 +2102,16 @@
       <c r="A36" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F36" s="2" t="s">
@@ -2050,13 +2120,16 @@
       <c r="G36" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J36" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK36" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2064,16 +2137,16 @@
       <c r="A37" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>79</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="8" t="n">
+      <c r="E37" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="2" t="s">
@@ -2082,13 +2155,16 @@
       <c r="G37" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I37" s="8" t="s">
+      <c r="I37" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J37" s="2" t="s">
         <v>43</v>
       </c>
       <c r="Q37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK37" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2096,16 +2172,16 @@
       <c r="A38" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F38" s="2" t="s">
@@ -2114,13 +2190,16 @@
       <c r="G38" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I38" s="8" t="s">
+      <c r="I38" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="R38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK38" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2128,16 +2207,16 @@
       <c r="A39" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="8" t="n">
+      <c r="E39" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="2" t="s">
@@ -2146,13 +2225,16 @@
       <c r="G39" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I39" s="8" t="s">
+      <c r="I39" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J39" s="2" t="s">
         <v>43</v>
       </c>
       <c r="R39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK39" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2160,16 +2242,16 @@
       <c r="A40" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F40" s="2" t="s">
@@ -2178,13 +2260,16 @@
       <c r="G40" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I40" s="8" t="s">
+      <c r="I40" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J40" s="2" t="s">
         <v>43</v>
       </c>
       <c r="R40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK40" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2192,16 +2277,16 @@
       <c r="A41" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="8" t="n">
+      <c r="E41" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="2" t="s">
@@ -2210,13 +2295,16 @@
       <c r="G41" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I41" s="8" t="s">
+      <c r="I41" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J41" s="2" t="s">
         <v>43</v>
       </c>
       <c r="R41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AK41" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2224,16 +2312,16 @@
       <c r="A42" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
@@ -2242,13 +2330,16 @@
       <c r="G42" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I42" s="8" t="s">
+      <c r="I42" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="S42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL42" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2256,16 +2347,16 @@
       <c r="A43" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="8" t="n">
+      <c r="E43" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="2" t="s">
@@ -2274,13 +2365,16 @@
       <c r="G43" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I43" s="8" t="s">
+      <c r="I43" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J43" s="2" t="s">
         <v>43</v>
       </c>
       <c r="S43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL43" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2288,16 +2382,16 @@
       <c r="A44" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F44" s="2" t="s">
@@ -2306,13 +2400,16 @@
       <c r="G44" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I44" s="8" t="s">
+      <c r="I44" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="S44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL44" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2320,16 +2417,16 @@
       <c r="A45" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>92</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E45" s="8" t="n">
+      <c r="E45" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="2" t="s">
@@ -2338,13 +2435,16 @@
       <c r="G45" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I45" s="8" t="s">
+      <c r="I45" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J45" s="2" t="s">
         <v>43</v>
       </c>
       <c r="S45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL45" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2352,16 +2452,16 @@
       <c r="A46" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
@@ -2370,13 +2470,16 @@
       <c r="G46" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I46" s="8" t="s">
+      <c r="I46" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J46" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL46" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2384,16 +2487,16 @@
       <c r="A47" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E47" s="8" t="n">
+      <c r="E47" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F47" s="2" t="s">
@@ -2402,13 +2505,16 @@
       <c r="G47" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I47" s="8" t="s">
+      <c r="I47" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL47" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2416,16 +2522,16 @@
       <c r="A48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2434,13 +2540,16 @@
       <c r="G48" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I48" s="8" t="s">
+      <c r="I48" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J48" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL48" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2448,16 +2557,16 @@
       <c r="A49" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E49" s="8" t="n">
+      <c r="E49" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2466,13 +2575,16 @@
       <c r="G49" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I49" s="8" t="s">
+      <c r="I49" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="AL49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2483,13 +2595,13 @@
       <c r="B50" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -2498,7 +2610,7 @@
       <c r="G50" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J50" s="2" t="s">
@@ -2512,13 +2624,13 @@
       <c r="B51" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E51" s="8" t="n">
+      <c r="E51" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -2527,7 +2639,7 @@
       <c r="G51" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J51" s="2" t="s">
@@ -2541,13 +2653,13 @@
       <c r="B52" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
@@ -2556,7 +2668,7 @@
       <c r="G52" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I52" s="8" t="s">
+      <c r="I52" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J52" s="2" t="s">
@@ -2570,13 +2682,13 @@
       <c r="B53" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="8" t="n">
+      <c r="E53" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F53" s="2" t="s">
@@ -2585,7 +2697,7 @@
       <c r="G53" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J53" s="2" t="s">
@@ -2599,13 +2711,13 @@
       <c r="B54" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -2614,7 +2726,7 @@
       <c r="G54" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I54" s="8" t="s">
+      <c r="I54" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J54" s="2" t="s">
@@ -2628,13 +2740,13 @@
       <c r="B55" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E55" s="8" t="n">
+      <c r="E55" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2643,7 +2755,7 @@
       <c r="G55" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I55" s="8" t="s">
+      <c r="I55" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J55" s="2" t="s">
@@ -2657,13 +2769,13 @@
       <c r="B56" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F56" s="2" t="s">
@@ -2672,7 +2784,7 @@
       <c r="G56" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I56" s="8" t="s">
+      <c r="I56" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J56" s="2" t="s">
@@ -2686,13 +2798,13 @@
       <c r="B57" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E57" s="8" t="n">
+      <c r="E57" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F57" s="2" t="s">
@@ -2701,7 +2813,7 @@
       <c r="G57" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I57" s="8" t="s">
+      <c r="I57" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J57" s="2" t="s">
@@ -2715,13 +2827,13 @@
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F58" s="2" t="s">
@@ -2730,7 +2842,7 @@
       <c r="G58" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I58" s="8" t="s">
+      <c r="I58" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J58" s="2" t="s">
@@ -2744,13 +2856,13 @@
       <c r="B59" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E59" s="8" t="n">
+      <c r="E59" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="2" t="s">
@@ -2759,7 +2871,7 @@
       <c r="G59" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I59" s="8" t="s">
+      <c r="I59" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J59" s="2" t="s">
@@ -2773,13 +2885,13 @@
       <c r="B60" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F60" s="2" t="s">
@@ -2788,7 +2900,7 @@
       <c r="G60" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I60" s="8" t="s">
+      <c r="I60" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J60" s="2" t="s">
@@ -2802,13 +2914,13 @@
       <c r="B61" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="8" t="n">
+      <c r="E61" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
@@ -2817,7 +2929,7 @@
       <c r="G61" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I61" s="8" t="s">
+      <c r="I61" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J61" s="2" t="s">
@@ -2831,13 +2943,13 @@
       <c r="B62" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -2846,7 +2958,7 @@
       <c r="G62" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I62" s="8" t="s">
+      <c r="I62" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J62" s="2" t="s">
@@ -2860,13 +2972,13 @@
       <c r="B63" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E63" s="8" t="n">
+      <c r="E63" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F63" s="2" t="s">
@@ -2875,7 +2987,7 @@
       <c r="G63" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I63" s="8" t="s">
+      <c r="I63" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J63" s="2" t="s">
@@ -2889,13 +3001,13 @@
       <c r="B64" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
@@ -2904,7 +3016,7 @@
       <c r="G64" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I64" s="8" t="s">
+      <c r="I64" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J64" s="2" t="s">
@@ -2918,13 +3030,13 @@
       <c r="B65" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E65" s="8" t="n">
+      <c r="E65" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F65" s="2" t="s">
@@ -2933,7 +3045,7 @@
       <c r="G65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I65" s="8" t="s">
+      <c r="I65" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J65" s="2" t="s">
@@ -2947,13 +3059,13 @@
       <c r="B66" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F66" s="2" t="s">
@@ -2962,7 +3074,7 @@
       <c r="G66" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I66" s="8" t="s">
+      <c r="I66" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J66" s="2" t="s">
@@ -2976,13 +3088,13 @@
       <c r="B67" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E67" s="8" t="n">
+      <c r="E67" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
@@ -2991,7 +3103,7 @@
       <c r="G67" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I67" s="8" t="s">
+      <c r="I67" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J67" s="2" t="s">
@@ -3005,13 +3117,13 @@
       <c r="B68" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F68" s="2" t="s">
@@ -3020,7 +3132,7 @@
       <c r="G68" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I68" s="8" t="s">
+      <c r="I68" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J68" s="2" t="s">
@@ -3034,13 +3146,13 @@
       <c r="B69" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="8" t="n">
+      <c r="E69" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
@@ -3049,7 +3161,7 @@
       <c r="G69" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I69" s="8" t="s">
+      <c r="I69" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J69" s="2" t="s">
@@ -3063,13 +3175,13 @@
       <c r="B70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F70" s="2" t="s">
@@ -3078,7 +3190,7 @@
       <c r="G70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I70" s="8" t="s">
+      <c r="I70" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J70" s="2" t="s">
@@ -3092,13 +3204,13 @@
       <c r="B71" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E71" s="8" t="n">
+      <c r="E71" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
@@ -3107,7 +3219,7 @@
       <c r="G71" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I71" s="8" t="s">
+      <c r="I71" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J71" s="2" t="s">
@@ -3121,13 +3233,13 @@
       <c r="B72" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
@@ -3136,7 +3248,7 @@
       <c r="G72" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I72" s="8" t="s">
+      <c r="I72" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J72" s="2" t="s">
@@ -3150,13 +3262,13 @@
       <c r="B73" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E73" s="8" t="n">
+      <c r="E73" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F73" s="2" t="s">
@@ -3165,7 +3277,7 @@
       <c r="G73" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I73" s="8" t="s">
+      <c r="I73" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J73" s="2" t="s">
@@ -3179,13 +3291,13 @@
       <c r="B74" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F74" s="2" t="s">
@@ -3194,7 +3306,7 @@
       <c r="G74" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I74" s="8" t="s">
+      <c r="I74" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J74" s="2" t="s">
@@ -3208,13 +3320,13 @@
       <c r="B75" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E75" s="8" t="n">
+      <c r="E75" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F75" s="2" t="s">
@@ -3223,7 +3335,7 @@
       <c r="G75" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I75" s="8" t="s">
+      <c r="I75" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J75" s="2" t="s">
@@ -3237,13 +3349,13 @@
       <c r="B76" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F76" s="2" t="s">
@@ -3252,7 +3364,7 @@
       <c r="G76" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I76" s="8" t="s">
+      <c r="I76" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J76" s="2" t="s">
@@ -3266,13 +3378,13 @@
       <c r="B77" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="8" t="n">
+      <c r="E77" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F77" s="2" t="s">
@@ -3281,7 +3393,7 @@
       <c r="G77" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J77" s="2" t="s">
@@ -3295,13 +3407,13 @@
       <c r="B78" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F78" s="2" t="s">
@@ -3310,7 +3422,7 @@
       <c r="G78" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I78" s="8" t="s">
+      <c r="I78" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J78" s="2" t="s">
@@ -3324,13 +3436,13 @@
       <c r="B79" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E79" s="8" t="n">
+      <c r="E79" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F79" s="2" t="s">
@@ -3339,7 +3451,7 @@
       <c r="G79" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I79" s="8" t="s">
+      <c r="I79" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J79" s="2" t="s">
@@ -3353,13 +3465,13 @@
       <c r="B80" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F80" s="2" t="s">
@@ -3368,7 +3480,7 @@
       <c r="G80" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I80" s="8" t="s">
+      <c r="I80" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J80" s="2" t="s">
@@ -3382,13 +3494,13 @@
       <c r="B81" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E81" s="8" t="n">
+      <c r="E81" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -3397,7 +3509,7 @@
       <c r="G81" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I81" s="8" t="s">
+      <c r="I81" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J81" s="2" t="s">
@@ -3411,13 +3523,13 @@
       <c r="B82" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -3426,7 +3538,7 @@
       <c r="G82" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I82" s="8" t="s">
+      <c r="I82" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J82" s="2" t="s">
@@ -3440,13 +3552,13 @@
       <c r="B83" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E83" s="8" t="n">
+      <c r="E83" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F83" s="2" t="s">
@@ -3455,7 +3567,7 @@
       <c r="G83" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I83" s="8" t="s">
+      <c r="I83" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J83" s="2" t="s">
@@ -3469,13 +3581,13 @@
       <c r="B84" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -3484,7 +3596,7 @@
       <c r="G84" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I84" s="8" t="s">
+      <c r="I84" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J84" s="2" t="s">
@@ -3498,13 +3610,13 @@
       <c r="B85" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E85" s="8" t="n">
+      <c r="E85" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F85" s="2" t="s">
@@ -3513,7 +3625,7 @@
       <c r="G85" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I85" s="8" t="s">
+      <c r="I85" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J85" s="2" t="s">
@@ -3527,13 +3639,13 @@
       <c r="B86" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F86" s="2" t="s">
@@ -3542,7 +3654,7 @@
       <c r="G86" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I86" s="8" t="s">
+      <c r="I86" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J86" s="2" t="s">
@@ -3556,13 +3668,13 @@
       <c r="B87" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E87" s="8" t="n">
+      <c r="E87" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F87" s="2" t="s">
@@ -3571,7 +3683,7 @@
       <c r="G87" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I87" s="8" t="s">
+      <c r="I87" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J87" s="2" t="s">
@@ -3585,13 +3697,13 @@
       <c r="B88" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F88" s="2" t="s">
@@ -3600,7 +3712,7 @@
       <c r="G88" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I88" s="8" t="s">
+      <c r="I88" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J88" s="2" t="s">
@@ -3614,13 +3726,13 @@
       <c r="B89" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E89" s="8" t="n">
+      <c r="E89" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F89" s="2" t="s">
@@ -3629,7 +3741,7 @@
       <c r="G89" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I89" s="8" t="s">
+      <c r="I89" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J89" s="2" t="s">
@@ -3643,13 +3755,13 @@
       <c r="B90" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F90" s="2" t="s">
@@ -3658,7 +3770,7 @@
       <c r="G90" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I90" s="8" t="s">
+      <c r="I90" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J90" s="2" t="s">
@@ -3672,13 +3784,13 @@
       <c r="B91" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E91" s="8" t="n">
+      <c r="E91" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F91" s="2" t="s">
@@ -3687,7 +3799,7 @@
       <c r="G91" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I91" s="8" t="s">
+      <c r="I91" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J91" s="2" t="s">
@@ -3701,13 +3813,13 @@
       <c r="B92" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F92" s="2" t="s">
@@ -3716,7 +3828,7 @@
       <c r="G92" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I92" s="8" t="s">
+      <c r="I92" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J92" s="2" t="s">
@@ -3730,13 +3842,13 @@
       <c r="B93" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E93" s="8" t="n">
+      <c r="E93" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -3745,7 +3857,7 @@
       <c r="G93" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I93" s="8" t="s">
+      <c r="I93" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J93" s="2" t="s">
@@ -3759,13 +3871,13 @@
       <c r="B94" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -3774,7 +3886,7 @@
       <c r="G94" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I94" s="8" t="s">
+      <c r="I94" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J94" s="2" t="s">
@@ -3788,13 +3900,13 @@
       <c r="B95" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E95" s="8" t="n">
+      <c r="E95" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -3803,7 +3915,7 @@
       <c r="G95" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I95" s="8" t="s">
+      <c r="I95" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J95" s="2" t="s">
@@ -3817,13 +3929,13 @@
       <c r="B96" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F96" s="2" t="s">
@@ -3832,7 +3944,7 @@
       <c r="G96" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I96" s="8" t="s">
+      <c r="I96" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J96" s="2" t="s">
@@ -3846,13 +3958,13 @@
       <c r="B97" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E97" s="8" t="n">
+      <c r="E97" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -3861,7 +3973,7 @@
       <c r="G97" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I97" s="8" t="s">
+      <c r="I97" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J97" s="2" t="s">
@@ -3875,13 +3987,13 @@
       <c r="B98" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F98" s="2" t="s">
@@ -3890,7 +4002,7 @@
       <c r="G98" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I98" s="8" t="s">
+      <c r="I98" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J98" s="2" t="s">
@@ -3904,13 +4016,13 @@
       <c r="B99" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E99" s="8" t="n">
+      <c r="E99" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F99" s="2" t="s">
@@ -3919,7 +4031,7 @@
       <c r="G99" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I99" s="8" t="s">
+      <c r="I99" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J99" s="2" t="s">
@@ -3933,13 +4045,13 @@
       <c r="B100" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E100" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F100" s="2" t="s">
@@ -3948,7 +4060,7 @@
       <c r="G100" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I100" s="8" t="s">
+      <c r="I100" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J100" s="2" t="s">
@@ -3962,13 +4074,13 @@
       <c r="B101" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E101" s="8" t="n">
+      <c r="E101" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F101" s="2" t="s">
@@ -3977,7 +4089,7 @@
       <c r="G101" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I101" s="8" t="s">
+      <c r="I101" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J101" s="2" t="s">
@@ -3991,13 +4103,13 @@
       <c r="B102" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E102" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F102" s="2" t="s">
@@ -4006,7 +4118,7 @@
       <c r="G102" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I102" s="8" t="s">
+      <c r="I102" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J102" s="2" t="s">
@@ -4020,13 +4132,13 @@
       <c r="B103" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E103" s="8" t="n">
+      <c r="E103" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F103" s="2" t="s">
@@ -4035,7 +4147,7 @@
       <c r="G103" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I103" s="8" t="s">
+      <c r="I103" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J103" s="2" t="s">
@@ -4049,13 +4161,13 @@
       <c r="B104" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E104" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F104" s="2" t="s">
@@ -4064,7 +4176,7 @@
       <c r="G104" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I104" s="8" t="s">
+      <c r="I104" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J104" s="2" t="s">
@@ -4078,13 +4190,13 @@
       <c r="B105" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E105" s="8" t="n">
+      <c r="E105" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F105" s="2" t="s">
@@ -4093,7 +4205,7 @@
       <c r="G105" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I105" s="8" t="s">
+      <c r="I105" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J105" s="2" t="s">
@@ -4107,13 +4219,13 @@
       <c r="B106" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E106" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F106" s="2" t="s">
@@ -4122,7 +4234,7 @@
       <c r="G106" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I106" s="8" t="s">
+      <c r="I106" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J106" s="2" t="s">
@@ -4136,13 +4248,13 @@
       <c r="B107" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E107" s="8" t="n">
+      <c r="E107" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F107" s="2" t="s">
@@ -4151,7 +4263,7 @@
       <c r="G107" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I107" s="8" t="s">
+      <c r="I107" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J107" s="2" t="s">
@@ -4165,13 +4277,13 @@
       <c r="B108" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E108" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F108" s="2" t="s">
@@ -4180,7 +4292,7 @@
       <c r="G108" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I108" s="8" t="s">
+      <c r="I108" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J108" s="2" t="s">
@@ -4194,13 +4306,13 @@
       <c r="B109" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E109" s="8" t="n">
+      <c r="E109" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F109" s="2" t="s">
@@ -4209,7 +4321,7 @@
       <c r="G109" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I109" s="8" t="s">
+      <c r="I109" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J109" s="2" t="s">
@@ -4223,13 +4335,13 @@
       <c r="B110" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="E110" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F110" s="2" t="s">
@@ -4238,7 +4350,7 @@
       <c r="G110" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I110" s="8" t="s">
+      <c r="I110" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J110" s="2" t="s">
@@ -4252,13 +4364,13 @@
       <c r="B111" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E111" s="8" t="n">
+      <c r="E111" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -4267,7 +4379,7 @@
       <c r="G111" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I111" s="8" t="s">
+      <c r="I111" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J111" s="2" t="s">
@@ -4281,13 +4393,13 @@
       <c r="B112" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E112" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F112" s="2" t="s">
@@ -4296,7 +4408,7 @@
       <c r="G112" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I112" s="8" t="s">
+      <c r="I112" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J112" s="2" t="s">
@@ -4310,13 +4422,13 @@
       <c r="B113" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E113" s="8" t="n">
+      <c r="E113" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F113" s="2" t="s">
@@ -4325,7 +4437,7 @@
       <c r="G113" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I113" s="8" t="s">
+      <c r="I113" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J113" s="2" t="s">
@@ -4339,13 +4451,13 @@
       <c r="B114" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E114" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F114" s="2" t="s">
@@ -4354,7 +4466,7 @@
       <c r="G114" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I114" s="8" t="s">
+      <c r="I114" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J114" s="2" t="s">
@@ -4368,13 +4480,13 @@
       <c r="B115" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E115" s="8" t="n">
+      <c r="E115" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F115" s="2" t="s">
@@ -4383,7 +4495,7 @@
       <c r="G115" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I115" s="8" t="s">
+      <c r="I115" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J115" s="2" t="s">
@@ -4397,13 +4509,13 @@
       <c r="B116" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E116" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F116" s="2" t="s">
@@ -4412,7 +4524,7 @@
       <c r="G116" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I116" s="8" t="s">
+      <c r="I116" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J116" s="2" t="s">
@@ -4426,13 +4538,13 @@
       <c r="B117" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E117" s="8" t="n">
+      <c r="E117" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F117" s="2" t="s">
@@ -4441,7 +4553,7 @@
       <c r="G117" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I117" s="8" t="s">
+      <c r="I117" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J117" s="2" t="s">
@@ -4455,13 +4567,13 @@
       <c r="B118" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E118" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F118" s="2" t="s">
@@ -4470,7 +4582,7 @@
       <c r="G118" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I118" s="8" t="s">
+      <c r="I118" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J118" s="2" t="s">
@@ -4484,13 +4596,13 @@
       <c r="B119" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E119" s="8" t="n">
+      <c r="E119" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F119" s="2" t="s">
@@ -4499,7 +4611,7 @@
       <c r="G119" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I119" s="8" t="s">
+      <c r="I119" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J119" s="2" t="s">
@@ -4513,13 +4625,13 @@
       <c r="B120" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F120" s="2" t="s">
@@ -4528,7 +4640,7 @@
       <c r="G120" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I120" s="8" t="s">
+      <c r="I120" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J120" s="2" t="s">
@@ -4542,13 +4654,13 @@
       <c r="B121" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E121" s="8" t="n">
+      <c r="E121" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F121" s="2" t="s">
@@ -4557,7 +4669,7 @@
       <c r="G121" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I121" s="8" t="s">
+      <c r="I121" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J121" s="2" t="s">
@@ -4571,13 +4683,13 @@
       <c r="B122" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F122" s="2" t="s">
@@ -4586,7 +4698,7 @@
       <c r="G122" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I122" s="8" t="s">
+      <c r="I122" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J122" s="2" t="s">
@@ -4600,13 +4712,13 @@
       <c r="B123" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E123" s="8" t="n">
+      <c r="E123" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F123" s="2" t="s">
@@ -4615,7 +4727,7 @@
       <c r="G123" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I123" s="8" t="s">
+      <c r="I123" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J123" s="2" t="s">
@@ -4629,13 +4741,13 @@
       <c r="B124" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F124" s="2" t="s">
@@ -4644,7 +4756,7 @@
       <c r="G124" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I124" s="8" t="s">
+      <c r="I124" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J124" s="2" t="s">
@@ -4658,13 +4770,13 @@
       <c r="B125" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E125" s="8" t="n">
+      <c r="E125" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F125" s="2" t="s">
@@ -4673,7 +4785,7 @@
       <c r="G125" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I125" s="8" t="s">
+      <c r="I125" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J125" s="2" t="s">
@@ -4687,13 +4799,13 @@
       <c r="B126" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E126" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F126" s="2" t="s">
@@ -4702,7 +4814,7 @@
       <c r="G126" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I126" s="8" t="s">
+      <c r="I126" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J126" s="2" t="s">
@@ -4716,13 +4828,13 @@
       <c r="B127" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E127" s="8" t="n">
+      <c r="E127" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F127" s="2" t="s">
@@ -4731,7 +4843,7 @@
       <c r="G127" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I127" s="8" t="s">
+      <c r="I127" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J127" s="2" t="s">
@@ -4745,13 +4857,13 @@
       <c r="B128" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E128" s="8" t="s">
+      <c r="E128" s="7" t="s">
         <v>44</v>
       </c>
       <c r="F128" s="2" t="s">
@@ -4760,7 +4872,7 @@
       <c r="G128" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I128" s="8" t="s">
+      <c r="I128" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J128" s="2" t="s">
@@ -4774,13 +4886,13 @@
       <c r="B129" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="7" t="s">
         <v>59</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E129" s="8" t="n">
+      <c r="E129" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F129" s="2" t="s">
@@ -4789,7 +4901,7 @@
       <c r="G129" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="I129" s="8" t="s">
+      <c r="I129" s="7" t="s">
         <v>43</v>
       </c>
       <c r="J129" s="2" t="s">
@@ -4798,11 +4910,11 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="2"/>
-      <c r="E130" s="8"/>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="2"/>
-      <c r="E131" s="8"/>
+      <c r="E131" s="7"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576 C1:C1048576">
@@ -4876,49 +4988,49 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="73.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>105</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>108</v>
       </c>
       <c r="J1" s="5"/>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="12" t="s">
         <v>111</v>
       </c>
       <c r="N1" s="5"/>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" s="13" t="s">
         <v>114</v>
       </c>
     </row>
@@ -4932,7 +5044,7 @@
       <c r="D2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="8" t="n">
+      <c r="E2" s="7" t="n">
         <v>60</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -4941,7 +5053,7 @@
       <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="8" t="n">
+      <c r="I2" s="7" t="n">
         <v>60</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -4950,7 +5062,7 @@
       <c r="L2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M2" s="8" t="n">
+      <c r="M2" s="7" t="n">
         <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -4959,7 +5071,7 @@
       <c r="P2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q2" s="8" t="n">
+      <c r="Q2" s="7" t="n">
         <v>60</v>
       </c>
     </row>
@@ -4973,7 +5085,7 @@
       <c r="D3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="8" t="n">
+      <c r="E3" s="7" t="n">
         <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -4982,7 +5094,7 @@
       <c r="H3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="8" t="n">
+      <c r="I3" s="7" t="n">
         <v>55</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -4991,7 +5103,7 @@
       <c r="L3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="8" t="n">
+      <c r="M3" s="7" t="n">
         <v>55</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -5000,7 +5112,7 @@
       <c r="P3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="8" t="n">
+      <c r="Q3" s="7" t="n">
         <v>55</v>
       </c>
     </row>
@@ -5014,7 +5126,7 @@
       <c r="D4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="8" t="n">
+      <c r="E4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -5023,7 +5135,7 @@
       <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I4" s="8" t="n">
+      <c r="I4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -5032,7 +5144,7 @@
       <c r="L4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="8" t="n">
+      <c r="M4" s="7" t="n">
         <v>50</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -5041,7 +5153,7 @@
       <c r="P4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q4" s="8" t="n">
+      <c r="Q4" s="7" t="n">
         <v>50</v>
       </c>
     </row>
@@ -5055,7 +5167,7 @@
       <c r="D5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="7" t="n">
         <v>45</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -5064,7 +5176,7 @@
       <c r="H5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="8" t="n">
+      <c r="I5" s="7" t="n">
         <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -5073,7 +5185,7 @@
       <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="8" t="n">
+      <c r="M5" s="7" t="n">
         <v>45</v>
       </c>
       <c r="O5" s="2" t="s">
@@ -5082,7 +5194,7 @@
       <c r="P5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q5" s="8" t="n">
+      <c r="Q5" s="7" t="n">
         <v>45</v>
       </c>
     </row>
@@ -5096,7 +5208,7 @@
       <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="7" t="n">
         <v>40</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -5105,7 +5217,7 @@
       <c r="H6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="8" t="n">
+      <c r="I6" s="7" t="n">
         <v>40</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -5114,7 +5226,7 @@
       <c r="L6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M6" s="8" t="n">
+      <c r="M6" s="7" t="n">
         <v>40</v>
       </c>
       <c r="O6" s="2" t="s">
@@ -5123,7 +5235,7 @@
       <c r="P6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q6" s="8" t="n">
+      <c r="Q6" s="7" t="n">
         <v>40</v>
       </c>
     </row>
@@ -5137,7 +5249,7 @@
       <c r="D7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="7" t="n">
         <v>35</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -5146,7 +5258,7 @@
       <c r="H7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="8" t="n">
+      <c r="I7" s="7" t="n">
         <v>35</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -5155,7 +5267,7 @@
       <c r="L7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M7" s="8" t="n">
+      <c r="M7" s="7" t="n">
         <v>35</v>
       </c>
       <c r="O7" s="2" t="s">
@@ -5164,7 +5276,7 @@
       <c r="P7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q7" s="8" t="n">
+      <c r="Q7" s="7" t="n">
         <v>35</v>
       </c>
     </row>
@@ -5178,7 +5290,7 @@
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -5187,7 +5299,7 @@
       <c r="H8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="8" t="n">
+      <c r="I8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -5196,7 +5308,7 @@
       <c r="L8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M8" s="8" t="n">
+      <c r="M8" s="7" t="n">
         <v>30</v>
       </c>
       <c r="O8" s="2" t="s">
@@ -5205,7 +5317,7 @@
       <c r="P8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q8" s="8" t="n">
+      <c r="Q8" s="7" t="n">
         <v>30</v>
       </c>
     </row>
@@ -5219,7 +5331,7 @@
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="7" t="n">
         <v>25</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -5228,7 +5340,7 @@
       <c r="H9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I9" s="8" t="n">
+      <c r="I9" s="7" t="n">
         <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -5237,7 +5349,7 @@
       <c r="L9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="8" t="n">
+      <c r="M9" s="7" t="n">
         <v>25</v>
       </c>
       <c r="O9" s="2" t="s">
@@ -5246,7 +5358,7 @@
       <c r="P9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q9" s="8" t="n">
+      <c r="Q9" s="7" t="n">
         <v>25</v>
       </c>
     </row>
@@ -5260,7 +5372,7 @@
       <c r="D10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -5269,7 +5381,7 @@
       <c r="H10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="8" t="n">
+      <c r="I10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -5278,7 +5390,7 @@
       <c r="L10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="8" t="n">
+      <c r="M10" s="7" t="n">
         <v>20</v>
       </c>
       <c r="O10" s="2" t="s">
@@ -5287,7 +5399,7 @@
       <c r="P10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="8" t="n">
+      <c r="Q10" s="7" t="n">
         <v>20</v>
       </c>
     </row>
@@ -5301,7 +5413,7 @@
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="7" t="n">
         <v>15</v>
       </c>
       <c r="G11" s="2" t="s">
@@ -5310,7 +5422,7 @@
       <c r="H11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I11" s="8" t="n">
+      <c r="I11" s="7" t="n">
         <v>15</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -5319,7 +5431,7 @@
       <c r="L11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M11" s="8" t="n">
+      <c r="M11" s="7" t="n">
         <v>15</v>
       </c>
       <c r="O11" s="2" t="s">
@@ -5328,7 +5440,7 @@
       <c r="P11" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q11" s="8" t="n">
+      <c r="Q11" s="7" t="n">
         <v>15</v>
       </c>
     </row>
@@ -5342,7 +5454,7 @@
       <c r="D12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -5351,7 +5463,7 @@
       <c r="H12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="8" t="n">
+      <c r="I12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -5360,7 +5472,7 @@
       <c r="L12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M12" s="8" t="n">
+      <c r="M12" s="7" t="n">
         <v>10</v>
       </c>
       <c r="O12" s="2" t="s">
@@ -5369,7 +5481,7 @@
       <c r="P12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="8" t="n">
+      <c r="Q12" s="7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -5386,7 +5498,7 @@
       <c r="D13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -5395,7 +5507,7 @@
       <c r="H13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="8" t="n">
+      <c r="I13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -5404,7 +5516,7 @@
       <c r="L13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="8" t="n">
+      <c r="M13" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O13" s="2" t="s">
@@ -5413,7 +5525,7 @@
       <c r="P13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q13" s="8" t="n">
+      <c r="Q13" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5427,7 +5539,7 @@
       <c r="D14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
@@ -5436,7 +5548,7 @@
       <c r="H14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I14" s="8" t="n">
+      <c r="I14" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -5445,7 +5557,7 @@
       <c r="L14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="8" t="n">
+      <c r="M14" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O14" s="2" t="s">
@@ -5454,7 +5566,7 @@
       <c r="P14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q14" s="8" t="n">
+      <c r="Q14" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5468,7 +5580,7 @@
       <c r="D15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -5477,7 +5589,7 @@
       <c r="H15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I15" s="8" t="n">
+      <c r="I15" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -5486,7 +5598,7 @@
       <c r="L15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="8" t="n">
+      <c r="M15" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O15" s="2" t="s">
@@ -5495,7 +5607,7 @@
       <c r="P15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q15" s="8" t="n">
+      <c r="Q15" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5509,7 +5621,7 @@
       <c r="D16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -5518,7 +5630,7 @@
       <c r="H16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="8" t="n">
+      <c r="I16" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -5527,7 +5639,7 @@
       <c r="L16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M16" s="8" t="n">
+      <c r="M16" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O16" s="2" t="s">
@@ -5536,7 +5648,7 @@
       <c r="P16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q16" s="8" t="n">
+      <c r="Q16" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5550,7 +5662,7 @@
       <c r="D17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -5559,7 +5671,7 @@
       <c r="H17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="8" t="n">
+      <c r="I17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -5568,7 +5680,7 @@
       <c r="L17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="8" t="n">
+      <c r="M17" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O17" s="2" t="s">
@@ -5577,7 +5689,7 @@
       <c r="P17" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q17" s="8" t="n">
+      <c r="Q17" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5591,7 +5703,7 @@
       <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G18" s="2" t="s">
@@ -5600,7 +5712,7 @@
       <c r="H18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I18" s="8" t="n">
+      <c r="I18" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -5609,7 +5721,7 @@
       <c r="L18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M18" s="8" t="n">
+      <c r="M18" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O18" s="2" t="s">
@@ -5618,7 +5730,7 @@
       <c r="P18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q18" s="8" t="n">
+      <c r="Q18" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5632,7 +5744,7 @@
       <c r="D19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -5641,7 +5753,7 @@
       <c r="H19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="8" t="n">
+      <c r="I19" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -5650,7 +5762,7 @@
       <c r="L19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="8" t="n">
+      <c r="M19" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O19" s="2" t="s">
@@ -5659,7 +5771,7 @@
       <c r="P19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q19" s="8" t="n">
+      <c r="Q19" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5673,7 +5785,7 @@
       <c r="D20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G20" s="2" t="s">
@@ -5682,7 +5794,7 @@
       <c r="H20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I20" s="8" t="n">
+      <c r="I20" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -5691,7 +5803,7 @@
       <c r="L20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="8" t="n">
+      <c r="M20" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O20" s="2" t="s">
@@ -5700,7 +5812,7 @@
       <c r="P20" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q20" s="8" t="n">
+      <c r="Q20" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5714,7 +5826,7 @@
       <c r="D21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -5723,7 +5835,7 @@
       <c r="H21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I21" s="8" t="n">
+      <c r="I21" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -5732,7 +5844,7 @@
       <c r="L21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M21" s="8" t="n">
+      <c r="M21" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O21" s="2" t="s">
@@ -5741,7 +5853,7 @@
       <c r="P21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q21" s="8" t="n">
+      <c r="Q21" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5755,7 +5867,7 @@
       <c r="D22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G22" s="2" t="s">
@@ -5764,7 +5876,7 @@
       <c r="H22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="8" t="n">
+      <c r="I22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -5773,7 +5885,7 @@
       <c r="L22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M22" s="8" t="n">
+      <c r="M22" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O22" s="2" t="s">
@@ -5782,7 +5894,7 @@
       <c r="P22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q22" s="8" t="n">
+      <c r="Q22" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5796,7 +5908,7 @@
       <c r="D23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -5805,7 +5917,7 @@
       <c r="H23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I23" s="8" t="n">
+      <c r="I23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -5814,7 +5926,7 @@
       <c r="L23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M23" s="8" t="n">
+      <c r="M23" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O23" s="2" t="s">
@@ -5823,7 +5935,7 @@
       <c r="P23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q23" s="8" t="n">
+      <c r="Q23" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5837,7 +5949,7 @@
       <c r="D24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G24" s="2" t="s">
@@ -5846,7 +5958,7 @@
       <c r="H24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I24" s="8" t="n">
+      <c r="I24" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -5855,7 +5967,7 @@
       <c r="L24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M24" s="8" t="n">
+      <c r="M24" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O24" s="2" t="s">
@@ -5864,7 +5976,7 @@
       <c r="P24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q24" s="8" t="n">
+      <c r="Q24" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5878,7 +5990,7 @@
       <c r="D25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -5887,7 +5999,7 @@
       <c r="H25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I25" s="8" t="n">
+      <c r="I25" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -5896,7 +6008,7 @@
       <c r="L25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M25" s="8" t="n">
+      <c r="M25" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O25" s="2" t="s">
@@ -5905,7 +6017,7 @@
       <c r="P25" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q25" s="8" t="n">
+      <c r="Q25" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5919,7 +6031,7 @@
       <c r="D26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -5928,7 +6040,7 @@
       <c r="H26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I26" s="8" t="n">
+      <c r="I26" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -5937,7 +6049,7 @@
       <c r="L26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M26" s="8" t="n">
+      <c r="M26" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O26" s="2" t="s">
@@ -5946,7 +6058,7 @@
       <c r="P26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q26" s="8" t="n">
+      <c r="Q26" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5960,7 +6072,7 @@
       <c r="D27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -5969,7 +6081,7 @@
       <c r="H27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I27" s="8" t="n">
+      <c r="I27" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -5978,7 +6090,7 @@
       <c r="L27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M27" s="8" t="n">
+      <c r="M27" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O27" s="2" t="s">
@@ -5987,7 +6099,7 @@
       <c r="P27" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q27" s="8" t="n">
+      <c r="Q27" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6001,7 +6113,7 @@
       <c r="D28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G28" s="2" t="s">
@@ -6010,7 +6122,7 @@
       <c r="H28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I28" s="8" t="n">
+      <c r="I28" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -6019,7 +6131,7 @@
       <c r="L28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M28" s="8" t="n">
+      <c r="M28" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O28" s="2" t="s">
@@ -6028,7 +6140,7 @@
       <c r="P28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q28" s="8" t="n">
+      <c r="Q28" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6042,7 +6154,7 @@
       <c r="D29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -6051,7 +6163,7 @@
       <c r="H29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="8" t="n">
+      <c r="I29" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -6060,7 +6172,7 @@
       <c r="L29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M29" s="8" t="n">
+      <c r="M29" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O29" s="2" t="s">
@@ -6069,7 +6181,7 @@
       <c r="P29" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Q29" s="8" t="n">
+      <c r="Q29" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6083,7 +6195,7 @@
       <c r="D30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -6092,7 +6204,7 @@
       <c r="H30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I30" s="8" t="n">
+      <c r="I30" s="7" t="n">
         <v>5</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -6101,7 +6213,7 @@
       <c r="L30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M30" s="8" t="n">
+      <c r="M30" s="7" t="n">
         <v>5</v>
       </c>
       <c r="O30" s="2" t="s">
@@ -6110,7 +6222,7 @@
       <c r="P30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Q30" s="8" t="n">
+      <c r="Q30" s="7" t="n">
         <v>5</v>
       </c>
     </row>
@@ -6124,7 +6236,7 @@
       <c r="D31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="7" t="n">
         <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -6133,7 +6245,7 @@
       <c r="H31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I31" s="8" t="n">
+      <c r=